--- a/Conlangs/Fantasy Languages.xlsx
+++ b/Conlangs/Fantasy Languages.xlsx
@@ -8,14 +8,14 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Dagsvaldian!$A$1:$C$1000</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Esrel!$A$1:$B$422</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Esrel!$A$1:$B$424</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="2050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="2053">
   <si>
     <t>Word</t>
   </si>
@@ -86,7 +86,7 @@
     <t>nus ægni blûvur = blue very robes (very blue robes)</t>
   </si>
   <si>
-    <t>them</t>
+    <t>need</t>
   </si>
   <si>
     <t>2. Use as little words as possible.</t>
@@ -2051,7 +2051,7 @@
     <t>kal</t>
   </si>
   <si>
-    <t>cup, mug, tankard</t>
+    <t>cup, mug, tankard, goblet</t>
   </si>
   <si>
     <t>kald</t>
@@ -3965,333 +3965,333 @@
     <t>dwarf</t>
   </si>
   <si>
-    <t>aeathu</t>
+    <t>aefi</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>vese bor'bith = a one'guy (a guy, if it's just one then don't need)</t>
+  </si>
+  <si>
+    <t>1. Use the OSV order.</t>
+  </si>
+  <si>
+    <t>Al lot sig nor. (I like this rock.)</t>
+  </si>
+  <si>
+    <t>ael</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>owner (-ril)</t>
+  </si>
+  <si>
+    <t>ere'ril = my</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>Al atr Alti heim. (I go I own home.) (because atr means "to go, or move to", we don't need an extra "to")</t>
+  </si>
+  <si>
+    <t>aelfni</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>plural (-ru)</t>
+  </si>
+  <si>
+    <t>bithru = guys</t>
+  </si>
+  <si>
+    <t>Al davde sar. (I runned there.) (You follow the morpheme rules. Ran = Run (verb) + ed (past tense).)</t>
+  </si>
+  <si>
+    <t>aiemash</t>
+  </si>
+  <si>
+    <t>likeness (-via)</t>
+  </si>
+  <si>
+    <t>dalasvia = like red (colored red), esrelu'via (from esrelu)</t>
+  </si>
+  <si>
+    <t>aien</t>
+  </si>
+  <si>
+    <t>present tense (-tha)</t>
+  </si>
+  <si>
+    <t>ansraeltha = vanishing</t>
+  </si>
+  <si>
+    <t>5. Prefixes with words that end in a vowel</t>
+  </si>
+  <si>
+    <t>Vowels: I, E, or U, use an apostrophe to seperate it. "Verutha" turns into "Veru'tha"</t>
+  </si>
+  <si>
+    <t>ala</t>
+  </si>
+  <si>
+    <t>we, us, our</t>
+  </si>
+  <si>
+    <t>past tense (-lath)</t>
+  </si>
+  <si>
+    <t>veru'lath = ran</t>
+  </si>
+  <si>
+    <t>aleras</t>
+  </si>
+  <si>
+    <t>mean, meaning</t>
+  </si>
+  <si>
+    <t>future tense (pesu)</t>
+  </si>
+  <si>
+    <t>veru pesu = run will (will run)</t>
+  </si>
+  <si>
+    <t>aliöm</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>negator/not (ine-)</t>
+  </si>
+  <si>
+    <t>haeth ine'raûnd fa = there zero'person is at (there's no one)</t>
+  </si>
+  <si>
+    <t>alörbu</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>question (döre)</t>
+  </si>
+  <si>
+    <t>döre ûvi'raûnd ilath = if any'person able (is anyone able to)</t>
+  </si>
+  <si>
+    <t>alösa</t>
+  </si>
+  <si>
+    <t>bolt</t>
+  </si>
+  <si>
+    <t>male occupation (-faon)</t>
+  </si>
+  <si>
+    <t>baelaeafaon = wood man (probably lumberjack)</t>
+  </si>
+  <si>
+    <t>alpör</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>female occupation (-fera)</t>
+  </si>
+  <si>
+    <t>bintrafera = farm woman (probably farmer)</t>
+  </si>
+  <si>
+    <t>alta</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>lissu'zivas = water'drop (drop of water)</t>
+  </si>
+  <si>
+    <t>alûande</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>amöru</t>
+  </si>
+  <si>
+    <t>ankiyr</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>move, go</t>
+  </si>
+  <si>
+    <t>anrislo</t>
+  </si>
+  <si>
+    <t>ansrael</t>
+  </si>
+  <si>
+    <t>vanish</t>
+  </si>
+  <si>
+    <t>ansrivar</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>ansvûre</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>aomil</t>
+  </si>
+  <si>
+    <t>mushroom, toadstood, fungus</t>
+  </si>
+  <si>
+    <t>ardath</t>
+  </si>
+  <si>
+    <t>ardûit</t>
+  </si>
+  <si>
+    <t>crate, box, chest</t>
+  </si>
+  <si>
+    <t>ath</t>
+  </si>
+  <si>
+    <t>athirath</t>
+  </si>
+  <si>
+    <t>monster</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>athiyas</t>
+  </si>
+  <si>
+    <t>avotar</t>
+  </si>
+  <si>
+    <t>baelaea</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>baol</t>
+  </si>
+  <si>
+    <t>deteriorate, disintegrate, break down, decay</t>
+  </si>
+  <si>
+    <t>baoth</t>
+  </si>
+  <si>
+    <t>destroy, break, deter</t>
+  </si>
+  <si>
+    <t>belqweriysu</t>
+  </si>
+  <si>
+    <t>foreigner, stranger</t>
+  </si>
+  <si>
+    <t>beorassi</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>beoru</t>
+  </si>
+  <si>
+    <t>bera</t>
+  </si>
+  <si>
+    <t>they, them, their</t>
+  </si>
+  <si>
+    <t>beufiyl</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>biele</t>
+  </si>
+  <si>
+    <t>bierndu</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>bint</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>bintra</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>bir</t>
+  </si>
+  <si>
+    <t>biröril</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>bith</t>
+  </si>
+  <si>
+    <t>man, guy</t>
+  </si>
+  <si>
+    <t>biyr</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>blore</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>bolur</t>
   </si>
   <si>
     <t>require</t>
   </si>
   <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>vese bor'bith = a one'guy (a guy, if it's just one then don't need)</t>
-  </si>
-  <si>
-    <t>1. Use the OSV order.</t>
-  </si>
-  <si>
-    <t>Al lot sig nor. (I like this rock.)</t>
-  </si>
-  <si>
-    <t>ael</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>owner (-ril)</t>
-  </si>
-  <si>
-    <t>ere'ril = my</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>Al atr Alti heim. (I go I own home.) (because atr means "to go, or move to", we don't need an extra "to")</t>
-  </si>
-  <si>
-    <t>aelfni</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>plural (-ru)</t>
-  </si>
-  <si>
-    <t>bithru = guys</t>
-  </si>
-  <si>
-    <t>Al davde sar. (I runned there.) (You follow the morpheme rules. Ran = Run (verb) + ed (past tense).)</t>
-  </si>
-  <si>
-    <t>aem</t>
-  </si>
-  <si>
-    <t>likeness (-via)</t>
-  </si>
-  <si>
-    <t>dalasvia = like red (colored red), esrelu'via (from esrelu)</t>
-  </si>
-  <si>
-    <t>aiemash</t>
-  </si>
-  <si>
-    <t>present tense (-tha)</t>
-  </si>
-  <si>
-    <t>ansraeltha = vanishing</t>
-  </si>
-  <si>
-    <t>5. Prefixes with words that end in a vowel</t>
-  </si>
-  <si>
-    <t>Vowels: I, E, or U, use an apostrophe to seperate it. "Verutha" turns into "Veru'tha"</t>
-  </si>
-  <si>
-    <t>aien</t>
-  </si>
-  <si>
-    <t>past tense (-lath)</t>
-  </si>
-  <si>
-    <t>veru'lath = ran</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>we, us, our</t>
-  </si>
-  <si>
-    <t>future tense (pesu)</t>
-  </si>
-  <si>
-    <t>veru pesu = run will (will run)</t>
-  </si>
-  <si>
-    <t>aleras</t>
-  </si>
-  <si>
-    <t>mean, meaning</t>
-  </si>
-  <si>
-    <t>negator/not (ine-)</t>
-  </si>
-  <si>
-    <t>haeth ine'raûnd fa = there zero'person is at (there's no one)</t>
-  </si>
-  <si>
-    <t>aliöm</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>question (döre)</t>
-  </si>
-  <si>
-    <t>döre ûvi'raûnd ilath = if any'person able (is anyone able to)</t>
-  </si>
-  <si>
-    <t>alörbu</t>
-  </si>
-  <si>
-    <t>window</t>
-  </si>
-  <si>
-    <t>male occupation (-faon)</t>
-  </si>
-  <si>
-    <t>baelaeafaon = wood man (probably lumberjack)</t>
-  </si>
-  <si>
-    <t>alösa</t>
-  </si>
-  <si>
-    <t>bolt</t>
-  </si>
-  <si>
-    <t>female occupation (-fera)</t>
-  </si>
-  <si>
-    <t>bintrafera = farm woman (probably farmer)</t>
-  </si>
-  <si>
-    <t>alpör</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>lissu'zivas = water'drop (drop of water)</t>
-  </si>
-  <si>
-    <t>alta</t>
-  </si>
-  <si>
-    <t>alûande</t>
-  </si>
-  <si>
-    <t>ocean</t>
-  </si>
-  <si>
-    <t>amöru</t>
-  </si>
-  <si>
-    <t>ankiyr</t>
-  </si>
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>move, go</t>
-  </si>
-  <si>
-    <t>anrislo</t>
-  </si>
-  <si>
-    <t>ansrael</t>
-  </si>
-  <si>
-    <t>vanish</t>
-  </si>
-  <si>
-    <t>ansrivar</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>ansvûre</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>aomil</t>
-  </si>
-  <si>
-    <t>mushroom, toadstood, fungus</t>
-  </si>
-  <si>
-    <t>ardath</t>
-  </si>
-  <si>
-    <t>ardûit</t>
-  </si>
-  <si>
-    <t>crate, box, chest</t>
-  </si>
-  <si>
-    <t>ath</t>
-  </si>
-  <si>
-    <t>ou</t>
-  </si>
-  <si>
-    <t>athirath</t>
-  </si>
-  <si>
-    <t>monster</t>
-  </si>
-  <si>
-    <t>athiyas</t>
-  </si>
-  <si>
-    <t>avotar</t>
-  </si>
-  <si>
-    <t>Ö</t>
-  </si>
-  <si>
-    <t>baelaea</t>
-  </si>
-  <si>
-    <t>baol</t>
-  </si>
-  <si>
-    <t>deteriorate, disintegrate, break down, decay</t>
-  </si>
-  <si>
-    <t>baoth</t>
-  </si>
-  <si>
-    <t>destroy, break, deter</t>
-  </si>
-  <si>
-    <t>belqweriysu</t>
-  </si>
-  <si>
-    <t>foreigner, stranger</t>
-  </si>
-  <si>
-    <t>beorassi</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>beoru</t>
-  </si>
-  <si>
-    <t>bera</t>
-  </si>
-  <si>
-    <t>they, them, their</t>
-  </si>
-  <si>
-    <t>beufiyl</t>
-  </si>
-  <si>
-    <t>poison</t>
-  </si>
-  <si>
-    <t>biele</t>
-  </si>
-  <si>
-    <t>bierndu</t>
-  </si>
-  <si>
-    <t>cave</t>
-  </si>
-  <si>
-    <t>bint</t>
-  </si>
-  <si>
-    <t>boy</t>
-  </si>
-  <si>
-    <t>bintra</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>bir</t>
-  </si>
-  <si>
-    <t>biröril</t>
-  </si>
-  <si>
-    <t>potato</t>
-  </si>
-  <si>
-    <t>bith</t>
-  </si>
-  <si>
-    <t>man, guy</t>
-  </si>
-  <si>
-    <t>biyr</t>
-  </si>
-  <si>
-    <t>garbage</t>
-  </si>
-  <si>
-    <t>blore</t>
-  </si>
-  <si>
-    <t>wool</t>
-  </si>
-  <si>
     <t>bor</t>
   </si>
   <si>
@@ -4967,6 +4967,9 @@
     <t>mace (weapon)</t>
   </si>
   <si>
+    <t>kalan</t>
+  </si>
+  <si>
     <t>kalanu</t>
   </si>
   <si>
@@ -5117,6 +5120,12 @@
     <t>lûl</t>
   </si>
   <si>
+    <t>lur</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
     <t>lurliyth</t>
   </si>
   <si>
@@ -5345,7 +5354,7 @@
     <t>öndriönd</t>
   </si>
   <si>
-    <t>ondurvil</t>
+    <t>ondurssin</t>
   </si>
   <si>
     <t>live somewhere</t>
@@ -6850,12 +6859,12 @@
         <v>37</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1000, REGEXMATCH(B2:B1000, H3)), 2, TRUE)"),"dur")</f>
-        <v>dur</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1000, REGEXMATCH(B2:B1000, H3)), 2, TRUE)"),"nedvir")</f>
+        <v>nedvir</v>
       </c>
       <c r="H5" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"group of creatures, they, them, their")</f>
-        <v>group of creatures, they, them, their</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"need, require")</f>
+        <v>need, require</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="13" t="s">
@@ -6897,14 +6906,8 @@
       <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bof")</f>
-        <v>bof</v>
-      </c>
-      <c r="H6" s="8" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"touch, feel, feeling, emotion, theme, taste")</f>
-        <v>touch, feel, feeling, emotion, theme, taste</v>
-      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="13" t="s">
         <v>44</v>
@@ -37447,20 +37450,20 @@
       <c r="U1" s="30"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="14" t="s">
         <v>1316</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>1317</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>1318</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>1319</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>1320</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>15</v>
@@ -37471,10 +37474,10 @@
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="31" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>1321</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>1322</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -37490,32 +37493,32 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1323</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="31" t="s">
         <v>1324</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>1325</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="33" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -37531,19 +37534,19 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>1329</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="31" t="s">
         <v>1330</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>1331</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:B, EQ(A:A, G3))"),"#N/A")</f>
@@ -37555,7 +37558,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -37571,27 +37574,27 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1334</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>1335</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F5" s="38" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A:B, REGEXMATCH(B:B, G3)), 2, TRUE)"),"ano")</f>
-        <v>ano</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A:B, REGEXMATCH(B:B, G3)), 2, TRUE)"),"örthûnfin")</f>
+        <v>örthûnfin</v>
       </c>
       <c r="G5" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move, go")</f>
-        <v>move, go</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"big cat")</f>
+        <v>big cat</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="39" t="s">
@@ -37614,28 +37617,34 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>1337</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>1338</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+        <v>1338</v>
+      </c>
+      <c r="F6" s="37" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fonth")</f>
+        <v>fonth</v>
+      </c>
+      <c r="G6" s="37" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"big, large")</f>
+        <v>big, large</v>
+      </c>
       <c r="H6" s="24"/>
       <c r="I6" s="32" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>1340</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>1341</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -37651,10 +37660,10 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>1342</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>1343</v>
@@ -37726,7 +37735,7 @@
         <v>1351</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>1352</v>
@@ -37848,20 +37857,20 @@
       <c r="U12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="31" t="s">
         <v>1365</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>1366</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>1367</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -37881,11 +37890,11 @@
       <c r="U13" s="14"/>
     </row>
     <row r="14">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="14" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>1369</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>84</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -37912,7 +37921,7 @@
         <v>1370</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1371</v>
+        <v>457</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="33"/>
@@ -37936,10 +37945,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>457</v>
+        <v>688</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -37963,10 +37972,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>1373</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>688</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -37993,7 +38002,7 @@
         <v>1374</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1375</v>
+        <v>714</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -38017,10 +38026,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>1376</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>714</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -38134,7 +38143,7 @@
         <v>1383</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1384</v>
+        <v>985</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>132</v>
@@ -38162,10 +38171,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>1385</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>985</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>136</v>
@@ -38196,7 +38205,7 @@
         <v>1386</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1387</v>
+        <v>252</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>140</v>
@@ -38226,10 +38235,10 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>1388</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>252</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>145</v>
@@ -38256,11 +38265,11 @@
       <c r="U26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="31" t="s">
         <v>1390</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>1391</v>
+      <c r="B27" s="31" t="s">
+        <v>1283</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>149</v>
@@ -38289,11 +38298,11 @@
       <c r="U27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="31" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>1283</v>
+      <c r="A28" s="14" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>650</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>154</v>
@@ -38321,13 +38330,13 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="31" t="s">
         <v>1393</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>1394</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>146</v>
@@ -38352,10 +38361,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>1395</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>413</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -38463,7 +38472,7 @@
         <v>1402</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1403</v>
+        <v>244</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -38487,10 +38496,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>1404</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -38544,7 +38553,7 @@
         <v>1407</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1408</v>
+        <v>891</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -38568,10 +38577,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>1409</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>891</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -38621,10 +38630,10 @@
       <c r="U39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="31" t="s">
         <v>1412</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="31" t="s">
         <v>1413</v>
       </c>
       <c r="C40" s="14"/>
@@ -38652,7 +38661,7 @@
         <v>1414</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>1415</v>
+        <v>270</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -38675,11 +38684,11 @@
       <c r="U41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>1416</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -38702,10 +38711,10 @@
       <c r="U42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="31" t="s">
         <v>1417</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="31" t="s">
         <v>1418</v>
       </c>
       <c r="C43" s="14"/>
@@ -38729,10 +38738,10 @@
       <c r="U43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="14" t="s">
         <v>1419</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="14" t="s">
         <v>1420</v>
       </c>
       <c r="C44" s="14"/>
@@ -38783,10 +38792,10 @@
       <c r="U45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="31" t="s">
         <v>1423</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="31" t="s">
         <v>1424</v>
       </c>
       <c r="C46" s="13"/>
@@ -39381,7 +39390,7 @@
         <v>1459</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -42459,7 +42468,7 @@
         <v>1650</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>1651</v>
+        <v>678</v>
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="13"/>
@@ -42483,10 +42492,10 @@
     </row>
     <row r="183">
       <c r="A183" s="14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B183" s="14" t="s">
         <v>1652</v>
-      </c>
-      <c r="B183" s="14" t="s">
-        <v>708</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="13"/>
@@ -42513,7 +42522,7 @@
         <v>1653</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>1654</v>
+        <v>708</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="13"/>
@@ -42536,11 +42545,11 @@
       <c r="U184" s="14"/>
     </row>
     <row r="185">
-      <c r="A185" s="11" t="s">
+      <c r="A185" s="14" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>1655</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>1052</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
@@ -42563,11 +42572,11 @@
       <c r="U185" s="13"/>
     </row>
     <row r="186">
-      <c r="A186" s="14" t="s">
+      <c r="A186" s="11" t="s">
         <v>1656</v>
       </c>
-      <c r="B186" s="14" t="s">
-        <v>1657</v>
+      <c r="B186" s="11" t="s">
+        <v>1052</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
@@ -42591,10 +42600,10 @@
     </row>
     <row r="187">
       <c r="A187" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B187" s="14" t="s">
         <v>1658</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>1659</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
@@ -42618,10 +42627,10 @@
     </row>
     <row r="188">
       <c r="A188" s="14" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B188" s="14" t="s">
         <v>1660</v>
-      </c>
-      <c r="B188" s="14" t="s">
-        <v>1661</v>
       </c>
       <c r="C188" s="14"/>
       <c r="D188" s="14"/>
@@ -42645,10 +42654,10 @@
     </row>
     <row r="189">
       <c r="A189" s="14" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B189" s="14" t="s">
         <v>1662</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>1046</v>
       </c>
       <c r="C189" s="14"/>
       <c r="D189" s="14"/>
@@ -42675,7 +42684,7 @@
         <v>1663</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>591</v>
+        <v>1046</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
@@ -42702,7 +42711,7 @@
         <v>1664</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>1665</v>
+        <v>591</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
@@ -42726,10 +42735,10 @@
     </row>
     <row r="192">
       <c r="A192" s="14" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B192" s="14" t="s">
         <v>1666</v>
-      </c>
-      <c r="B192" s="14" t="s">
-        <v>1185</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -42756,7 +42765,7 @@
         <v>1667</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>1668</v>
+        <v>1185</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
@@ -42780,10 +42789,10 @@
     </row>
     <row r="194">
       <c r="A194" s="14" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B194" s="14" t="s">
         <v>1669</v>
-      </c>
-      <c r="B194" s="14" t="s">
-        <v>758</v>
       </c>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
@@ -42810,7 +42819,7 @@
         <v>1670</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>1671</v>
+        <v>758</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="14"/>
@@ -42834,10 +42843,10 @@
     </row>
     <row r="196">
       <c r="A196" s="14" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B196" s="14" t="s">
         <v>1672</v>
-      </c>
-      <c r="B196" s="14" t="s">
-        <v>1673</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -42861,10 +42870,10 @@
     </row>
     <row r="197">
       <c r="A197" s="14" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B197" s="14" t="s">
         <v>1674</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>1675</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
@@ -42888,10 +42897,10 @@
     </row>
     <row r="198">
       <c r="A198" s="14" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B198" s="14" t="s">
         <v>1676</v>
-      </c>
-      <c r="B198" s="14" t="s">
-        <v>1677</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
@@ -42914,11 +42923,11 @@
       <c r="U198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="11" t="s">
+      <c r="A199" s="14" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B199" s="14" t="s">
         <v>1678</v>
-      </c>
-      <c r="B199" s="11" t="s">
-        <v>1679</v>
       </c>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
@@ -42941,11 +42950,11 @@
       <c r="U199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="31" t="s">
+      <c r="A200" s="11" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B200" s="11" t="s">
         <v>1680</v>
-      </c>
-      <c r="B200" s="31" t="s">
-        <v>1080</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="8"/>
@@ -42972,7 +42981,7 @@
         <v>1681</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>1682</v>
+        <v>1080</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -42995,11 +43004,11 @@
       <c r="U201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="14" t="s">
+      <c r="A202" s="31" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B202" s="31" t="s">
         <v>1683</v>
-      </c>
-      <c r="B202" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
@@ -43026,7 +43035,7 @@
         <v>1684</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>1685</v>
+        <v>662</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
@@ -43050,10 +43059,10 @@
     </row>
     <row r="204">
       <c r="A204" s="14" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B204" s="14" t="s">
         <v>1686</v>
-      </c>
-      <c r="B204" s="14" t="s">
-        <v>1687</v>
       </c>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
@@ -43077,10 +43086,10 @@
     </row>
     <row r="205">
       <c r="A205" s="14" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B205" s="14" t="s">
         <v>1688</v>
-      </c>
-      <c r="B205" s="14" t="s">
-        <v>1032</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
@@ -43107,7 +43116,7 @@
         <v>1689</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>853</v>
+        <v>1032</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
@@ -43134,7 +43143,7 @@
         <v>1690</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>200</v>
+        <v>853</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
@@ -43161,7 +43170,7 @@
         <v>1691</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
@@ -43188,7 +43197,7 @@
         <v>1692</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>1199</v>
+        <v>224</v>
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
@@ -43215,7 +43224,7 @@
         <v>1693</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>1694</v>
+        <v>1199</v>
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
@@ -43238,11 +43247,11 @@
       <c r="U210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="31" t="s">
+      <c r="A211" s="14" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B211" s="14" t="s">
         <v>1695</v>
-      </c>
-      <c r="B211" s="31" t="s">
-        <v>1696</v>
       </c>
       <c r="C211" s="27"/>
       <c r="D211" s="28"/>
@@ -43265,11 +43274,11 @@
       <c r="U211" s="30"/>
     </row>
     <row r="212">
-      <c r="A212" s="14" t="s">
+      <c r="A212" s="31" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B212" s="31" t="s">
         <v>1697</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>1698</v>
       </c>
       <c r="C212" s="12"/>
       <c r="D212" s="13"/>
@@ -43293,10 +43302,10 @@
     </row>
     <row r="213">
       <c r="A213" s="14" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B213" s="14" t="s">
         <v>1699</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="13"/>
@@ -43323,7 +43332,7 @@
         <v>1700</v>
       </c>
       <c r="B214" s="14" t="s">
-        <v>585</v>
+        <v>776</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="13"/>
@@ -43377,7 +43386,7 @@
         <v>1703</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>1704</v>
+        <v>585</v>
       </c>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
@@ -43401,10 +43410,10 @@
     </row>
     <row r="217">
       <c r="A217" s="14" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B217" s="14" t="s">
         <v>1705</v>
-      </c>
-      <c r="B217" s="14" t="s">
-        <v>917</v>
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
@@ -43458,7 +43467,7 @@
         <v>1708</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>1709</v>
+        <v>917</v>
       </c>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
@@ -43482,10 +43491,10 @@
     </row>
     <row r="220">
       <c r="A220" s="14" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B220" s="14" t="s">
         <v>1710</v>
-      </c>
-      <c r="B220" s="14" t="s">
-        <v>1711</v>
       </c>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
@@ -43509,10 +43518,10 @@
     </row>
     <row r="221">
       <c r="A221" s="14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B221" s="14" t="s">
         <v>1712</v>
-      </c>
-      <c r="B221" s="14" t="s">
-        <v>1713</v>
       </c>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
@@ -43536,10 +43545,10 @@
     </row>
     <row r="222">
       <c r="A222" s="14" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B222" s="14" t="s">
         <v>1714</v>
-      </c>
-      <c r="B222" s="14" t="s">
-        <v>1715</v>
       </c>
       <c r="C222" s="14"/>
       <c r="D222" s="14"/>
@@ -43563,10 +43572,10 @@
     </row>
     <row r="223">
       <c r="A223" s="14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B223" s="14" t="s">
         <v>1716</v>
-      </c>
-      <c r="B223" s="14" t="s">
-        <v>1717</v>
       </c>
       <c r="C223" s="14"/>
       <c r="D223" s="14"/>
@@ -43590,10 +43599,10 @@
     </row>
     <row r="224">
       <c r="A224" s="14" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B224" s="14" t="s">
         <v>1718</v>
-      </c>
-      <c r="B224" s="14" t="s">
-        <v>835</v>
       </c>
       <c r="C224" s="14"/>
       <c r="D224" s="14"/>
@@ -43647,7 +43656,7 @@
         <v>1721</v>
       </c>
       <c r="B226" s="14" t="s">
-        <v>1722</v>
+        <v>835</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
@@ -43671,10 +43680,10 @@
     </row>
     <row r="227">
       <c r="A227" s="14" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B227" s="14" t="s">
         <v>1723</v>
-      </c>
-      <c r="B227" s="14" t="s">
-        <v>748</v>
       </c>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
@@ -43728,7 +43737,7 @@
         <v>1726</v>
       </c>
       <c r="B229" s="14" t="s">
-        <v>96</v>
+        <v>748</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -43782,7 +43791,7 @@
         <v>1729</v>
       </c>
       <c r="B231" s="14" t="s">
-        <v>577</v>
+        <v>96</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -43836,7 +43845,7 @@
         <v>1732</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>1733</v>
+        <v>577</v>
       </c>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
@@ -43860,10 +43869,10 @@
     </row>
     <row r="234">
       <c r="A234" s="14" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B234" s="14" t="s">
         <v>1734</v>
-      </c>
-      <c r="B234" s="14" t="s">
-        <v>965</v>
       </c>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
@@ -43913,11 +43922,11 @@
       <c r="U235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="11" t="s">
+      <c r="A236" s="14" t="s">
         <v>1737</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>1738</v>
+      <c r="B236" s="14" t="s">
+        <v>965</v>
       </c>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
@@ -43941,10 +43950,10 @@
     </row>
     <row r="237">
       <c r="A237" s="14" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B237" s="14" t="s">
         <v>1739</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>1740</v>
       </c>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
@@ -43967,11 +43976,11 @@
       <c r="U237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="14" t="s">
+      <c r="A238" s="11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B238" s="11" t="s">
         <v>1741</v>
-      </c>
-      <c r="B238" s="14" t="s">
-        <v>184</v>
       </c>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
@@ -44021,11 +44030,11 @@
       <c r="U239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="11" t="s">
+      <c r="A240" s="14" t="s">
         <v>1744</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>1745</v>
+      <c r="B240" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
@@ -44049,10 +44058,10 @@
     </row>
     <row r="241">
       <c r="A241" s="14" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B241" s="14" t="s">
         <v>1746</v>
-      </c>
-      <c r="B241" s="14" t="s">
-        <v>1747</v>
       </c>
       <c r="C241" s="27"/>
       <c r="D241" s="28"/>
@@ -44075,11 +44084,11 @@
       <c r="U241" s="30"/>
     </row>
     <row r="242">
-      <c r="A242" s="14" t="s">
+      <c r="A242" s="11" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B242" s="11" t="s">
         <v>1748</v>
-      </c>
-      <c r="B242" s="14" t="s">
-        <v>1749</v>
       </c>
       <c r="C242" s="12"/>
       <c r="D242" s="13"/>
@@ -44103,10 +44112,10 @@
     </row>
     <row r="243">
       <c r="A243" s="14" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B243" s="14" t="s">
         <v>1750</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>1751</v>
       </c>
       <c r="C243" s="14"/>
       <c r="D243" s="13"/>
@@ -44130,10 +44139,10 @@
     </row>
     <row r="244">
       <c r="A244" s="14" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B244" s="14" t="s">
         <v>1752</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>373</v>
       </c>
       <c r="C244" s="14"/>
       <c r="D244" s="13"/>
@@ -44187,7 +44196,7 @@
         <v>1755</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>1756</v>
+        <v>373</v>
       </c>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
@@ -44211,10 +44220,10 @@
     </row>
     <row r="247">
       <c r="A247" s="14" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B247" s="14" t="s">
         <v>1757</v>
-      </c>
-      <c r="B247" s="14" t="s">
-        <v>1758</v>
       </c>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
@@ -44238,10 +44247,10 @@
     </row>
     <row r="248">
       <c r="A248" s="14" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B248" s="14" t="s">
         <v>1759</v>
-      </c>
-      <c r="B248" s="14" t="s">
-        <v>1760</v>
       </c>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
@@ -44265,10 +44274,10 @@
     </row>
     <row r="249">
       <c r="A249" s="14" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B249" s="14" t="s">
         <v>1761</v>
-      </c>
-      <c r="B249" s="14" t="s">
-        <v>1762</v>
       </c>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
@@ -44292,10 +44301,10 @@
     </row>
     <row r="250">
       <c r="A250" s="14" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B250" s="14" t="s">
         <v>1763</v>
-      </c>
-      <c r="B250" s="14" t="s">
-        <v>1764</v>
       </c>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
@@ -44319,10 +44328,10 @@
     </row>
     <row r="251">
       <c r="A251" s="14" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B251" s="14" t="s">
         <v>1765</v>
-      </c>
-      <c r="B251" s="14" t="s">
-        <v>1766</v>
       </c>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
@@ -44346,10 +44355,10 @@
     </row>
     <row r="252">
       <c r="A252" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B252" s="14" t="s">
         <v>1767</v>
-      </c>
-      <c r="B252" s="14" t="s">
-        <v>788</v>
       </c>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
@@ -44403,7 +44412,7 @@
         <v>1770</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>1771</v>
+        <v>788</v>
       </c>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
@@ -44427,10 +44436,10 @@
     </row>
     <row r="255">
       <c r="A255" s="14" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B255" s="14" t="s">
         <v>1772</v>
-      </c>
-      <c r="B255" s="14" t="s">
-        <v>546</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="14"/>
@@ -44484,7 +44493,7 @@
         <v>1775</v>
       </c>
       <c r="B257" s="14" t="s">
-        <v>1171</v>
+        <v>546</v>
       </c>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
@@ -44538,7 +44547,7 @@
         <v>1778</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1779</v>
+        <v>1171</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
@@ -44562,10 +44571,10 @@
     </row>
     <row r="260">
       <c r="A260" s="14" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B260" s="14" t="s">
         <v>1780</v>
-      </c>
-      <c r="B260" s="14" t="s">
-        <v>1781</v>
       </c>
       <c r="C260" s="14"/>
       <c r="D260" s="8"/>
@@ -44589,10 +44598,10 @@
     </row>
     <row r="261">
       <c r="A261" s="14" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B261" s="14" t="s">
         <v>1782</v>
-      </c>
-      <c r="B261" s="14" t="s">
-        <v>1783</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -44616,10 +44625,10 @@
     </row>
     <row r="262">
       <c r="A262" s="14" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B262" s="14" t="s">
         <v>1784</v>
-      </c>
-      <c r="B262" s="14" t="s">
-        <v>1785</v>
       </c>
       <c r="C262" s="29"/>
       <c r="D262" s="29"/>
@@ -44643,10 +44652,10 @@
     </row>
     <row r="263">
       <c r="A263" s="14" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B263" s="14" t="s">
         <v>1786</v>
-      </c>
-      <c r="B263" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
@@ -44673,7 +44682,7 @@
         <v>1787</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>361</v>
+        <v>1788</v>
       </c>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
@@ -44697,10 +44706,10 @@
     </row>
     <row r="265">
       <c r="A265" s="14" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
@@ -44724,10 +44733,10 @@
     </row>
     <row r="266">
       <c r="A266" s="14" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B266" s="14" t="s">
-        <v>1790</v>
+        <v>361</v>
       </c>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
@@ -44754,7 +44763,7 @@
         <v>1791</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>1792</v>
+        <v>355</v>
       </c>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
@@ -44778,10 +44787,10 @@
     </row>
     <row r="268">
       <c r="A268" s="14" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B268" s="14" t="s">
         <v>1793</v>
-      </c>
-      <c r="B268" s="14" t="s">
-        <v>1794</v>
       </c>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
@@ -44805,10 +44814,10 @@
     </row>
     <row r="269">
       <c r="A269" s="14" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B269" s="14" t="s">
         <v>1795</v>
-      </c>
-      <c r="B269" s="14" t="s">
-        <v>877</v>
       </c>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
@@ -44862,7 +44871,7 @@
         <v>1798</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>1799</v>
+        <v>877</v>
       </c>
       <c r="C271" s="27"/>
       <c r="D271" s="28"/>
@@ -44886,10 +44895,10 @@
     </row>
     <row r="272">
       <c r="A272" s="14" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B272" s="14" t="s">
         <v>1800</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>1801</v>
       </c>
       <c r="C272" s="12"/>
       <c r="D272" s="13"/>
@@ -44913,10 +44922,10 @@
     </row>
     <row r="273">
       <c r="A273" s="14" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B273" s="14" t="s">
         <v>1802</v>
-      </c>
-      <c r="B273" s="14" t="s">
-        <v>1803</v>
       </c>
       <c r="C273" s="14"/>
       <c r="D273" s="13"/>
@@ -44940,10 +44949,10 @@
     </row>
     <row r="274">
       <c r="A274" s="14" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B274" s="14" t="s">
         <v>1804</v>
-      </c>
-      <c r="B274" s="14" t="s">
-        <v>1219</v>
       </c>
       <c r="C274" s="14"/>
       <c r="D274" s="13"/>
@@ -44997,7 +45006,7 @@
         <v>1807</v>
       </c>
       <c r="B276" s="14" t="s">
-        <v>1114</v>
+        <v>1219</v>
       </c>
       <c r="C276" s="14"/>
       <c r="D276" s="14"/>
@@ -45051,7 +45060,7 @@
         <v>1810</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1811</v>
+        <v>1114</v>
       </c>
       <c r="C278" s="14"/>
       <c r="D278" s="14"/>
@@ -45075,10 +45084,10 @@
     </row>
     <row r="279">
       <c r="A279" s="14" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B279" s="14" t="s">
         <v>1812</v>
-      </c>
-      <c r="B279" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="C279" s="14"/>
       <c r="D279" s="14"/>
@@ -45132,7 +45141,7 @@
         <v>1815</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>1816</v>
+        <v>332</v>
       </c>
       <c r="C281" s="14"/>
       <c r="D281" s="14"/>
@@ -45156,10 +45165,10 @@
     </row>
     <row r="282">
       <c r="A282" s="14" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B282" s="14" t="s">
         <v>1817</v>
-      </c>
-      <c r="B282" s="14" t="s">
-        <v>1818</v>
       </c>
       <c r="C282" s="14"/>
       <c r="D282" s="14"/>
@@ -45183,10 +45192,10 @@
     </row>
     <row r="283">
       <c r="A283" s="14" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B283" s="14" t="s">
         <v>1819</v>
-      </c>
-      <c r="B283" s="14" t="s">
-        <v>1820</v>
       </c>
       <c r="C283" s="14"/>
       <c r="D283" s="14"/>
@@ -45210,10 +45219,10 @@
     </row>
     <row r="284">
       <c r="A284" s="14" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B284" s="14" t="s">
         <v>1821</v>
-      </c>
-      <c r="B284" s="14" t="s">
-        <v>1822</v>
       </c>
       <c r="C284" s="14"/>
       <c r="D284" s="14"/>
@@ -45237,10 +45246,10 @@
     </row>
     <row r="285">
       <c r="A285" s="14" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B285" s="14" t="s">
         <v>1823</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>1155</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="14"/>
@@ -45290,11 +45299,11 @@
       <c r="U286" s="8"/>
     </row>
     <row r="287">
-      <c r="A287" s="11" t="s">
+      <c r="A287" s="14" t="s">
         <v>1826</v>
       </c>
-      <c r="B287" s="11" t="s">
-        <v>1827</v>
+      <c r="B287" s="14" t="s">
+        <v>1155</v>
       </c>
       <c r="C287" s="14"/>
       <c r="D287" s="14"/>
@@ -45318,10 +45327,10 @@
     </row>
     <row r="288">
       <c r="A288" s="14" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>1828</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>280</v>
       </c>
       <c r="C288" s="14"/>
       <c r="D288" s="14"/>
@@ -45344,10 +45353,10 @@
       <c r="U288" s="8"/>
     </row>
     <row r="289">
-      <c r="A289" s="14" t="s">
+      <c r="A289" s="11" t="s">
         <v>1829</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="11" t="s">
         <v>1830</v>
       </c>
       <c r="C289" s="8"/>
@@ -45375,7 +45384,7 @@
         <v>1831</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>1832</v>
+        <v>280</v>
       </c>
       <c r="C290" s="14"/>
       <c r="D290" s="8"/>
@@ -45399,10 +45408,10 @@
     </row>
     <row r="291">
       <c r="A291" s="14" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B291" s="14" t="s">
         <v>1833</v>
-      </c>
-      <c r="B291" s="14" t="s">
-        <v>1834</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
@@ -45426,10 +45435,10 @@
     </row>
     <row r="292">
       <c r="A292" s="14" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>1835</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="C292" s="29"/>
       <c r="D292" s="29"/>
@@ -45483,7 +45492,7 @@
         <v>1838</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>1839</v>
+        <v>483</v>
       </c>
       <c r="C294" s="14"/>
       <c r="D294" s="14"/>
@@ -45506,11 +45515,11 @@
       <c r="U294" s="8"/>
     </row>
     <row r="295">
-      <c r="A295" s="11" t="s">
+      <c r="A295" s="14" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B295" s="14" t="s">
         <v>1840</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>1004</v>
       </c>
       <c r="C295" s="14"/>
       <c r="D295" s="14"/>
@@ -45560,11 +45569,11 @@
       <c r="U296" s="8"/>
     </row>
     <row r="297">
-      <c r="A297" s="14" t="s">
+      <c r="A297" s="11" t="s">
         <v>1843</v>
       </c>
-      <c r="B297" s="14" t="s">
-        <v>1844</v>
+      <c r="B297" s="11" t="s">
+        <v>1004</v>
       </c>
       <c r="C297" s="14"/>
       <c r="D297" s="14"/>
@@ -45588,10 +45597,10 @@
     </row>
     <row r="298">
       <c r="A298" s="14" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B298" s="14" t="s">
         <v>1845</v>
-      </c>
-      <c r="B298" s="14" t="s">
-        <v>1846</v>
       </c>
       <c r="C298" s="14"/>
       <c r="D298" s="14"/>
@@ -45614,11 +45623,11 @@
       <c r="U298" s="8"/>
     </row>
     <row r="299">
-      <c r="A299" s="31" t="s">
+      <c r="A299" s="14" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B299" s="14" t="s">
         <v>1847</v>
-      </c>
-      <c r="B299" s="31" t="s">
-        <v>841</v>
       </c>
       <c r="C299" s="14"/>
       <c r="D299" s="14"/>
@@ -45668,11 +45677,11 @@
       <c r="U300" s="8"/>
     </row>
     <row r="301">
-      <c r="A301" s="14" t="s">
+      <c r="A301" s="31" t="s">
         <v>1850</v>
       </c>
-      <c r="B301" s="14" t="s">
-        <v>1851</v>
+      <c r="B301" s="31" t="s">
+        <v>841</v>
       </c>
       <c r="C301" s="27"/>
       <c r="D301" s="28"/>
@@ -45696,10 +45705,10 @@
     </row>
     <row r="302">
       <c r="A302" s="14" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B302" s="14" t="s">
         <v>1852</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>1018</v>
       </c>
       <c r="C302" s="12"/>
       <c r="D302" s="13"/>
@@ -45753,7 +45762,7 @@
         <v>1855</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>959</v>
+        <v>1018</v>
       </c>
       <c r="C304" s="14"/>
       <c r="D304" s="13"/>
@@ -45776,11 +45785,11 @@
       <c r="U304" s="14"/>
     </row>
     <row r="305">
-      <c r="A305" s="31" t="s">
+      <c r="A305" s="14" t="s">
         <v>1856</v>
       </c>
-      <c r="B305" s="31" t="s">
-        <v>1001</v>
+      <c r="B305" s="14" t="s">
+        <v>1857</v>
       </c>
       <c r="C305" s="14"/>
       <c r="D305" s="14"/>
@@ -45804,10 +45813,10 @@
     </row>
     <row r="306">
       <c r="A306" s="14" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B306" s="14" t="s">
-        <v>1858</v>
+        <v>959</v>
       </c>
       <c r="C306" s="14"/>
       <c r="D306" s="14"/>
@@ -45830,11 +45839,11 @@
       <c r="U306" s="13"/>
     </row>
     <row r="307">
-      <c r="A307" s="14" t="s">
+      <c r="A307" s="31" t="s">
         <v>1859</v>
       </c>
-      <c r="B307" s="14" t="s">
-        <v>1860</v>
+      <c r="B307" s="31" t="s">
+        <v>1001</v>
       </c>
       <c r="C307" s="14"/>
       <c r="D307" s="14"/>
@@ -45858,10 +45867,10 @@
     </row>
     <row r="308">
       <c r="A308" s="14" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B308" s="14" t="s">
         <v>1861</v>
-      </c>
-      <c r="B308" s="14" t="s">
-        <v>1862</v>
       </c>
       <c r="C308" s="14"/>
       <c r="D308" s="14"/>
@@ -45885,10 +45894,10 @@
     </row>
     <row r="309">
       <c r="A309" s="14" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B309" s="14" t="s">
         <v>1863</v>
-      </c>
-      <c r="B309" s="14" t="s">
-        <v>1864</v>
       </c>
       <c r="C309" s="14"/>
       <c r="D309" s="14"/>
@@ -45912,10 +45921,10 @@
     </row>
     <row r="310">
       <c r="A310" s="14" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B310" s="14" t="s">
         <v>1865</v>
-      </c>
-      <c r="B310" s="14" t="s">
-        <v>1866</v>
       </c>
       <c r="C310" s="14"/>
       <c r="D310" s="14"/>
@@ -45939,10 +45948,10 @@
     </row>
     <row r="311">
       <c r="A311" s="14" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B311" s="14" t="s">
         <v>1867</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>507</v>
       </c>
       <c r="C311" s="14"/>
       <c r="D311" s="14"/>
@@ -45969,7 +45978,7 @@
         <v>1868</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>1157</v>
+        <v>1869</v>
       </c>
       <c r="C312" s="14"/>
       <c r="D312" s="14"/>
@@ -45993,10 +46002,10 @@
     </row>
     <row r="313">
       <c r="A313" s="14" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>1870</v>
+        <v>507</v>
       </c>
       <c r="C313" s="14"/>
       <c r="D313" s="14"/>
@@ -46023,7 +46032,7 @@
         <v>1871</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>1872</v>
+        <v>1157</v>
       </c>
       <c r="C314" s="14"/>
       <c r="D314" s="14"/>
@@ -46047,10 +46056,10 @@
     </row>
     <row r="315">
       <c r="A315" s="14" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B315" s="14" t="s">
         <v>1873</v>
-      </c>
-      <c r="B315" s="14" t="s">
-        <v>1133</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="14"/>
@@ -46104,7 +46113,7 @@
         <v>1876</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>1877</v>
+        <v>1133</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="14"/>
@@ -46128,10 +46137,10 @@
     </row>
     <row r="318">
       <c r="A318" s="14" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B318" s="14" t="s">
         <v>1878</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>1879</v>
       </c>
       <c r="C318" s="14"/>
       <c r="D318" s="14"/>
@@ -46155,10 +46164,10 @@
     </row>
     <row r="319">
       <c r="A319" s="14" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B319" s="14" t="s">
         <v>1880</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>1044</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -46208,11 +46217,11 @@
       <c r="U320" s="8"/>
     </row>
     <row r="321">
-      <c r="A321" s="31" t="s">
+      <c r="A321" s="14" t="s">
         <v>1883</v>
       </c>
-      <c r="B321" s="31" t="s">
-        <v>1884</v>
+      <c r="B321" s="14" t="s">
+        <v>1044</v>
       </c>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -46236,10 +46245,10 @@
     </row>
     <row r="322">
       <c r="A322" s="14" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B322" s="14" t="s">
         <v>1885</v>
-      </c>
-      <c r="B322" s="14" t="s">
-        <v>1886</v>
       </c>
       <c r="C322" s="29"/>
       <c r="D322" s="29"/>
@@ -46262,11 +46271,11 @@
       <c r="U322" s="8"/>
     </row>
     <row r="323">
-      <c r="A323" s="14" t="s">
+      <c r="A323" s="31" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B323" s="31" t="s">
         <v>1887</v>
-      </c>
-      <c r="B323" s="14" t="s">
-        <v>1888</v>
       </c>
       <c r="C323" s="14"/>
       <c r="D323" s="14"/>
@@ -46290,10 +46299,10 @@
     </row>
     <row r="324">
       <c r="A324" s="14" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B324" s="14" t="s">
         <v>1889</v>
-      </c>
-      <c r="B324" s="14" t="s">
-        <v>1367</v>
       </c>
       <c r="C324" s="14"/>
       <c r="D324" s="14"/>
@@ -46347,7 +46356,7 @@
         <v>1892</v>
       </c>
       <c r="B326" s="14" t="s">
-        <v>631</v>
+        <v>1366</v>
       </c>
       <c r="C326" s="14"/>
       <c r="D326" s="14"/>
@@ -46401,7 +46410,7 @@
         <v>1895</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>1896</v>
+        <v>631</v>
       </c>
       <c r="C328" s="14"/>
       <c r="D328" s="14"/>
@@ -46425,10 +46434,10 @@
     </row>
     <row r="329">
       <c r="A329" s="14" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B329" s="14" t="s">
         <v>1897</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="C329" s="14"/>
       <c r="D329" s="14"/>
@@ -46455,7 +46464,7 @@
         <v>1898</v>
       </c>
       <c r="B330" s="14" t="s">
-        <v>1259</v>
+        <v>1899</v>
       </c>
       <c r="C330" s="14"/>
       <c r="D330" s="14"/>
@@ -46478,11 +46487,11 @@
       <c r="U330" s="8"/>
     </row>
     <row r="331">
-      <c r="A331" s="31" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B331" s="31" t="s">
-        <v>353</v>
+      <c r="A331" s="14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>222</v>
       </c>
       <c r="C331" s="27"/>
       <c r="D331" s="28"/>
@@ -46506,10 +46515,10 @@
     </row>
     <row r="332">
       <c r="A332" s="14" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>550</v>
+        <v>1259</v>
       </c>
       <c r="C332" s="12"/>
       <c r="D332" s="13"/>
@@ -46532,11 +46541,11 @@
       <c r="U332" s="14"/>
     </row>
     <row r="333">
-      <c r="A333" s="14" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B333" s="14" t="s">
+      <c r="A333" s="31" t="s">
         <v>1902</v>
+      </c>
+      <c r="B333" s="31" t="s">
+        <v>353</v>
       </c>
       <c r="C333" s="14"/>
       <c r="D333" s="13"/>
@@ -46563,7 +46572,7 @@
         <v>1903</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>730</v>
+        <v>550</v>
       </c>
       <c r="C334" s="14"/>
       <c r="D334" s="13"/>
@@ -46586,11 +46595,11 @@
       <c r="U334" s="14"/>
     </row>
     <row r="335">
-      <c r="A335" s="31" t="s">
+      <c r="A335" s="14" t="s">
         <v>1904</v>
       </c>
-      <c r="B335" s="31" t="s">
-        <v>1110</v>
+      <c r="B335" s="14" t="s">
+        <v>1905</v>
       </c>
       <c r="C335" s="14"/>
       <c r="D335" s="14"/>
@@ -46614,10 +46623,10 @@
     </row>
     <row r="336">
       <c r="A336" s="14" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>1906</v>
+        <v>730</v>
       </c>
       <c r="C336" s="14"/>
       <c r="D336" s="14"/>
@@ -46640,11 +46649,11 @@
       <c r="U336" s="13"/>
     </row>
     <row r="337">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="31" t="s">
         <v>1907</v>
       </c>
-      <c r="B337" s="14" t="s">
-        <v>1902</v>
+      <c r="B337" s="31" t="s">
+        <v>1110</v>
       </c>
       <c r="C337" s="14"/>
       <c r="D337" s="14"/>
@@ -46671,7 +46680,7 @@
         <v>1908</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>124</v>
+        <v>1909</v>
       </c>
       <c r="C338" s="14"/>
       <c r="D338" s="14"/>
@@ -46695,10 +46704,10 @@
     </row>
     <row r="339">
       <c r="A339" s="14" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="C339" s="14"/>
       <c r="D339" s="14"/>
@@ -46725,7 +46734,7 @@
         <v>1911</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>1912</v>
+        <v>124</v>
       </c>
       <c r="C340" s="14"/>
       <c r="D340" s="14"/>
@@ -46748,11 +46757,11 @@
       <c r="U340" s="14"/>
     </row>
     <row r="341">
-      <c r="A341" s="11" t="s">
+      <c r="A341" s="14" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B341" s="14" t="s">
         <v>1913</v>
-      </c>
-      <c r="B341" s="11" t="s">
-        <v>1914</v>
       </c>
       <c r="C341" s="14"/>
       <c r="D341" s="14"/>
@@ -46776,10 +46785,10 @@
     </row>
     <row r="342">
       <c r="A342" s="14" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B342" s="14" t="s">
         <v>1915</v>
-      </c>
-      <c r="B342" s="14" t="s">
-        <v>1916</v>
       </c>
       <c r="C342" s="14"/>
       <c r="D342" s="14"/>
@@ -46802,11 +46811,11 @@
       <c r="U342" s="14"/>
     </row>
     <row r="343">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="11" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B343" s="11" t="s">
         <v>1917</v>
-      </c>
-      <c r="B343" s="14" t="s">
-        <v>1918</v>
       </c>
       <c r="C343" s="14"/>
       <c r="D343" s="14"/>
@@ -46830,10 +46839,10 @@
     </row>
     <row r="344">
       <c r="A344" s="14" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B344" s="14" t="s">
         <v>1919</v>
-      </c>
-      <c r="B344" s="14" t="s">
-        <v>1920</v>
       </c>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -46857,10 +46866,10 @@
     </row>
     <row r="345">
       <c r="A345" s="14" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B345" s="14" t="s">
         <v>1921</v>
-      </c>
-      <c r="B345" s="14" t="s">
-        <v>315</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="14"/>
@@ -46887,7 +46896,7 @@
         <v>1922</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>1315</v>
+        <v>1923</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="13"/>
@@ -46911,10 +46920,10 @@
     </row>
     <row r="347">
       <c r="A347" s="14" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>1207</v>
+        <v>315</v>
       </c>
       <c r="C347" s="14"/>
       <c r="D347" s="14"/>
@@ -46938,10 +46947,10 @@
     </row>
     <row r="348">
       <c r="A348" s="14" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>284</v>
+        <v>1315</v>
       </c>
       <c r="C348" s="14"/>
       <c r="D348" s="14"/>
@@ -46965,10 +46974,10 @@
     </row>
     <row r="349">
       <c r="A349" s="14" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>1926</v>
+        <v>1207</v>
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
@@ -46995,7 +47004,7 @@
         <v>1927</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>1928</v>
+        <v>284</v>
       </c>
       <c r="C350" s="14"/>
       <c r="D350" s="8"/>
@@ -47019,10 +47028,10 @@
     </row>
     <row r="351">
       <c r="A351" s="14" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B351" s="14" t="s">
         <v>1929</v>
-      </c>
-      <c r="B351" s="14" t="s">
-        <v>1930</v>
       </c>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
@@ -47045,11 +47054,11 @@
       <c r="U351" s="8"/>
     </row>
     <row r="352">
-      <c r="A352" s="31" t="s">
+      <c r="A352" s="14" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B352" s="14" t="s">
         <v>1931</v>
-      </c>
-      <c r="B352" s="31" t="s">
-        <v>1149</v>
       </c>
       <c r="C352" s="29"/>
       <c r="D352" s="29"/>
@@ -47072,11 +47081,11 @@
       <c r="U352" s="8"/>
     </row>
     <row r="353">
-      <c r="A353" s="31" t="s">
+      <c r="A353" s="14" t="s">
         <v>1932</v>
       </c>
-      <c r="B353" s="31" t="s">
-        <v>1123</v>
+      <c r="B353" s="14" t="s">
+        <v>1933</v>
       </c>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -47099,11 +47108,11 @@
       <c r="U353" s="8"/>
     </row>
     <row r="354">
-      <c r="A354" s="11" t="s">
-        <v>1933</v>
-      </c>
-      <c r="B354" s="11" t="s">
+      <c r="A354" s="31" t="s">
         <v>1934</v>
+      </c>
+      <c r="B354" s="31" t="s">
+        <v>1149</v>
       </c>
       <c r="C354" s="14"/>
       <c r="D354" s="14"/>
@@ -47126,11 +47135,11 @@
       <c r="U354" s="8"/>
     </row>
     <row r="355">
-      <c r="A355" s="14" t="s">
+      <c r="A355" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="B355" s="14" t="s">
-        <v>1936</v>
+      <c r="B355" s="31" t="s">
+        <v>1123</v>
       </c>
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
@@ -47153,11 +47162,11 @@
       <c r="U355" s="8"/>
     </row>
     <row r="356">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="11" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>1937</v>
-      </c>
-      <c r="B356" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="C356" s="14"/>
       <c r="D356" s="14"/>
@@ -47211,7 +47220,7 @@
         <v>1940</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>1941</v>
+        <v>108</v>
       </c>
       <c r="C358" s="14"/>
       <c r="D358" s="14"/>
@@ -47235,10 +47244,10 @@
     </row>
     <row r="359">
       <c r="A359" s="14" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B359" s="14" t="s">
         <v>1942</v>
-      </c>
-      <c r="B359" s="14" t="s">
-        <v>1943</v>
       </c>
       <c r="C359" s="14"/>
       <c r="D359" s="14"/>
@@ -47262,10 +47271,10 @@
     </row>
     <row r="360">
       <c r="A360" s="14" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B360" s="14" t="s">
         <v>1944</v>
-      </c>
-      <c r="B360" s="14" t="s">
-        <v>1945</v>
       </c>
       <c r="C360" s="14"/>
       <c r="D360" s="14"/>
@@ -47288,11 +47297,11 @@
       <c r="U360" s="8"/>
     </row>
     <row r="361">
-      <c r="A361" s="11" t="s">
+      <c r="A361" s="14" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B361" s="14" t="s">
         <v>1946</v>
-      </c>
-      <c r="B361" s="11" t="s">
-        <v>1947</v>
       </c>
       <c r="C361" s="27"/>
       <c r="D361" s="28"/>
@@ -47316,10 +47325,10 @@
     </row>
     <row r="362">
       <c r="A362" s="14" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B362" s="14" t="s">
         <v>1948</v>
-      </c>
-      <c r="B362" s="14" t="s">
-        <v>1949</v>
       </c>
       <c r="C362" s="12"/>
       <c r="D362" s="13"/>
@@ -47342,11 +47351,11 @@
       <c r="U362" s="14"/>
     </row>
     <row r="363">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="11" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B363" s="11" t="s">
         <v>1950</v>
-      </c>
-      <c r="B363" s="14" t="s">
-        <v>511</v>
       </c>
       <c r="C363" s="14"/>
       <c r="D363" s="13"/>
@@ -47396,11 +47405,11 @@
       <c r="U364" s="14"/>
     </row>
     <row r="365">
-      <c r="A365" s="31" t="s">
+      <c r="A365" s="14" t="s">
         <v>1953</v>
       </c>
-      <c r="B365" s="31" t="s">
-        <v>493</v>
+      <c r="B365" s="14" t="s">
+        <v>511</v>
       </c>
       <c r="C365" s="14"/>
       <c r="D365" s="14"/>
@@ -47450,11 +47459,11 @@
       <c r="U366" s="13"/>
     </row>
     <row r="367">
-      <c r="A367" s="14" t="s">
+      <c r="A367" s="31" t="s">
         <v>1956</v>
       </c>
-      <c r="B367" s="14" t="s">
-        <v>1957</v>
+      <c r="B367" s="31" t="s">
+        <v>493</v>
       </c>
       <c r="C367" s="14"/>
       <c r="D367" s="14"/>
@@ -47477,11 +47486,11 @@
       <c r="U367" s="13"/>
     </row>
     <row r="368">
-      <c r="A368" s="11" t="s">
+      <c r="A368" s="14" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B368" s="14" t="s">
         <v>1958</v>
-      </c>
-      <c r="B368" s="11" t="s">
-        <v>1256</v>
       </c>
       <c r="C368" s="14"/>
       <c r="D368" s="14"/>
@@ -47531,11 +47540,11 @@
       <c r="U369" s="14"/>
     </row>
     <row r="370">
-      <c r="A370" s="31" t="s">
+      <c r="A370" s="11" t="s">
         <v>1961</v>
       </c>
-      <c r="B370" s="31" t="s">
-        <v>1962</v>
+      <c r="B370" s="11" t="s">
+        <v>1256</v>
       </c>
       <c r="C370" s="14"/>
       <c r="D370" s="14"/>
@@ -47559,10 +47568,10 @@
     </row>
     <row r="371">
       <c r="A371" s="14" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B371" s="14" t="s">
         <v>1963</v>
-      </c>
-      <c r="B371" s="14" t="s">
-        <v>398</v>
       </c>
       <c r="C371" s="14"/>
       <c r="D371" s="14"/>
@@ -47585,10 +47594,10 @@
       <c r="U371" s="14"/>
     </row>
     <row r="372">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="31" t="s">
         <v>1964</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="31" t="s">
         <v>1965</v>
       </c>
       <c r="C372" s="14"/>
@@ -47616,7 +47625,7 @@
         <v>1966</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>808</v>
+        <v>398</v>
       </c>
       <c r="C373" s="14"/>
       <c r="D373" s="14"/>
@@ -47670,7 +47679,7 @@
         <v>1969</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>1139</v>
+        <v>808</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="14"/>
@@ -47724,7 +47733,7 @@
         <v>1972</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>1973</v>
+        <v>1139</v>
       </c>
       <c r="C377" s="14"/>
       <c r="D377" s="14"/>
@@ -47748,10 +47757,10 @@
     </row>
     <row r="378">
       <c r="A378" s="14" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B378" s="14" t="s">
         <v>1974</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>1131</v>
       </c>
       <c r="C378" s="14"/>
       <c r="D378" s="14"/>
@@ -47805,7 +47814,7 @@
         <v>1977</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>1978</v>
+        <v>1131</v>
       </c>
       <c r="C380" s="14"/>
       <c r="D380" s="8"/>
@@ -47829,10 +47838,10 @@
     </row>
     <row r="381">
       <c r="A381" s="14" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>1979</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -47859,7 +47868,7 @@
         <v>1980</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>718</v>
+        <v>1981</v>
       </c>
       <c r="C382" s="29"/>
       <c r="D382" s="29"/>
@@ -47883,10 +47892,10 @@
     </row>
     <row r="383">
       <c r="A383" s="14" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>1982</v>
+        <v>628</v>
       </c>
       <c r="C383" s="14"/>
       <c r="D383" s="14"/>
@@ -47913,7 +47922,7 @@
         <v>1983</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>1215</v>
+        <v>718</v>
       </c>
       <c r="C384" s="14"/>
       <c r="D384" s="14"/>
@@ -47967,7 +47976,7 @@
         <v>1986</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1271</v>
+        <v>1215</v>
       </c>
       <c r="C386" s="14"/>
       <c r="D386" s="14"/>
@@ -47994,7 +48003,7 @@
         <v>1987</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>375</v>
+        <v>1988</v>
       </c>
       <c r="C387" s="14"/>
       <c r="D387" s="14"/>
@@ -48018,10 +48027,10 @@
     </row>
     <row r="388">
       <c r="A388" s="14" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>1989</v>
+        <v>1271</v>
       </c>
       <c r="C388" s="14"/>
       <c r="D388" s="14"/>
@@ -48048,7 +48057,7 @@
         <v>1990</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>1991</v>
+        <v>375</v>
       </c>
       <c r="C389" s="14"/>
       <c r="D389" s="14"/>
@@ -48072,10 +48081,10 @@
     </row>
     <row r="390">
       <c r="A390" s="14" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B390" s="14" t="s">
         <v>1992</v>
-      </c>
-      <c r="B390" s="14" t="s">
-        <v>623</v>
       </c>
       <c r="C390" s="14"/>
       <c r="D390" s="14"/>
@@ -48129,7 +48138,7 @@
         <v>1995</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>1996</v>
+        <v>623</v>
       </c>
       <c r="C392" s="12"/>
       <c r="D392" s="13"/>
@@ -48153,10 +48162,10 @@
     </row>
     <row r="393">
       <c r="A393" s="14" t="s">
-        <v>1272</v>
+        <v>1996</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1273</v>
+        <v>1997</v>
       </c>
       <c r="C393" s="14"/>
       <c r="D393" s="13"/>
@@ -48180,10 +48189,10 @@
     </row>
     <row r="394">
       <c r="A394" s="14" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C394" s="14"/>
       <c r="D394" s="13"/>
@@ -48207,10 +48216,10 @@
     </row>
     <row r="395">
       <c r="A395" s="14" t="s">
-        <v>1999</v>
+        <v>1272</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>2000</v>
+        <v>1273</v>
       </c>
       <c r="C395" s="14"/>
       <c r="D395" s="14"/>
@@ -48234,10 +48243,10 @@
     </row>
     <row r="396">
       <c r="A396" s="14" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B396" s="14" t="s">
         <v>2001</v>
-      </c>
-      <c r="B396" s="14" t="s">
-        <v>2002</v>
       </c>
       <c r="C396" s="14"/>
       <c r="D396" s="14"/>
@@ -48261,10 +48270,10 @@
     </row>
     <row r="397">
       <c r="A397" s="14" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B397" s="14" t="s">
         <v>2003</v>
-      </c>
-      <c r="B397" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="C397" s="14"/>
       <c r="D397" s="14"/>
@@ -48318,7 +48327,7 @@
         <v>2006</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>2007</v>
+        <v>236</v>
       </c>
       <c r="C399" s="14"/>
       <c r="D399" s="14"/>
@@ -48342,10 +48351,10 @@
     </row>
     <row r="400">
       <c r="A400" s="14" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B400" s="14" t="s">
         <v>2008</v>
-      </c>
-      <c r="B400" s="14" t="s">
-        <v>794</v>
       </c>
       <c r="C400" s="14"/>
       <c r="D400" s="14"/>
@@ -48399,7 +48408,7 @@
         <v>2011</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>2012</v>
+        <v>794</v>
       </c>
       <c r="C402" s="14"/>
       <c r="D402" s="14"/>
@@ -48423,10 +48432,10 @@
     </row>
     <row r="403">
       <c r="A403" s="14" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B403" s="14" t="s">
         <v>2013</v>
-      </c>
-      <c r="B403" s="14" t="s">
-        <v>2014</v>
       </c>
       <c r="C403" s="14"/>
       <c r="D403" s="14"/>
@@ -48450,10 +48459,10 @@
     </row>
     <row r="404">
       <c r="A404" s="14" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B404" s="14" t="s">
         <v>2015</v>
-      </c>
-      <c r="B404" s="14" t="s">
-        <v>2016</v>
       </c>
       <c r="C404" s="14"/>
       <c r="D404" s="14"/>
@@ -48477,10 +48486,10 @@
     </row>
     <row r="405">
       <c r="A405" s="14" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B405" s="14" t="s">
         <v>2017</v>
-      </c>
-      <c r="B405" s="14" t="s">
-        <v>2018</v>
       </c>
       <c r="C405" s="13"/>
       <c r="D405" s="14"/>
@@ -48504,10 +48513,10 @@
     </row>
     <row r="406">
       <c r="A406" s="14" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B406" s="14" t="s">
         <v>2019</v>
-      </c>
-      <c r="B406" s="14" t="s">
-        <v>2020</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="13"/>
@@ -48531,10 +48540,10 @@
     </row>
     <row r="407">
       <c r="A407" s="14" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B407" s="14" t="s">
         <v>2021</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>2022</v>
       </c>
       <c r="C407" s="14"/>
       <c r="D407" s="14"/>
@@ -48558,10 +48567,10 @@
     </row>
     <row r="408">
       <c r="A408" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B408" s="14" t="s">
         <v>2023</v>
-      </c>
-      <c r="B408" s="14" t="s">
-        <v>2024</v>
       </c>
       <c r="C408" s="14"/>
       <c r="D408" s="14"/>
@@ -48585,10 +48594,10 @@
     </row>
     <row r="409">
       <c r="A409" s="14" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B409" s="14" t="s">
         <v>2025</v>
-      </c>
-      <c r="B409" s="14" t="s">
-        <v>2026</v>
       </c>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
@@ -48612,10 +48621,10 @@
     </row>
     <row r="410">
       <c r="A410" s="14" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B410" s="14" t="s">
         <v>2027</v>
-      </c>
-      <c r="B410" s="14" t="s">
-        <v>461</v>
       </c>
       <c r="C410" s="14"/>
       <c r="D410" s="8"/>
@@ -48669,7 +48678,7 @@
         <v>2030</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>2031</v>
+        <v>461</v>
       </c>
       <c r="C412" s="29"/>
       <c r="D412" s="29"/>
@@ -48693,10 +48702,10 @@
     </row>
     <row r="413">
       <c r="A413" s="14" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B413" s="14" t="s">
         <v>2032</v>
-      </c>
-      <c r="B413" s="14" t="s">
-        <v>2033</v>
       </c>
       <c r="C413" s="14"/>
       <c r="D413" s="14"/>
@@ -48720,10 +48729,10 @@
     </row>
     <row r="414">
       <c r="A414" s="14" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B414" s="14" t="s">
         <v>2034</v>
-      </c>
-      <c r="B414" s="14" t="s">
-        <v>2035</v>
       </c>
       <c r="C414" s="14"/>
       <c r="D414" s="14"/>
@@ -48747,10 +48756,10 @@
     </row>
     <row r="415">
       <c r="A415" s="14" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B415" s="14" t="s">
         <v>2036</v>
-      </c>
-      <c r="B415" s="14" t="s">
-        <v>2037</v>
       </c>
       <c r="C415" s="14"/>
       <c r="D415" s="14"/>
@@ -48774,10 +48783,10 @@
     </row>
     <row r="416">
       <c r="A416" s="14" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B416" s="14" t="s">
         <v>2038</v>
-      </c>
-      <c r="B416" s="14" t="s">
-        <v>435</v>
       </c>
       <c r="C416" s="14"/>
       <c r="D416" s="14"/>
@@ -48831,7 +48840,7 @@
         <v>2041</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>2042</v>
+        <v>435</v>
       </c>
       <c r="C418" s="14"/>
       <c r="D418" s="14"/>
@@ -48855,10 +48864,10 @@
     </row>
     <row r="419">
       <c r="A419" s="14" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B419" s="14" t="s">
         <v>2043</v>
-      </c>
-      <c r="B419" s="14" t="s">
-        <v>2044</v>
       </c>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -48882,10 +48891,10 @@
     </row>
     <row r="420">
       <c r="A420" s="14" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B420" s="14" t="s">
         <v>2045</v>
-      </c>
-      <c r="B420" s="14" t="s">
-        <v>2046</v>
       </c>
       <c r="C420" s="14"/>
       <c r="D420" s="14"/>
@@ -48909,10 +48918,10 @@
     </row>
     <row r="421">
       <c r="A421" s="14" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B421" s="14" t="s">
         <v>2047</v>
-      </c>
-      <c r="B421" s="14" t="s">
-        <v>2048</v>
       </c>
       <c r="C421" s="27"/>
       <c r="D421" s="28"/>
@@ -48936,10 +48945,10 @@
     </row>
     <row r="422">
       <c r="A422" s="14" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B422" s="14" t="s">
         <v>2049</v>
-      </c>
-      <c r="B422" s="14" t="s">
-        <v>523</v>
       </c>
       <c r="C422" s="12"/>
       <c r="D422" s="13"/>
@@ -48962,8 +48971,12 @@
       <c r="U422" s="14"/>
     </row>
     <row r="423">
-      <c r="A423" s="14"/>
-      <c r="B423" s="14"/>
+      <c r="A423" s="14" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>2051</v>
+      </c>
       <c r="C423" s="14"/>
       <c r="D423" s="13"/>
       <c r="E423" s="14"/>
@@ -48985,8 +48998,12 @@
       <c r="U423" s="14"/>
     </row>
     <row r="424">
-      <c r="A424" s="14"/>
-      <c r="B424" s="14"/>
+      <c r="A424" s="14" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>523</v>
+      </c>
       <c r="C424" s="14"/>
       <c r="D424" s="13"/>
       <c r="E424" s="14"/>
@@ -62026,9 +62043,9 @@
       <c r="U990" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$422">
-    <sortState ref="A1:B422">
-      <sortCondition ref="A1:A422"/>
+  <autoFilter ref="$A$1:$B$424">
+    <sortState ref="A1:B424">
+      <sortCondition ref="A1:A424"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>

--- a/Conlangs/Fantasy Languages.xlsx
+++ b/Conlangs/Fantasy Languages.xlsx
@@ -8,14 +8,14 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Dagsvaldian!$A$1:$C$1000</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Esrel!$A$1:$B$424</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Esrel!$A$1:$B$451</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2281" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="2097">
   <si>
     <t>Word</t>
   </si>
@@ -86,7 +86,7 @@
     <t>nus ægni blûvur = blue very robes (very blue robes)</t>
   </si>
   <si>
-    <t>need</t>
+    <t>join</t>
   </si>
   <si>
     <t>2. Use as little words as possible.</t>
@@ -173,7 +173,7 @@
     <t>"Sword made of iron" turns into "Sword made from iron", "Potato Chips of the Great Tree" turns into "Potato Chips from the Great Tree."</t>
   </si>
   <si>
-    <t>aft</t>
+    <t>afa</t>
   </si>
   <si>
     <t>us, we</t>
@@ -362,10 +362,10 @@
     <t>fears, afraid</t>
   </si>
   <si>
-    <t>have before (pov)</t>
-  </si>
-  <si>
-    <t>ei pov hæs pa arændu = i past see the moon (i have seen the moon before)</t>
+    <t>before (pov)</t>
+  </si>
+  <si>
+    <t>ei pov hæs pa arændu = i past see the moon (i have seen the moon before), ei evtervin gle dûv = i everytime jump (i always jump)</t>
   </si>
   <si>
     <t>argedur</t>
@@ -635,7 +635,7 @@
     <t>blûvur</t>
   </si>
   <si>
-    <t>robe, robes, dress</t>
+    <t>robes, dress, long tunic</t>
   </si>
   <si>
     <t>bodor</t>
@@ -1247,96 +1247,96 @@
     <t>mead</t>
   </si>
   <si>
+    <t>gadi</t>
+  </si>
+  <si>
+    <t>centaur</t>
+  </si>
+  <si>
     <t>gældur</t>
   </si>
   <si>
     <t>orange (color)</t>
   </si>
   <si>
-    <t>gær</t>
+    <t>gala</t>
+  </si>
+  <si>
+    <t>high (height)</t>
+  </si>
+  <si>
+    <t>galar</t>
+  </si>
+  <si>
+    <t>sieze, capture, take, grab, move (forcefully)</t>
+  </si>
+  <si>
+    <t>galk</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>galrig</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>galvir</t>
+  </si>
+  <si>
+    <t>being heavy</t>
+  </si>
+  <si>
+    <t>gantolkûr</t>
+  </si>
+  <si>
+    <t>sorcerer</t>
+  </si>
+  <si>
+    <t>gard</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>garv</t>
+  </si>
+  <si>
+    <t>cart, wagon</t>
+  </si>
+  <si>
+    <t>gazur</t>
+  </si>
+  <si>
+    <t>angry, mad</t>
+  </si>
+  <si>
+    <t>geil</t>
+  </si>
+  <si>
+    <t>shout, yell</t>
+  </si>
+  <si>
+    <t>geilda</t>
+  </si>
+  <si>
+    <t>gibber</t>
+  </si>
+  <si>
+    <t>geir</t>
   </si>
   <si>
     <t>wood</t>
   </si>
   <si>
-    <t>gær plor</t>
+    <t>geir plor</t>
   </si>
   <si>
     <t>pencil</t>
   </si>
   <si>
-    <t>gadi</t>
-  </si>
-  <si>
-    <t>centaur</t>
-  </si>
-  <si>
-    <t>gala</t>
-  </si>
-  <si>
-    <t>high (height)</t>
-  </si>
-  <si>
-    <t>galar</t>
-  </si>
-  <si>
-    <t>sieze, capture, take, grab, move (forcefully)</t>
-  </si>
-  <si>
-    <t>galk</t>
-  </si>
-  <si>
-    <t>duck</t>
-  </si>
-  <si>
-    <t>galrig</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>galvir</t>
-  </si>
-  <si>
-    <t>being heavy</t>
-  </si>
-  <si>
-    <t>gantolkûr</t>
-  </si>
-  <si>
-    <t>sorcerer</t>
-  </si>
-  <si>
-    <t>gard</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>garv</t>
-  </si>
-  <si>
-    <t>cart, wagon</t>
-  </si>
-  <si>
-    <t>gazur</t>
-  </si>
-  <si>
-    <t>angry, mad</t>
-  </si>
-  <si>
-    <t>geil</t>
-  </si>
-  <si>
-    <t>shout, yell</t>
-  </si>
-  <si>
-    <t>geilda</t>
-  </si>
-  <si>
-    <t>gibber</t>
-  </si>
-  <si>
     <t>gelef</t>
   </si>
   <si>
@@ -1349,6 +1349,12 @@
     <t>sing</t>
   </si>
   <si>
+    <t>gelern</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
     <t>gerk</t>
   </si>
   <si>
@@ -2120,6 +2126,12 @@
     <t>chain mail</t>
   </si>
   <si>
+    <t>klon</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
     <t>kom</t>
   </si>
   <si>
@@ -2336,30 +2348,30 @@
     <t>leg of creature</t>
   </si>
   <si>
+    <t>lûil</t>
+  </si>
+  <si>
+    <t>life, alive</t>
+  </si>
+  <si>
+    <t>lûm</t>
+  </si>
+  <si>
+    <t>more, greater indicator</t>
+  </si>
+  <si>
+    <t>lûtamur</t>
+  </si>
+  <si>
+    <t>future time, after</t>
+  </si>
+  <si>
     <t>lûtur</t>
   </si>
   <si>
     <t>question, ask</t>
   </si>
   <si>
-    <t>lûil</t>
-  </si>
-  <si>
-    <t>life, alive</t>
-  </si>
-  <si>
-    <t>lûm</t>
-  </si>
-  <si>
-    <t>more, greater indicator</t>
-  </si>
-  <si>
-    <t>lûtamur</t>
-  </si>
-  <si>
-    <t>future time, after</t>
-  </si>
-  <si>
     <t>lûven</t>
   </si>
   <si>
@@ -2450,7 +2462,7 @@
     <t>kid, child</t>
   </si>
   <si>
-    <t>mobeg</t>
+    <t>molbeig</t>
   </si>
   <si>
     <t>marble</t>
@@ -3539,7 +3551,7 @@
     <t>be ill, sick</t>
   </si>
   <si>
-    <t>ulskald</t>
+    <t>uska</t>
   </si>
   <si>
     <t>argue</t>
@@ -3992,10 +4004,10 @@
     <t>owner (-ril)</t>
   </si>
   <si>
-    <t>ere'ril = my</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>ereril = my</t>
+  </si>
+  <si>
+    <t>any</t>
   </si>
   <si>
     <t>Al atr Alti heim. (I go I own home.) (because atr means "to go, or move to", we don't need an extra "to")</t>
@@ -4037,7 +4049,7 @@
     <t>5. Prefixes with words that end in a vowel</t>
   </si>
   <si>
-    <t>Vowels: I, E, or U, use an apostrophe to seperate it. "Verutha" turns into "Veru'tha"</t>
+    <t>Vowels: I, or U, use an apostrophe to seperate it. "Verutha" turns into "Veru'tha"</t>
   </si>
   <si>
     <t>ala</t>
@@ -4055,7 +4067,7 @@
     <t>aleras</t>
   </si>
   <si>
-    <t>mean, meaning</t>
+    <t>mean, meaning, about</t>
   </si>
   <si>
     <t>future tense (pesu)</t>
@@ -4178,6 +4190,9 @@
     <t>ath</t>
   </si>
   <si>
+    <t>day time</t>
+  </si>
+  <si>
     <t>athirath</t>
   </si>
   <si>
@@ -4217,6 +4232,9 @@
     <t>foreigner, stranger</t>
   </si>
   <si>
+    <t>benuvala</t>
+  </si>
+  <si>
     <t>beorassi</t>
   </si>
   <si>
@@ -4232,6 +4250,12 @@
     <t>they, them, their</t>
   </si>
   <si>
+    <t>bessi</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
     <t>beufiyl</t>
   </si>
   <si>
@@ -4280,16 +4304,22 @@
     <t>garbage</t>
   </si>
   <si>
+    <t>blesh</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
     <t>blore</t>
   </si>
   <si>
     <t>wool</t>
   </si>
   <si>
-    <t>bolur</t>
-  </si>
-  <si>
-    <t>require</t>
+    <t>bome</t>
+  </si>
+  <si>
+    <t>require, need</t>
   </si>
   <si>
     <t>bor</t>
@@ -4364,6 +4394,12 @@
     <t>hurry</t>
   </si>
   <si>
+    <t>dielfra</t>
+  </si>
+  <si>
+    <t>dorani</t>
+  </si>
+  <si>
     <t>döre</t>
   </si>
   <si>
@@ -4379,7 +4415,7 @@
     <t>dro</t>
   </si>
   <si>
-    <t>drûnda</t>
+    <t>drûne</t>
   </si>
   <si>
     <t>drûnel</t>
@@ -4388,6 +4424,9 @@
     <t>field</t>
   </si>
   <si>
+    <t>drûsa</t>
+  </si>
+  <si>
     <t>dûna</t>
   </si>
   <si>
@@ -4397,13 +4436,19 @@
     <t>dûni</t>
   </si>
   <si>
+    <t>dwath</t>
+  </si>
+  <si>
     <t>dwiöl</t>
   </si>
   <si>
-    <t>control, manipulate</t>
-  </si>
-  <si>
-    <t>eldûir</t>
+    <t>control, manipulate, rule over</t>
+  </si>
+  <si>
+    <t>dwonu</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>eledene</t>
@@ -4427,6 +4472,9 @@
     <t>endira</t>
   </si>
   <si>
+    <t>endûr</t>
+  </si>
+  <si>
     <t>entwûna</t>
   </si>
   <si>
@@ -4472,6 +4520,12 @@
     <t>fey</t>
   </si>
   <si>
+    <t>faeld</t>
+  </si>
+  <si>
+    <t>try, test</t>
+  </si>
+  <si>
     <t>faer</t>
   </si>
   <si>
@@ -4493,6 +4547,12 @@
     <t>fer</t>
   </si>
   <si>
+    <t>ferassu</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
     <t>fere</t>
   </si>
   <si>
@@ -4544,6 +4604,9 @@
     <t>scabbard</t>
   </si>
   <si>
+    <t>frûbulo</t>
+  </si>
+  <si>
     <t>fûldu</t>
   </si>
   <si>
@@ -4562,84 +4625,84 @@
     <t>pray</t>
   </si>
   <si>
-    <t>gaelf</t>
+    <t>galesu</t>
+  </si>
+  <si>
+    <t>exercise, work out</t>
+  </si>
+  <si>
+    <t>gath</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>gelni</t>
+  </si>
+  <si>
+    <t>tie a knot</t>
+  </si>
+  <si>
+    <t>gessil</t>
+  </si>
+  <si>
+    <t>gidril</t>
+  </si>
+  <si>
+    <t>queen</t>
+  </si>
+  <si>
+    <t>giend</t>
+  </si>
+  <si>
+    <t>glam</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>glien</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>gön</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>görsir</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>gûvian</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>gwenhwiyvar</t>
+  </si>
+  <si>
+    <t>shadow</t>
+  </si>
+  <si>
+    <t>gwilöt</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>gwinde</t>
   </si>
   <si>
     <t>write</t>
   </si>
   <si>
-    <t>galesu</t>
-  </si>
-  <si>
-    <t>exercise, work out</t>
-  </si>
-  <si>
-    <t>gath</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>gelni</t>
-  </si>
-  <si>
-    <t>tie a knot</t>
-  </si>
-  <si>
-    <t>gessil</t>
-  </si>
-  <si>
-    <t>gidril</t>
-  </si>
-  <si>
-    <t>queen</t>
-  </si>
-  <si>
-    <t>giend</t>
-  </si>
-  <si>
-    <t>glam</t>
-  </si>
-  <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>glien</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>gön</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>görsir</t>
-  </si>
-  <si>
-    <t>anger</t>
-  </si>
-  <si>
-    <t>gûvian</t>
-  </si>
-  <si>
-    <t>drink</t>
-  </si>
-  <si>
-    <t>gwenhwiyvar</t>
-  </si>
-  <si>
-    <t>shadow</t>
-  </si>
-  <si>
-    <t>gwilöt</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
     <t>gwiördath</t>
   </si>
   <si>
@@ -4664,9 +4727,15 @@
     <t>remember</t>
   </si>
   <si>
+    <t>gwo</t>
+  </si>
+  <si>
     <t>gwöme</t>
   </si>
   <si>
+    <t>gwöndu</t>
+  </si>
+  <si>
     <t>gwonviyr</t>
   </si>
   <si>
@@ -4679,9 +4748,6 @@
     <t>gwössu</t>
   </si>
   <si>
-    <t>robes</t>
-  </si>
-  <si>
     <t>gwûash</t>
   </si>
   <si>
@@ -4922,315 +4988,324 @@
     <t>stairs</t>
   </si>
   <si>
-    <t>janti</t>
+    <t>jaore</t>
+  </si>
+  <si>
+    <t>jaûl</t>
+  </si>
+  <si>
+    <t>jemu</t>
+  </si>
+  <si>
+    <t>juice</t>
+  </si>
+  <si>
+    <t>jeru</t>
+  </si>
+  <si>
+    <t>group, party, bunch, set (like set of forks)</t>
+  </si>
+  <si>
+    <t>jiöra</t>
+  </si>
+  <si>
+    <t>follow, with, and</t>
+  </si>
+  <si>
+    <t>jiörien</t>
+  </si>
+  <si>
+    <t>jûlen</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>kaevias</t>
+  </si>
+  <si>
+    <t>mace (weapon)</t>
+  </si>
+  <si>
+    <t>kalan</t>
+  </si>
+  <si>
+    <t>kalanu</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>keledra</t>
+  </si>
+  <si>
+    <t>crown, circlet</t>
+  </si>
+  <si>
+    <t>kerym</t>
+  </si>
+  <si>
+    <t>kielvru</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>kir</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>kiyre</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>klaeva</t>
+  </si>
+  <si>
+    <t>kliyse</t>
+  </si>
+  <si>
+    <t>köil</t>
+  </si>
+  <si>
+    <t>death, dead</t>
+  </si>
+  <si>
+    <t>köl</t>
+  </si>
+  <si>
+    <t>kön</t>
+  </si>
+  <si>
+    <t>teeth, fang</t>
+  </si>
+  <si>
+    <t>köre</t>
+  </si>
+  <si>
+    <t>köthissil</t>
+  </si>
+  <si>
+    <t>feast</t>
+  </si>
+  <si>
+    <t>krûne</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>kûinlo</t>
+  </si>
+  <si>
+    <t>medicine</t>
+  </si>
+  <si>
+    <t>kûnevia</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>kûsh</t>
+  </si>
+  <si>
+    <t>nut</t>
+  </si>
+  <si>
+    <t>lae</t>
+  </si>
+  <si>
+    <t>laera</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>larûn</t>
+  </si>
+  <si>
+    <t>liel</t>
+  </si>
+  <si>
+    <t>but, yet, still</t>
+  </si>
+  <si>
+    <t>lifnu</t>
+  </si>
+  <si>
+    <t>trick</t>
+  </si>
+  <si>
+    <t>lissu</t>
+  </si>
+  <si>
+    <t>löilsia</t>
+  </si>
+  <si>
+    <t>löth</t>
+  </si>
+  <si>
+    <t>lûandar</t>
+  </si>
+  <si>
+    <t>lûathine</t>
+  </si>
+  <si>
+    <t>crossbow (weapon)</t>
+  </si>
+  <si>
+    <t>lûind</t>
+  </si>
+  <si>
+    <t>village, town, settlement</t>
+  </si>
+  <si>
+    <t>lûinti</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>lûl</t>
+  </si>
+  <si>
+    <t>lur</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>lurliyth</t>
+  </si>
+  <si>
+    <t>maefni</t>
+  </si>
+  <si>
+    <t>trouble, problem</t>
+  </si>
+  <si>
+    <t>maethe</t>
+  </si>
+  <si>
+    <t>perhaps, maybe</t>
+  </si>
+  <si>
+    <t>malassu</t>
+  </si>
+  <si>
+    <t>malfdi</t>
+  </si>
+  <si>
+    <t>escape, flee</t>
+  </si>
+  <si>
+    <t>maral</t>
+  </si>
+  <si>
+    <t>body, torso</t>
+  </si>
+  <si>
+    <t>mari</t>
+  </si>
+  <si>
+    <t>letter, symbol</t>
+  </si>
+  <si>
+    <t>mash</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>mashele</t>
+  </si>
+  <si>
+    <t>meal</t>
+  </si>
+  <si>
+    <t>masinde</t>
+  </si>
+  <si>
+    <t>result, conclusion, fate, destiny</t>
+  </si>
+  <si>
+    <t>maslo</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>massil</t>
+  </si>
+  <si>
+    <t>melen</t>
+  </si>
+  <si>
+    <t>melo</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>meras</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>mia</t>
+  </si>
+  <si>
+    <t>miel</t>
+  </si>
+  <si>
+    <t>cause, event</t>
+  </si>
+  <si>
+    <t>mieral</t>
+  </si>
+  <si>
+    <t>miöre</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>miyrön</t>
+  </si>
+  <si>
+    <t>mömassi</t>
+  </si>
+  <si>
+    <t>mone</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>möril</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>mrûne</t>
+  </si>
+  <si>
+    <t>nab</t>
   </si>
   <si>
     <t>take, grab, get</t>
   </si>
   <si>
-    <t>jaore</t>
-  </si>
-  <si>
-    <t>jaûl</t>
-  </si>
-  <si>
-    <t>jemu</t>
-  </si>
-  <si>
-    <t>juice</t>
-  </si>
-  <si>
-    <t>jiöra</t>
-  </si>
-  <si>
-    <t>follow, with, and</t>
-  </si>
-  <si>
-    <t>jiörien</t>
-  </si>
-  <si>
-    <t>jolsvu</t>
-  </si>
-  <si>
-    <t>group, party, bunch, set (like set of forks)</t>
-  </si>
-  <si>
-    <t>jûlen</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>kaevias</t>
-  </si>
-  <si>
-    <t>mace (weapon)</t>
-  </si>
-  <si>
-    <t>kalan</t>
-  </si>
-  <si>
-    <t>kalanu</t>
-  </si>
-  <si>
-    <t>alone</t>
-  </si>
-  <si>
-    <t>kan</t>
-  </si>
-  <si>
-    <t>keledra</t>
-  </si>
-  <si>
-    <t>crown, circlet</t>
-  </si>
-  <si>
-    <t>kerym</t>
-  </si>
-  <si>
-    <t>kielvru</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>kir</t>
-  </si>
-  <si>
-    <t>dig</t>
-  </si>
-  <si>
-    <t>kiyre</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>klaeva</t>
-  </si>
-  <si>
-    <t>klese</t>
-  </si>
-  <si>
-    <t>köil</t>
-  </si>
-  <si>
-    <t>death, dead</t>
-  </si>
-  <si>
-    <t>köl</t>
-  </si>
-  <si>
-    <t>kön</t>
-  </si>
-  <si>
-    <t>teeth, fang</t>
-  </si>
-  <si>
-    <t>köp</t>
-  </si>
-  <si>
-    <t>köthimir</t>
-  </si>
-  <si>
-    <t>feast</t>
-  </si>
-  <si>
-    <t>krûne</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>kûinlo</t>
-  </si>
-  <si>
-    <t>medicine</t>
-  </si>
-  <si>
-    <t>kûnevia</t>
-  </si>
-  <si>
-    <t>vine</t>
-  </si>
-  <si>
-    <t>kûsh</t>
-  </si>
-  <si>
-    <t>nut</t>
-  </si>
-  <si>
-    <t>lae</t>
-  </si>
-  <si>
-    <t>laera</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>larûn</t>
-  </si>
-  <si>
-    <t>liel</t>
-  </si>
-  <si>
-    <t>but, yet, still</t>
-  </si>
-  <si>
-    <t>lifnu</t>
-  </si>
-  <si>
-    <t>trick</t>
-  </si>
-  <si>
-    <t>lissu</t>
-  </si>
-  <si>
-    <t>löilsia</t>
-  </si>
-  <si>
-    <t>löth</t>
-  </si>
-  <si>
-    <t>lowur</t>
-  </si>
-  <si>
-    <t>lûandar</t>
-  </si>
-  <si>
-    <t>lûathine</t>
-  </si>
-  <si>
-    <t>crossbow (weapon)</t>
-  </si>
-  <si>
-    <t>lûind</t>
-  </si>
-  <si>
-    <t>village, town, settlement</t>
-  </si>
-  <si>
-    <t>lûinti</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>lûl</t>
-  </si>
-  <si>
-    <t>lur</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>lurliyth</t>
-  </si>
-  <si>
-    <t>maefni</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>maethe</t>
-  </si>
-  <si>
-    <t>perhaps, maybe</t>
-  </si>
-  <si>
-    <t>malassu</t>
-  </si>
-  <si>
-    <t>malfdi</t>
-  </si>
-  <si>
-    <t>escape, flee</t>
-  </si>
-  <si>
-    <t>maral</t>
-  </si>
-  <si>
-    <t>body, torso</t>
-  </si>
-  <si>
-    <t>mari</t>
-  </si>
-  <si>
-    <t>letter, symbol</t>
-  </si>
-  <si>
-    <t>mash</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>masinde</t>
-  </si>
-  <si>
-    <t>result, conclusion, fate, destiny</t>
-  </si>
-  <si>
-    <t>maslo</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>massu</t>
-  </si>
-  <si>
-    <t>melo</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>meras</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>mia</t>
-  </si>
-  <si>
-    <t>miel</t>
-  </si>
-  <si>
-    <t>cause, event</t>
-  </si>
-  <si>
-    <t>mieral</t>
-  </si>
-  <si>
-    <t>miöre</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>miörn</t>
-  </si>
-  <si>
-    <t>mone</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>möril</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>mrûne</t>
-  </si>
-  <si>
     <t>naes</t>
   </si>
   <si>
@@ -5330,7 +5405,7 @@
     <t>ölathvial</t>
   </si>
   <si>
-    <t>öldasail</t>
+    <t>öldassail</t>
   </si>
   <si>
     <t>alchoholic drink</t>
@@ -5378,7 +5453,7 @@
     <t>sad</t>
   </si>
   <si>
-    <t>örthûnfin</t>
+    <t>örthûsh</t>
   </si>
   <si>
     <t>big cat</t>
@@ -5420,7 +5495,13 @@
     <t>music</t>
   </si>
   <si>
-    <t>prûlia</t>
+    <t>pössi</t>
+  </si>
+  <si>
+    <t>many, much, a lot</t>
+  </si>
+  <si>
+    <t>preni</t>
   </si>
   <si>
     <t>have</t>
@@ -5432,12 +5513,6 @@
     <t>rude</t>
   </si>
   <si>
-    <t>purae</t>
-  </si>
-  <si>
-    <t>many, much, a lot</t>
-  </si>
-  <si>
     <t>pûvinta</t>
   </si>
   <si>
@@ -5483,6 +5558,9 @@
     <t>hall, hallway</t>
   </si>
   <si>
+    <t>qwölörna</t>
+  </si>
+  <si>
     <t>qwöre</t>
   </si>
   <si>
@@ -5504,21 +5582,21 @@
     <t>person, humanoid creature</t>
   </si>
   <si>
-    <t>relarade</t>
+    <t>riaren</t>
   </si>
   <si>
     <t>day cycle</t>
   </si>
   <si>
+    <t>rielan</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
     <t>rieldal</t>
   </si>
   <si>
-    <t>rilvia</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
     <t>risvil</t>
   </si>
   <si>
@@ -5540,6 +5618,15 @@
     <t>pouch, bag</t>
   </si>
   <si>
+    <t>rona</t>
+  </si>
+  <si>
+    <t>rönath</t>
+  </si>
+  <si>
+    <t>great, mighty</t>
+  </si>
+  <si>
     <t>rûar</t>
   </si>
   <si>
@@ -5570,6 +5657,12 @@
     <t>rûndiel</t>
   </si>
   <si>
+    <t>saeru</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
     <t>saesel</t>
   </si>
   <si>
@@ -5582,15 +5675,15 @@
     <t>cook</t>
   </si>
   <si>
+    <t>sasil</t>
+  </si>
+  <si>
+    <t>lock (noun)</t>
+  </si>
+  <si>
     <t>sathu</t>
   </si>
   <si>
-    <t>seldu</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
     <t>sele</t>
   </si>
   <si>
@@ -5645,6 +5738,12 @@
     <t>thing, object</t>
   </si>
   <si>
+    <t>sheom</t>
+  </si>
+  <si>
+    <t>boot, shoe</t>
+  </si>
+  <si>
     <t>shraen</t>
   </si>
   <si>
@@ -5726,9 +5825,6 @@
     <t>thas</t>
   </si>
   <si>
-    <t>thasu</t>
-  </si>
-  <si>
     <t>thaûsu</t>
   </si>
   <si>
@@ -5741,6 +5837,12 @@
     <t>thien</t>
   </si>
   <si>
+    <t>thiyl</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
     <t>thiylde</t>
   </si>
   <si>
@@ -5750,6 +5852,9 @@
     <t>thiynas</t>
   </si>
   <si>
+    <t>thom</t>
+  </si>
+  <si>
     <t>thöne</t>
   </si>
   <si>
@@ -5759,6 +5864,9 @@
     <t>taste</t>
   </si>
   <si>
+    <t>thrifla</t>
+  </si>
+  <si>
     <t>thriyn</t>
   </si>
   <si>
@@ -5891,9 +5999,6 @@
     <t>ûvi</t>
   </si>
   <si>
-    <t>any</t>
-  </si>
-  <si>
     <t>vaerevien</t>
   </si>
   <si>
@@ -5948,7 +6053,7 @@
     <t>metal</t>
   </si>
   <si>
-    <t>viön</t>
+    <t>viöme</t>
   </si>
   <si>
     <t>viona</t>
@@ -5975,7 +6080,7 @@
     <t>practice, train</t>
   </si>
   <si>
-    <t>vriöl</t>
+    <t>vössil</t>
   </si>
   <si>
     <t>vu</t>
@@ -5990,6 +6095,9 @@
     <t>vûne</t>
   </si>
   <si>
+    <t>vur</t>
+  </si>
+  <si>
     <t>wael</t>
   </si>
   <si>
@@ -6065,7 +6173,7 @@
     <t>braided part of hair</t>
   </si>
   <si>
-    <t>yûltir</t>
+    <t>yûlamir</t>
   </si>
   <si>
     <t>power</t>
@@ -6128,6 +6236,24 @@
     <t>drop of liquid</t>
   </si>
   <si>
+    <t>ziyle</t>
+  </si>
+  <si>
+    <t>let, allow</t>
+  </si>
+  <si>
+    <t>ziylevia</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>zob</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
     <t>zölasu</t>
   </si>
   <si>
@@ -6140,7 +6266,7 @@
     <t>damage, hurt</t>
   </si>
   <si>
-    <t>zondi</t>
+    <t>zoni</t>
   </si>
   <si>
     <t>zran</t>
@@ -6174,6 +6300,12 @@
   </si>
   <si>
     <t>zûssi</t>
+  </si>
+  <si>
+    <t>liynde</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
 </sst>
 </file>
@@ -6645,7 +6777,7 @@
     <col customWidth="1" min="3" max="3" width="9.63"/>
     <col customWidth="1" min="4" max="4" width="18.5"/>
     <col customWidth="1" min="5" max="5" width="16.25"/>
-    <col customWidth="1" min="6" max="6" width="68.25"/>
+    <col customWidth="1" min="6" max="6" width="81.5"/>
     <col customWidth="1" min="7" max="7" width="9.13"/>
     <col customWidth="1" min="8" max="8" width="36.25"/>
     <col customWidth="1" min="9" max="9" width="8.88"/>
@@ -6859,12 +6991,12 @@
         <v>37</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1000, REGEXMATCH(B2:B1000, H3)), 2, TRUE)"),"nedvir")</f>
-        <v>nedvir</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:C1000, REGEXMATCH(B2:B1000, H3)), 2, TRUE)"),"inæt")</f>
+        <v>inæt</v>
       </c>
       <c r="H5" s="14" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"need, require")</f>
-        <v>need, require</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"join, connect")</f>
+        <v>join, connect</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="13" t="s">
@@ -12396,10 +12528,10 @@
       <c r="Z171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="14" t="s">
         <v>455</v>
       </c>
       <c r="C172" s="8"/>
@@ -12428,10 +12560,10 @@
       <c r="Z172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="11" t="s">
         <v>457</v>
       </c>
       <c r="C173" s="8"/>
@@ -13074,9 +13206,7 @@
       <c r="B193" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C193" s="14" t="s">
-        <v>249</v>
-      </c>
+      <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
@@ -13142,7 +13272,9 @@
       <c r="B195" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C195" s="8"/>
+      <c r="C195" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
@@ -13553,14 +13685,12 @@
     </row>
     <row r="208">
       <c r="A208" s="14" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="C208" s="14" t="s">
-        <v>70</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
@@ -13587,12 +13717,14 @@
     </row>
     <row r="209">
       <c r="A209" s="14" t="s">
-        <v>527</v>
+        <v>72</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C209" s="8"/>
+      <c r="C209" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
@@ -13682,10 +13814,10 @@
       <c r="Z211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="11" t="s">
+      <c r="A212" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="14" t="s">
         <v>534</v>
       </c>
       <c r="C212" s="8"/>
@@ -13714,10 +13846,10 @@
       <c r="Z212" s="8"/>
     </row>
     <row r="213">
-      <c r="A213" s="14" t="s">
+      <c r="A213" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B213" s="14" t="s">
+      <c r="B213" s="11" t="s">
         <v>536</v>
       </c>
       <c r="C213" s="8"/>
@@ -14104,9 +14236,7 @@
       <c r="B225" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="C225" s="14" t="s">
-        <v>561</v>
-      </c>
+      <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
@@ -14133,12 +14263,14 @@
     </row>
     <row r="226">
       <c r="A226" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B226" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="B226" s="14" t="s">
+      <c r="C226" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
@@ -14804,13 +14936,13 @@
       <c r="Z246" s="8"/>
     </row>
     <row r="247">
-      <c r="A247" s="11" t="s">
+      <c r="A247" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B247" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="C247" s="14"/>
+      <c r="C247" s="8"/>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
@@ -14836,13 +14968,13 @@
       <c r="Z247" s="8"/>
     </row>
     <row r="248">
-      <c r="A248" s="14" t="s">
+      <c r="A248" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="C248" s="8"/>
+      <c r="C248" s="14"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
@@ -14938,9 +15070,7 @@
       <c r="B251" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="C251" s="14" t="s">
-        <v>559</v>
-      </c>
+      <c r="C251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
@@ -14972,7 +15102,9 @@
       <c r="B252" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="C252" s="8"/>
+      <c r="C252" s="14" t="s">
+        <v>561</v>
+      </c>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
@@ -15100,9 +15232,7 @@
       <c r="B256" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="C256" s="14" t="s">
-        <v>624</v>
-      </c>
+      <c r="C256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
@@ -15129,12 +15259,14 @@
     </row>
     <row r="257">
       <c r="A257" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="B257" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="B257" s="14" t="s">
+      <c r="C257" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
@@ -15160,15 +15292,13 @@
       <c r="Z257" s="8"/>
     </row>
     <row r="258">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C258" s="14" t="s">
-        <v>629</v>
-      </c>
+      <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
@@ -15194,13 +15324,15 @@
       <c r="Z258" s="8"/>
     </row>
     <row r="259">
-      <c r="A259" s="14" t="s">
+      <c r="A259" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="B259" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="B259" s="14" t="s">
+      <c r="C259" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="C259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
@@ -15291,10 +15423,10 @@
     </row>
     <row r="262">
       <c r="A262" s="14" t="s">
-        <v>7</v>
+        <v>636</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="8"/>
@@ -15323,7 +15455,7 @@
     </row>
     <row r="263">
       <c r="A263" s="14" t="s">
-        <v>637</v>
+        <v>7</v>
       </c>
       <c r="B263" s="14" t="s">
         <v>638</v>
@@ -15611,14 +15743,12 @@
     </row>
     <row r="272">
       <c r="A272" s="14" t="s">
-        <v>318</v>
+        <v>655</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>316</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="C272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
@@ -15645,12 +15775,14 @@
     </row>
     <row r="273">
       <c r="A273" s="14" t="s">
-        <v>656</v>
+        <v>318</v>
       </c>
       <c r="B273" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C273" s="8"/>
+      <c r="C273" s="14" t="s">
+        <v>316</v>
+      </c>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
@@ -15709,14 +15841,12 @@
     </row>
     <row r="275">
       <c r="A275" s="14" t="s">
-        <v>403</v>
+        <v>660</v>
       </c>
       <c r="B275" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="C275" s="14" t="s">
-        <v>401</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
@@ -15743,12 +15873,14 @@
     </row>
     <row r="276">
       <c r="A276" s="14" t="s">
-        <v>661</v>
+        <v>403</v>
       </c>
       <c r="B276" s="14" t="s">
         <v>662</v>
       </c>
-      <c r="C276" s="8"/>
+      <c r="C276" s="14" t="s">
+        <v>401</v>
+      </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
@@ -15812,9 +15944,7 @@
       <c r="B278" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="C278" s="14" t="s">
-        <v>667</v>
-      </c>
+      <c r="C278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
@@ -15847,7 +15977,7 @@
         <v>668</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
@@ -15880,7 +16010,9 @@
       <c r="B280" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="C280" s="8"/>
+      <c r="C280" s="14" t="s">
+        <v>667</v>
+      </c>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
@@ -17288,9 +17420,7 @@
       <c r="B324" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C324" s="14" t="s">
-        <v>283</v>
-      </c>
+      <c r="C324" s="8"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
@@ -17354,7 +17484,9 @@
       <c r="B326" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C326" s="8"/>
+      <c r="C326" s="14" t="s">
+        <v>283</v>
+      </c>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
@@ -17412,7 +17544,7 @@
       <c r="Z327" s="8"/>
     </row>
     <row r="328">
-      <c r="A328" s="19" t="s">
+      <c r="A328" s="14" t="s">
         <v>765</v>
       </c>
       <c r="B328" s="14" t="s">
@@ -17476,7 +17608,7 @@
       <c r="Z329" s="8"/>
     </row>
     <row r="330">
-      <c r="A330" s="14" t="s">
+      <c r="A330" s="19" t="s">
         <v>769</v>
       </c>
       <c r="B330" s="14" t="s">
@@ -17578,7 +17710,7 @@
       <c r="B333" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C333" s="14"/>
+      <c r="C333" s="8"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
@@ -17610,7 +17742,7 @@
       <c r="B334" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C334" s="8"/>
+      <c r="C334" s="14"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
@@ -18474,9 +18606,7 @@
       <c r="B361" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C361" s="14" t="s">
-        <v>833</v>
-      </c>
+      <c r="C361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
@@ -18503,10 +18633,10 @@
     </row>
     <row r="362">
       <c r="A362" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="B362" s="14" t="s">
         <v>834</v>
-      </c>
-      <c r="B362" s="14" t="s">
-        <v>835</v>
       </c>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -18535,12 +18665,14 @@
     </row>
     <row r="363">
       <c r="A363" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B363" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="B363" s="14" t="s">
+      <c r="C363" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="C363" s="8"/>
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
@@ -18855,14 +18987,12 @@
     </row>
     <row r="373">
       <c r="A373" s="14" t="s">
-        <v>624</v>
+        <v>856</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="C373" s="14" t="s">
         <v>857</v>
       </c>
+      <c r="C373" s="8"/>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
@@ -18921,12 +19051,14 @@
     </row>
     <row r="375">
       <c r="A375" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="B375" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="C375" s="14" t="s">
         <v>861</v>
       </c>
-      <c r="C375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
@@ -19115,7 +19247,7 @@
       <c r="A381" s="14" t="s">
         <v>872</v>
       </c>
-      <c r="B381" s="13" t="s">
+      <c r="B381" s="14" t="s">
         <v>873</v>
       </c>
       <c r="C381" s="8"/>
@@ -19179,7 +19311,7 @@
       <c r="A383" s="14" t="s">
         <v>876</v>
       </c>
-      <c r="B383" s="14" t="s">
+      <c r="B383" s="13" t="s">
         <v>877</v>
       </c>
       <c r="C383" s="8"/>
@@ -19566,7 +19698,7 @@
       <c r="B395" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="C395" s="14"/>
+      <c r="C395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
@@ -19694,7 +19826,7 @@
       <c r="B399" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="C399" s="8"/>
+      <c r="C399" s="14"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
@@ -20105,14 +20237,12 @@
     </row>
     <row r="412">
       <c r="A412" s="14" t="s">
-        <v>178</v>
+        <v>934</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>934</v>
-      </c>
-      <c r="C412" s="14" t="s">
         <v>935</v>
       </c>
+      <c r="C412" s="8"/>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
@@ -20171,12 +20301,14 @@
     </row>
     <row r="414">
       <c r="A414" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B414" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="B414" s="14" t="s">
+      <c r="C414" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="C414" s="8"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
@@ -20746,7 +20878,7 @@
       <c r="Z431" s="8"/>
     </row>
     <row r="432">
-      <c r="A432" s="13" t="s">
+      <c r="A432" s="14" t="s">
         <v>974</v>
       </c>
       <c r="B432" s="14" t="s">
@@ -20810,7 +20942,7 @@
       <c r="Z433" s="8"/>
     </row>
     <row r="434">
-      <c r="A434" s="14" t="s">
+      <c r="A434" s="13" t="s">
         <v>978</v>
       </c>
       <c r="B434" s="14" t="s">
@@ -20944,9 +21076,7 @@
       <c r="B438" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="C438" s="14" t="s">
-        <v>988</v>
-      </c>
+      <c r="C438" s="8"/>
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
@@ -20973,14 +21103,12 @@
     </row>
     <row r="439">
       <c r="A439" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B439" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="B439" s="14" t="s">
-        <v>990</v>
-      </c>
-      <c r="C439" s="14" t="s">
-        <v>991</v>
-      </c>
+      <c r="C439" s="8"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
@@ -21007,12 +21135,14 @@
     </row>
     <row r="440">
       <c r="A440" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="C440" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="B440" s="14" t="s">
-        <v>993</v>
-      </c>
-      <c r="C440" s="8"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
@@ -21039,12 +21169,14 @@
     </row>
     <row r="441">
       <c r="A441" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="B441" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="B441" s="14" t="s">
+      <c r="C441" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="C441" s="8"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
@@ -21167,14 +21299,12 @@
     </row>
     <row r="445">
       <c r="A445" s="14" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="B445" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C445" s="14" t="s">
-        <v>986</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="C445" s="8"/>
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
@@ -21201,10 +21331,10 @@
     </row>
     <row r="446">
       <c r="A446" s="14" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B446" s="14" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C446" s="8"/>
       <c r="D446" s="8"/>
@@ -21233,12 +21363,14 @@
     </row>
     <row r="447">
       <c r="A447" s="14" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="B447" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="C447" s="8"/>
+      <c r="C447" s="14" t="s">
+        <v>990</v>
+      </c>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
@@ -21939,7 +22071,7 @@
       <c r="A469" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="B469" s="13" t="s">
+      <c r="B469" s="14" t="s">
         <v>1050</v>
       </c>
       <c r="C469" s="8"/>
@@ -22003,7 +22135,7 @@
       <c r="A471" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="B471" s="13" t="s">
         <v>1054</v>
       </c>
       <c r="C471" s="8"/>
@@ -22129,14 +22261,12 @@
     </row>
     <row r="475">
       <c r="A475" s="14" t="s">
-        <v>991</v>
+        <v>1061</v>
       </c>
       <c r="B475" s="14" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C475" s="14" t="s">
         <v>1062</v>
       </c>
+      <c r="C475" s="8"/>
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
@@ -22195,12 +22325,14 @@
     </row>
     <row r="477">
       <c r="A477" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="B477" s="14" t="s">
         <v>1065</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="C477" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="C477" s="8"/>
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
@@ -22418,10 +22550,10 @@
       <c r="Z483" s="8"/>
     </row>
     <row r="484">
-      <c r="A484" s="11" t="s">
+      <c r="A484" s="14" t="s">
         <v>1079</v>
       </c>
-      <c r="B484" s="11" t="s">
+      <c r="B484" s="14" t="s">
         <v>1080</v>
       </c>
       <c r="C484" s="8"/>
@@ -22482,10 +22614,10 @@
       <c r="Z485" s="8"/>
     </row>
     <row r="486">
-      <c r="A486" s="14" t="s">
+      <c r="A486" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="11" t="s">
         <v>1084</v>
       </c>
       <c r="C486" s="8"/>
@@ -22738,15 +22870,13 @@
       <c r="Z493" s="8"/>
     </row>
     <row r="494">
-      <c r="A494" s="11" t="s">
+      <c r="A494" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="B494" s="11" t="s">
+      <c r="B494" s="14" t="s">
         <v>1100</v>
       </c>
-      <c r="C494" s="14" t="s">
-        <v>384</v>
-      </c>
+      <c r="C494" s="8"/>
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
@@ -22804,13 +22934,15 @@
       <c r="Z495" s="8"/>
     </row>
     <row r="496">
-      <c r="A496" s="14" t="s">
+      <c r="A496" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="B496" s="14" t="s">
+      <c r="B496" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="C496" s="8"/>
+      <c r="C496" s="14" t="s">
+        <v>384</v>
+      </c>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
@@ -23002,9 +23134,7 @@
       <c r="B502" s="14" t="s">
         <v>1116</v>
       </c>
-      <c r="C502" s="14" t="s">
-        <v>1117</v>
-      </c>
+      <c r="C502" s="8"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
@@ -23031,10 +23161,10 @@
     </row>
     <row r="503">
       <c r="A503" s="14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B503" s="14" t="s">
         <v>1118</v>
-      </c>
-      <c r="B503" s="14" t="s">
-        <v>1119</v>
       </c>
       <c r="C503" s="8"/>
       <c r="D503" s="8"/>
@@ -23063,12 +23193,14 @@
     </row>
     <row r="504">
       <c r="A504" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B504" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="B504" s="14" t="s">
+      <c r="C504" s="14" t="s">
         <v>1121</v>
       </c>
-      <c r="C504" s="8"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
@@ -23126,10 +23258,10 @@
       <c r="Z505" s="8"/>
     </row>
     <row r="506">
-      <c r="A506" s="11" t="s">
+      <c r="A506" s="14" t="s">
         <v>1124</v>
       </c>
-      <c r="B506" s="11" t="s">
+      <c r="B506" s="14" t="s">
         <v>1125</v>
       </c>
       <c r="C506" s="8"/>
@@ -23190,10 +23322,10 @@
       <c r="Z507" s="8"/>
     </row>
     <row r="508">
-      <c r="A508" s="14" t="s">
+      <c r="A508" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="B508" s="14" t="s">
+      <c r="B508" s="11" t="s">
         <v>1129</v>
       </c>
       <c r="C508" s="8"/>
@@ -24060,9 +24192,7 @@
       <c r="B535" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="C535" s="14" t="s">
-        <v>775</v>
-      </c>
+      <c r="C535" s="8"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
       <c r="F535" s="8"/>
@@ -24088,15 +24218,13 @@
       <c r="Z535" s="8"/>
     </row>
     <row r="536">
-      <c r="A536" s="11" t="s">
+      <c r="A536" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="B536" s="11" t="s">
+      <c r="B536" s="14" t="s">
         <v>1185</v>
       </c>
-      <c r="C536" s="14" t="s">
-        <v>627</v>
-      </c>
+      <c r="C536" s="8"/>
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
       <c r="F536" s="8"/>
@@ -24128,7 +24256,9 @@
       <c r="B537" s="14" t="s">
         <v>1187</v>
       </c>
-      <c r="C537" s="8"/>
+      <c r="C537" s="14" t="s">
+        <v>777</v>
+      </c>
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
       <c r="F537" s="8"/>
@@ -24154,13 +24284,15 @@
       <c r="Z537" s="8"/>
     </row>
     <row r="538">
-      <c r="A538" s="14" t="s">
+      <c r="A538" s="11" t="s">
         <v>1188</v>
       </c>
-      <c r="B538" s="14" t="s">
+      <c r="B538" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="C538" s="8"/>
+      <c r="C538" s="14" t="s">
+        <v>629</v>
+      </c>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
       <c r="F538" s="8"/>
@@ -24896,9 +25028,7 @@
       <c r="B561" s="14" t="s">
         <v>1235</v>
       </c>
-      <c r="C561" s="14" t="s">
-        <v>1236</v>
-      </c>
+      <c r="C561" s="8"/>
       <c r="D561" s="8"/>
       <c r="E561" s="8"/>
       <c r="F561" s="8"/>
@@ -24925,10 +25055,10 @@
     </row>
     <row r="562">
       <c r="A562" s="14" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B562" s="14" t="s">
         <v>1237</v>
-      </c>
-      <c r="B562" s="14" t="s">
-        <v>1238</v>
       </c>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
@@ -24957,12 +25087,14 @@
     </row>
     <row r="563">
       <c r="A563" s="14" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B563" s="14" t="s">
         <v>1239</v>
       </c>
-      <c r="B563" s="14" t="s">
+      <c r="C563" s="14" t="s">
         <v>1240</v>
       </c>
-      <c r="C563" s="8"/>
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
       <c r="F563" s="8"/>
@@ -25245,14 +25377,12 @@
     </row>
     <row r="572">
       <c r="A572" s="14" t="s">
-        <v>1236</v>
+        <v>1257</v>
       </c>
       <c r="B572" s="14" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C572" s="14" t="s">
-        <v>1234</v>
-      </c>
+        <v>1258</v>
+      </c>
+      <c r="C572" s="8"/>
       <c r="D572" s="8"/>
       <c r="E572" s="8"/>
       <c r="F572" s="8"/>
@@ -25279,10 +25409,10 @@
     </row>
     <row r="573">
       <c r="A573" s="14" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B573" s="14" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C573" s="8"/>
       <c r="D573" s="8"/>
@@ -25311,12 +25441,14 @@
     </row>
     <row r="574">
       <c r="A574" s="14" t="s">
-        <v>1260</v>
+        <v>1240</v>
       </c>
       <c r="B574" s="14" t="s">
         <v>1261</v>
       </c>
-      <c r="C574" s="8"/>
+      <c r="C574" s="14" t="s">
+        <v>1238</v>
+      </c>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
       <c r="F574" s="8"/>
@@ -26206,8 +26338,12 @@
       <c r="Z601" s="8"/>
     </row>
     <row r="602">
-      <c r="A602" s="8"/>
-      <c r="B602" s="8"/>
+      <c r="A602" s="14" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B602" s="14" t="s">
+        <v>1317</v>
+      </c>
       <c r="C602" s="8"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
@@ -26234,8 +26370,12 @@
       <c r="Z602" s="8"/>
     </row>
     <row r="603">
-      <c r="A603" s="8"/>
-      <c r="B603" s="8"/>
+      <c r="A603" s="14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B603" s="14" t="s">
+        <v>1319</v>
+      </c>
       <c r="C603" s="8"/>
       <c r="D603" s="8"/>
       <c r="E603" s="8"/>
@@ -37428,7 +37568,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="25" t="s">
@@ -37451,19 +37591,19 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>15</v>
@@ -37474,10 +37614,10 @@
       </c>
       <c r="H2" s="24"/>
       <c r="I2" s="31" t="s">
-        <v>1320</v>
+        <v>1324</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -37493,32 +37633,32 @@
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="33" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
@@ -37534,19 +37674,19 @@
     </row>
     <row r="4">
       <c r="A4" s="14" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1329</v>
+        <v>1333</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(A:B, EQ(A:A, G3))"),"#N/A")</f>
@@ -37558,7 +37698,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>1332</v>
+        <v>1336</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
@@ -37574,27 +37714,27 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>256</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>1334</v>
+        <v>1338</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>1335</v>
+        <v>1339</v>
       </c>
       <c r="F5" s="38" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A:B, REGEXMATCH(B:B, G3)), 2, TRUE)"),"örthûnfin")</f>
-        <v>örthûnfin</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("SORT(FILTER(A2:B1000, REGEXMATCH(B2:B1000, G3)), 2, TRUE)"),"ûvi")</f>
+        <v>ûvi</v>
       </c>
       <c r="G5" s="39" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"big cat")</f>
-        <v>big cat</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"any")</f>
+        <v>any</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="39" t="s">
@@ -37617,34 +37757,34 @@
     </row>
     <row r="6">
       <c r="A6" s="14" t="s">
-        <v>1336</v>
+        <v>1340</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1337</v>
+        <v>1341</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>1338</v>
+        <v>1342</v>
       </c>
       <c r="F6" s="37" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"fonth")</f>
-        <v>fonth</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pössi")</f>
+        <v>pössi</v>
       </c>
       <c r="G6" s="37" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"big, large")</f>
-        <v>big, large</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"many, much, a lot")</f>
+        <v>many, much, a lot</v>
       </c>
       <c r="H6" s="24"/>
       <c r="I6" s="32" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -37660,19 +37800,19 @@
     </row>
     <row r="7">
       <c r="A7" s="14" t="s">
-        <v>1341</v>
+        <v>1345</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1342</v>
+        <v>1346</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1343</v>
+        <v>1347</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -37693,19 +37833,19 @@
     </row>
     <row r="8">
       <c r="A8" s="14" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -37726,19 +37866,19 @@
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>1349</v>
+        <v>1353</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -37759,19 +37899,19 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1354</v>
+        <v>1358</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -37792,19 +37932,19 @@
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>1357</v>
+        <v>1361</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>1359</v>
+        <v>1363</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -37825,19 +37965,19 @@
     </row>
     <row r="12">
       <c r="A12" s="14" t="s">
-        <v>1361</v>
+        <v>1365</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1362</v>
+        <v>1366</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1363</v>
+        <v>1367</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -37858,19 +37998,19 @@
     </row>
     <row r="13">
       <c r="A13" s="31" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>1367</v>
+        <v>1371</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -37891,10 +38031,10 @@
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -37918,10 +38058,10 @@
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="33"/>
@@ -37945,10 +38085,10 @@
     </row>
     <row r="16">
       <c r="A16" s="14" t="s">
-        <v>1371</v>
+        <v>1375</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
@@ -37972,10 +38112,10 @@
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
@@ -37999,10 +38139,10 @@
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>1374</v>
+        <v>1378</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
@@ -38026,10 +38166,10 @@
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
@@ -38053,10 +38193,10 @@
     </row>
     <row r="20">
       <c r="A20" s="14" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="37"/>
@@ -38080,10 +38220,10 @@
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
@@ -38107,10 +38247,10 @@
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>1381</v>
+        <v>1385</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1382</v>
+        <v>1386</v>
       </c>
       <c r="C22" s="43" t="s">
         <v>127</v>
@@ -38140,10 +38280,10 @@
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>132</v>
@@ -38171,10 +38311,10 @@
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>1384</v>
+        <v>1388</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1385</v>
+        <v>1389</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>136</v>
@@ -38202,10 +38342,10 @@
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>252</v>
+        <v>1391</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>140</v>
@@ -38235,16 +38375,16 @@
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>145</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -38266,10 +38406,10 @@
     </row>
     <row r="27">
       <c r="A27" s="31" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>1283</v>
+        <v>1287</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>149</v>
@@ -38299,10 +38439,10 @@
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>154</v>
@@ -38330,13 +38470,13 @@
     </row>
     <row r="29">
       <c r="A29" s="14" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>146</v>
@@ -38361,10 +38501,10 @@
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -38388,10 +38528,10 @@
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="28"/>
@@ -38415,10 +38555,10 @@
     </row>
     <row r="32">
       <c r="A32" s="14" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
@@ -38442,10 +38582,10 @@
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1401</v>
+        <v>907</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="13"/>
@@ -38469,10 +38609,10 @@
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>1402</v>
+        <v>1406</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>244</v>
+        <v>1407</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="13"/>
@@ -38496,10 +38636,10 @@
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1404</v>
+        <v>244</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -38523,10 +38663,10 @@
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>1405</v>
+        <v>1409</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>1406</v>
+        <v>1410</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -38550,10 +38690,10 @@
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>1407</v>
+        <v>1411</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>891</v>
+        <v>1412</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -38577,10 +38717,10 @@
     </row>
     <row r="38">
       <c r="A38" s="14" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -38604,10 +38744,10 @@
     </row>
     <row r="39">
       <c r="A39" s="14" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>1411</v>
+        <v>895</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -38630,11 +38770,11 @@
       <c r="U39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="31" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>1413</v>
+      <c r="A40" s="14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1417</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -38657,11 +38797,11 @@
       <c r="U40" s="14"/>
     </row>
     <row r="41">
-      <c r="A41" s="31" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>270</v>
+      <c r="A41" s="14" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>1419</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -38684,11 +38824,11 @@
       <c r="U41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>1416</v>
+      <c r="A42" s="31" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>1421</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -38712,10 +38852,10 @@
     </row>
     <row r="43">
       <c r="A43" s="31" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>1418</v>
+        <v>270</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -38739,10 +38879,10 @@
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1420</v>
+        <v>1424</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -38765,11 +38905,11 @@
       <c r="U44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="14" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>1422</v>
+      <c r="A45" s="31" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>1426</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14"/>
@@ -38792,11 +38932,11 @@
       <c r="U45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="31" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>1424</v>
+      <c r="A46" s="14" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1428</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -38819,11 +38959,11 @@
       <c r="U46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="31" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>1426</v>
+      <c r="A47" s="14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1430</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -38847,10 +38987,10 @@
     </row>
     <row r="48">
       <c r="A48" s="14" t="s">
-        <v>1427</v>
+        <v>1431</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -38873,11 +39013,11 @@
       <c r="U48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="14" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>1430</v>
+      <c r="A49" s="31" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>1434</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -38900,11 +39040,11 @@
       <c r="U49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>1432</v>
+      <c r="A50" s="31" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>1436</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="8"/>
@@ -38928,10 +39068,10 @@
     </row>
     <row r="51">
       <c r="A51" s="14" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>1129</v>
+        <v>1438</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -38954,11 +39094,11 @@
       <c r="U51" s="8"/>
     </row>
     <row r="52">
-      <c r="A52" s="31" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>363</v>
+      <c r="A52" s="14" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1440</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
@@ -38981,11 +39121,11 @@
       <c r="U52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="14" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>712</v>
+      <c r="A53" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>1442</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -39009,10 +39149,10 @@
     </row>
     <row r="54">
       <c r="A54" s="14" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>1238</v>
+        <v>1133</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -39035,11 +39175,11 @@
       <c r="U54" s="8"/>
     </row>
     <row r="55">
-      <c r="A55" s="14" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>322</v>
+      <c r="A55" s="31" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -39063,10 +39203,10 @@
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1439</v>
+        <v>716</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -39090,10 +39230,10 @@
     </row>
     <row r="57">
       <c r="A57" s="14" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>1441</v>
+        <v>1242</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -39117,10 +39257,10 @@
     </row>
     <row r="58">
       <c r="A58" s="14" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -39144,10 +39284,10 @@
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -39171,10 +39311,10 @@
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -39198,10 +39338,10 @@
     </row>
     <row r="61">
       <c r="A61" s="14" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>1448</v>
+        <v>299</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="28"/>
@@ -39225,10 +39365,10 @@
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="13"/>
@@ -39252,10 +39392,10 @@
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="13"/>
@@ -39279,10 +39419,10 @@
     </row>
     <row r="64">
       <c r="A64" s="14" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>849</v>
+        <v>1458</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="13"/>
@@ -39306,10 +39446,10 @@
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>330</v>
+        <v>445</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -39333,10 +39473,10 @@
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>1456</v>
+        <v>935</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -39360,10 +39500,10 @@
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -39387,10 +39527,10 @@
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>1317</v>
+        <v>1464</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -39414,10 +39554,10 @@
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>1461</v>
+        <v>853</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -39441,10 +39581,10 @@
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>501</v>
+        <v>704</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -39468,10 +39608,10 @@
     </row>
     <row r="71">
       <c r="A71" s="14" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
@@ -39495,10 +39635,10 @@
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1466</v>
+        <v>330</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -39522,10 +39662,10 @@
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
@@ -39549,10 +39689,10 @@
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>847</v>
+        <v>1321</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -39576,10 +39716,10 @@
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>1471</v>
+        <v>1010</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="14"/>
@@ -39603,10 +39743,10 @@
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -39630,10 +39770,10 @@
     </row>
     <row r="77">
       <c r="A77" s="14" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
@@ -39657,10 +39797,10 @@
     </row>
     <row r="78">
       <c r="A78" s="14" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
@@ -39683,11 +39823,11 @@
       <c r="U78" s="8"/>
     </row>
     <row r="79">
-      <c r="A79" s="44" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>320</v>
+      <c r="A79" s="14" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>1481</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -39711,10 +39851,10 @@
     </row>
     <row r="80">
       <c r="A80" s="14" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="8"/>
@@ -39738,10 +39878,10 @@
     </row>
     <row r="81">
       <c r="A81" s="14" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>1482</v>
+        <v>851</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -39765,10 +39905,10 @@
     </row>
     <row r="82">
       <c r="A82" s="14" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>1484</v>
+        <v>503</v>
       </c>
       <c r="C82" s="29"/>
       <c r="D82" s="29"/>
@@ -39792,10 +39932,10 @@
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
@@ -39819,10 +39959,10 @@
     </row>
     <row r="84">
       <c r="A84" s="14" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -39846,10 +39986,10 @@
     </row>
     <row r="85">
       <c r="A85" s="14" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>473</v>
+        <v>1491</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -39873,10 +40013,10 @@
     </row>
     <row r="86">
       <c r="A86" s="14" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>528</v>
+        <v>1493</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -39899,11 +40039,11 @@
       <c r="U86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="14" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>646</v>
+      <c r="A87" s="44" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>320</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
@@ -39927,10 +40067,10 @@
     </row>
     <row r="88">
       <c r="A88" s="14" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -39954,10 +40094,10 @@
     </row>
     <row r="89">
       <c r="A89" s="14" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -39980,11 +40120,11 @@
       <c r="U89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="31" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>1028</v>
+      <c r="A90" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>1500</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
@@ -40008,10 +40148,10 @@
     </row>
     <row r="91">
       <c r="A91" s="14" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="C91" s="27"/>
       <c r="D91" s="28"/>
@@ -40034,11 +40174,11 @@
       <c r="U91" s="30"/>
     </row>
     <row r="92">
-      <c r="A92" s="31" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B92" s="31" t="s">
-        <v>1030</v>
+      <c r="A92" s="14" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>1504</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="13"/>
@@ -40062,10 +40202,10 @@
     </row>
     <row r="93">
       <c r="A93" s="14" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="13"/>
@@ -40089,10 +40229,10 @@
     </row>
     <row r="94">
       <c r="A94" s="14" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>1503</v>
+        <v>475</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="13"/>
@@ -40116,10 +40256,10 @@
     </row>
     <row r="95">
       <c r="A95" s="14" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
@@ -40143,10 +40283,10 @@
     </row>
     <row r="96">
       <c r="A96" s="14" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>1506</v>
+        <v>648</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -40170,10 +40310,10 @@
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="14"/>
@@ -40197,10 +40337,10 @@
     </row>
     <row r="98">
       <c r="A98" s="14" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
@@ -40224,10 +40364,10 @@
     </row>
     <row r="99">
       <c r="A99" s="14" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
@@ -40250,11 +40390,11 @@
       <c r="U99" s="14"/>
     </row>
     <row r="100">
-      <c r="A100" s="14" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>1514</v>
+      <c r="A100" s="31" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>1032</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
@@ -40278,10 +40418,10 @@
     </row>
     <row r="101">
       <c r="A101" s="14" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
@@ -40304,11 +40444,11 @@
       <c r="U101" s="14"/>
     </row>
     <row r="102">
-      <c r="A102" s="14" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>1518</v>
+      <c r="A102" s="31" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>1034</v>
       </c>
       <c r="C102" s="14"/>
       <c r="D102" s="14"/>
@@ -40332,10 +40472,10 @@
     </row>
     <row r="103">
       <c r="A103" s="14" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C103" s="14"/>
       <c r="D103" s="14"/>
@@ -40359,10 +40499,10 @@
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="14"/>
@@ -40386,10 +40526,10 @@
     </row>
     <row r="105">
       <c r="A105" s="14" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>963</v>
+        <v>519</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="14"/>
@@ -40413,10 +40553,10 @@
     </row>
     <row r="106">
       <c r="A106" s="14" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -40440,10 +40580,10 @@
     </row>
     <row r="107">
       <c r="A107" s="14" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>71</v>
+        <v>1528</v>
       </c>
       <c r="C107" s="14"/>
       <c r="D107" s="14"/>
@@ -40467,10 +40607,10 @@
     </row>
     <row r="108">
       <c r="A108" s="14" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>670</v>
+        <v>1258</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14"/>
@@ -40494,10 +40634,10 @@
     </row>
     <row r="109">
       <c r="A109" s="14" t="s">
-        <v>462</v>
+        <v>1530</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -40521,10 +40661,10 @@
     </row>
     <row r="110">
       <c r="A110" s="14" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="8"/>
@@ -40548,10 +40688,10 @@
     </row>
     <row r="111">
       <c r="A111" s="14" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -40575,10 +40715,10 @@
     </row>
     <row r="112">
       <c r="A112" s="14" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="C112" s="29"/>
       <c r="D112" s="29"/>
@@ -40602,10 +40742,10 @@
     </row>
     <row r="113">
       <c r="A113" s="14" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="14"/>
@@ -40629,10 +40769,10 @@
     </row>
     <row r="114">
       <c r="A114" s="14" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="C114" s="14"/>
       <c r="D114" s="14"/>
@@ -40656,10 +40796,10 @@
     </row>
     <row r="115">
       <c r="A115" s="14" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>1540</v>
+        <v>967</v>
       </c>
       <c r="C115" s="14"/>
       <c r="D115" s="14"/>
@@ -40683,10 +40823,10 @@
     </row>
     <row r="116">
       <c r="A116" s="14" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="C116" s="14"/>
       <c r="D116" s="14"/>
@@ -40709,11 +40849,11 @@
       <c r="U116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="31" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B117" s="31" t="s">
-        <v>1544</v>
+      <c r="A117" s="14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="C117" s="14"/>
       <c r="D117" s="14"/>
@@ -40737,10 +40877,10 @@
     </row>
     <row r="118">
       <c r="A118" s="14" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>1546</v>
+        <v>672</v>
       </c>
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
@@ -40764,10 +40904,10 @@
     </row>
     <row r="119">
       <c r="A119" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>1547</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>1548</v>
       </c>
       <c r="C119" s="14"/>
       <c r="D119" s="14"/>
@@ -40790,11 +40930,11 @@
       <c r="U119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>1549</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>556</v>
       </c>
       <c r="C120" s="14"/>
       <c r="D120" s="14"/>
@@ -40821,7 +40961,7 @@
         <v>1550</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>313</v>
+        <v>1551</v>
       </c>
       <c r="C121" s="27"/>
       <c r="D121" s="28"/>
@@ -40845,10 +40985,10 @@
     </row>
     <row r="122">
       <c r="A122" s="14" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C122" s="12"/>
       <c r="D122" s="13"/>
@@ -40872,10 +41012,10 @@
     </row>
     <row r="123">
       <c r="A123" s="14" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C123" s="14"/>
       <c r="D123" s="13"/>
@@ -40899,10 +41039,10 @@
     </row>
     <row r="124">
       <c r="A124" s="14" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>186</v>
+        <v>1557</v>
       </c>
       <c r="C124" s="14"/>
       <c r="D124" s="13"/>
@@ -40926,10 +41066,10 @@
     </row>
     <row r="125">
       <c r="A125" s="14" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
       <c r="C125" s="14"/>
       <c r="D125" s="14"/>
@@ -40953,10 +41093,10 @@
     </row>
     <row r="126">
       <c r="A126" s="14" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>1002</v>
+        <v>1561</v>
       </c>
       <c r="C126" s="14"/>
       <c r="D126" s="14"/>
@@ -40979,11 +41119,11 @@
       <c r="U126" s="13"/>
     </row>
     <row r="127">
-      <c r="A127" s="31" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>1010</v>
+      <c r="A127" s="14" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>1563</v>
       </c>
       <c r="C127" s="14"/>
       <c r="D127" s="14"/>
@@ -41006,11 +41146,11 @@
       <c r="U127" s="13"/>
     </row>
     <row r="128">
-      <c r="A128" s="14" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>1561</v>
+      <c r="A128" s="31" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>1565</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="14"/>
@@ -41034,10 +41174,10 @@
     </row>
     <row r="129">
       <c r="A129" s="14" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>443</v>
+        <v>1567</v>
       </c>
       <c r="C129" s="14"/>
       <c r="D129" s="14"/>
@@ -41061,10 +41201,10 @@
     </row>
     <row r="130">
       <c r="A130" s="14" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>1299</v>
+        <v>1569</v>
       </c>
       <c r="C130" s="14"/>
       <c r="D130" s="14"/>
@@ -41087,11 +41227,11 @@
       <c r="U130" s="14"/>
     </row>
     <row r="131">
-      <c r="A131" s="31" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B131" s="31" t="s">
-        <v>1565</v>
+      <c r="A131" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>1024</v>
       </c>
       <c r="C131" s="14"/>
       <c r="D131" s="14"/>
@@ -41114,11 +41254,11 @@
       <c r="U131" s="14"/>
     </row>
     <row r="132">
-      <c r="A132" s="31" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B132" s="31" t="s">
-        <v>1567</v>
+      <c r="A132" s="11" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>558</v>
       </c>
       <c r="C132" s="14"/>
       <c r="D132" s="14"/>
@@ -41142,10 +41282,10 @@
     </row>
     <row r="133">
       <c r="A133" s="14" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="C133" s="14"/>
       <c r="D133" s="14"/>
@@ -41169,10 +41309,10 @@
     </row>
     <row r="134">
       <c r="A134" s="14" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>1141</v>
+        <v>313</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="14"/>
@@ -41196,10 +41336,10 @@
     </row>
     <row r="135">
       <c r="A135" s="14" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="14"/>
@@ -41223,10 +41363,10 @@
     </row>
     <row r="136">
       <c r="A136" s="14" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>1573</v>
+        <v>206</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -41250,10 +41390,10 @@
     </row>
     <row r="137">
       <c r="A137" s="14" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>1575</v>
+        <v>186</v>
       </c>
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
@@ -41277,10 +41417,10 @@
     </row>
     <row r="138">
       <c r="A138" s="14" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>933</v>
+        <v>1579</v>
       </c>
       <c r="C138" s="14"/>
       <c r="D138" s="14"/>
@@ -41304,10 +41444,10 @@
     </row>
     <row r="139">
       <c r="A139" s="14" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B139" s="45" t="s">
-        <v>1578</v>
+        <v>1580</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>1006</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -41330,11 +41470,11 @@
       <c r="U139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="14" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>1580</v>
+      <c r="A140" s="31" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B140" s="31" t="s">
+        <v>1014</v>
       </c>
       <c r="C140" s="14"/>
       <c r="D140" s="8"/>
@@ -41358,10 +41498,10 @@
     </row>
     <row r="141">
       <c r="A141" s="14" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -41385,10 +41525,10 @@
     </row>
     <row r="142">
       <c r="A142" s="14" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>1584</v>
+        <v>443</v>
       </c>
       <c r="C142" s="29"/>
       <c r="D142" s="29"/>
@@ -41415,7 +41555,7 @@
         <v>1585</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>1586</v>
+        <v>1303</v>
       </c>
       <c r="C143" s="14"/>
       <c r="D143" s="14"/>
@@ -41438,11 +41578,11 @@
       <c r="U143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="31" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B144" s="31" t="s">
         <v>1587</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>595</v>
       </c>
       <c r="C144" s="14"/>
       <c r="D144" s="14"/>
@@ -41465,10 +41605,10 @@
       <c r="U144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="31" t="s">
         <v>1588</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="31" t="s">
         <v>1589</v>
       </c>
       <c r="C145" s="14"/>
@@ -41492,11 +41632,11 @@
       <c r="U145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="14" t="s">
         <v>1590</v>
       </c>
-      <c r="B146" s="31" t="s">
-        <v>1591</v>
+      <c r="B146" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -41520,10 +41660,10 @@
     </row>
     <row r="147">
       <c r="A147" s="14" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>369</v>
+        <v>1145</v>
       </c>
       <c r="C147" s="14"/>
       <c r="D147" s="14"/>
@@ -41546,11 +41686,11 @@
       <c r="U147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="31" t="s">
+      <c r="A148" s="14" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B148" s="14" t="s">
         <v>1593</v>
-      </c>
-      <c r="B148" s="31" t="s">
-        <v>1036</v>
       </c>
       <c r="C148" s="14"/>
       <c r="D148" s="14"/>
@@ -41604,7 +41744,7 @@
         <v>1596</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>1127</v>
+        <v>1597</v>
       </c>
       <c r="C150" s="14"/>
       <c r="D150" s="14"/>
@@ -41628,10 +41768,10 @@
     </row>
     <row r="151">
       <c r="A151" s="14" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>1598</v>
+        <v>937</v>
       </c>
       <c r="C151" s="27"/>
       <c r="D151" s="28"/>
@@ -41657,7 +41797,7 @@
       <c r="A152" s="14" t="s">
         <v>1599</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="45" t="s">
         <v>1600</v>
       </c>
       <c r="C152" s="12"/>
@@ -41681,10 +41821,10 @@
       <c r="U152" s="14"/>
     </row>
     <row r="153">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="14" t="s">
         <v>1601</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="14" t="s">
         <v>1602</v>
       </c>
       <c r="C153" s="14"/>
@@ -41712,7 +41852,7 @@
         <v>1603</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>242</v>
+        <v>1604</v>
       </c>
       <c r="C154" s="14"/>
       <c r="D154" s="13"/>
@@ -41736,10 +41876,10 @@
     </row>
     <row r="155">
       <c r="A155" s="14" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>856</v>
+        <v>1606</v>
       </c>
       <c r="C155" s="14"/>
       <c r="D155" s="14"/>
@@ -41763,10 +41903,10 @@
     </row>
     <row r="156">
       <c r="A156" s="14" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="C156" s="14"/>
       <c r="D156" s="14"/>
@@ -41790,10 +41930,10 @@
     </row>
     <row r="157">
       <c r="A157" s="14" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>987</v>
+        <v>597</v>
       </c>
       <c r="C157" s="14"/>
       <c r="D157" s="14"/>
@@ -41817,10 +41957,10 @@
     </row>
     <row r="158">
       <c r="A158" s="14" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
@@ -41843,11 +41983,11 @@
       <c r="U158" s="42"/>
     </row>
     <row r="159">
-      <c r="A159" s="14" t="s">
-        <v>1610</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>1611</v>
+      <c r="A159" s="31" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B159" s="31" t="s">
+        <v>1613</v>
       </c>
       <c r="C159" s="14"/>
       <c r="D159" s="14"/>
@@ -41871,10 +42011,10 @@
     </row>
     <row r="160">
       <c r="A160" s="14" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>1613</v>
+        <v>369</v>
       </c>
       <c r="C160" s="14"/>
       <c r="D160" s="14"/>
@@ -41897,11 +42037,11 @@
       <c r="U160" s="14"/>
     </row>
     <row r="161">
-      <c r="A161" s="14" t="s">
-        <v>1614</v>
-      </c>
-      <c r="B161" s="14" t="s">
+      <c r="A161" s="31" t="s">
         <v>1615</v>
+      </c>
+      <c r="B161" s="31" t="s">
+        <v>1040</v>
       </c>
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
@@ -41924,11 +42064,11 @@
       <c r="U161" s="14"/>
     </row>
     <row r="162">
-      <c r="A162" s="11" t="s">
+      <c r="A162" s="14" t="s">
         <v>1616</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>1217</v>
+      <c r="B162" s="14" t="s">
+        <v>1617</v>
       </c>
       <c r="C162" s="14"/>
       <c r="D162" s="14"/>
@@ -41952,10 +42092,10 @@
     </row>
     <row r="163">
       <c r="A163" s="14" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>1618</v>
+        <v>1131</v>
       </c>
       <c r="C163" s="14"/>
       <c r="D163" s="14"/>
@@ -42032,10 +42172,10 @@
       <c r="U165" s="14"/>
     </row>
     <row r="166">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="11" t="s">
         <v>1623</v>
       </c>
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="11" t="s">
         <v>1624</v>
       </c>
       <c r="C166" s="13"/>
@@ -42063,7 +42203,7 @@
         <v>1625</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>1626</v>
+        <v>242</v>
       </c>
       <c r="C167" s="14"/>
       <c r="D167" s="14"/>
@@ -42087,10 +42227,10 @@
     </row>
     <row r="168">
       <c r="A168" s="14" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>1628</v>
+        <v>860</v>
       </c>
       <c r="C168" s="14"/>
       <c r="D168" s="14"/>
@@ -42114,10 +42254,10 @@
     </row>
     <row r="169">
       <c r="A169" s="14" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>782</v>
+        <v>1628</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -42141,10 +42281,10 @@
     </row>
     <row r="170">
       <c r="A170" s="14" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>1631</v>
+        <v>991</v>
       </c>
       <c r="C170" s="14"/>
       <c r="D170" s="8"/>
@@ -42168,10 +42308,10 @@
     </row>
     <row r="171">
       <c r="A171" s="14" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>967</v>
+        <v>1631</v>
       </c>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -42195,10 +42335,10 @@
     </row>
     <row r="172">
       <c r="A172" s="14" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B172" s="14" t="s">
         <v>1633</v>
-      </c>
-      <c r="B172" s="14" t="s">
-        <v>1634</v>
       </c>
       <c r="C172" s="29"/>
       <c r="D172" s="29"/>
@@ -42222,10 +42362,10 @@
     </row>
     <row r="173">
       <c r="A173" s="14" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>1635</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>1636</v>
       </c>
       <c r="C173" s="14"/>
       <c r="D173" s="14"/>
@@ -42249,10 +42389,10 @@
     </row>
     <row r="174">
       <c r="A174" s="14" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>1637</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>644</v>
       </c>
       <c r="C174" s="14"/>
       <c r="D174" s="14"/>
@@ -42275,11 +42415,11 @@
       <c r="U174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="14" t="s">
+      <c r="A175" s="11" t="s">
         <v>1638</v>
       </c>
-      <c r="B175" s="14" t="s">
-        <v>245</v>
+      <c r="B175" s="11" t="s">
+        <v>1221</v>
       </c>
       <c r="C175" s="14"/>
       <c r="D175" s="14"/>
@@ -42360,7 +42500,7 @@
         <v>1643</v>
       </c>
       <c r="B178" s="14" t="s">
-        <v>652</v>
+        <v>1644</v>
       </c>
       <c r="C178" s="14"/>
       <c r="D178" s="14"/>
@@ -42384,10 +42524,10 @@
     </row>
     <row r="179">
       <c r="A179" s="14" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="C179" s="14"/>
       <c r="D179" s="14"/>
@@ -42411,10 +42551,10 @@
     </row>
     <row r="180">
       <c r="A180" s="14" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="C180" s="14"/>
       <c r="D180" s="14"/>
@@ -42438,10 +42578,10 @@
     </row>
     <row r="181">
       <c r="A181" s="14" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="C181" s="27"/>
       <c r="D181" s="28"/>
@@ -42465,10 +42605,10 @@
     </row>
     <row r="182">
       <c r="A182" s="14" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>678</v>
+        <v>786</v>
       </c>
       <c r="C182" s="12"/>
       <c r="D182" s="13"/>
@@ -42492,10 +42632,10 @@
     </row>
     <row r="183">
       <c r="A183" s="14" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="C183" s="14"/>
       <c r="D183" s="13"/>
@@ -42519,10 +42659,10 @@
     </row>
     <row r="184">
       <c r="A184" s="14" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>708</v>
+        <v>971</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="13"/>
@@ -42546,10 +42686,10 @@
     </row>
     <row r="185">
       <c r="A185" s="14" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C185" s="14"/>
       <c r="D185" s="14"/>
@@ -42572,11 +42712,11 @@
       <c r="U185" s="13"/>
     </row>
     <row r="186">
-      <c r="A186" s="11" t="s">
-        <v>1656</v>
-      </c>
-      <c r="B186" s="11" t="s">
-        <v>1052</v>
+      <c r="A186" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>646</v>
       </c>
       <c r="C186" s="14"/>
       <c r="D186" s="14"/>
@@ -42600,10 +42740,10 @@
     </row>
     <row r="187">
       <c r="A187" s="14" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>1658</v>
+        <v>245</v>
       </c>
       <c r="C187" s="14"/>
       <c r="D187" s="14"/>
@@ -42684,7 +42824,7 @@
         <v>1663</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>1046</v>
+        <v>1664</v>
       </c>
       <c r="C190" s="14"/>
       <c r="D190" s="14"/>
@@ -42708,10 +42848,10 @@
     </row>
     <row r="191">
       <c r="A191" s="14" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>591</v>
+        <v>654</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
@@ -42735,10 +42875,10 @@
     </row>
     <row r="192">
       <c r="A192" s="14" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -42762,10 +42902,10 @@
     </row>
     <row r="193">
       <c r="A193" s="14" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>1185</v>
+        <v>1669</v>
       </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
@@ -42789,10 +42929,10 @@
     </row>
     <row r="194">
       <c r="A194" s="14" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>1669</v>
+        <v>680</v>
       </c>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
@@ -42816,10 +42956,10 @@
     </row>
     <row r="195">
       <c r="A195" s="14" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>758</v>
+        <v>1672</v>
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="14"/>
@@ -42843,10 +42983,10 @@
     </row>
     <row r="196">
       <c r="A196" s="14" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>1672</v>
+        <v>712</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -42870,10 +43010,10 @@
     </row>
     <row r="197">
       <c r="A197" s="14" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C197" s="14"/>
       <c r="D197" s="14"/>
@@ -42896,11 +43036,11 @@
       <c r="U197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="14" t="s">
-        <v>1675</v>
-      </c>
-      <c r="B198" s="14" t="s">
+      <c r="A198" s="11" t="s">
         <v>1676</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>1056</v>
       </c>
       <c r="C198" s="14"/>
       <c r="D198" s="14"/>
@@ -42950,10 +43090,10 @@
       <c r="U199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="11" t="s">
+      <c r="A200" s="14" t="s">
         <v>1679</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="14" t="s">
         <v>1680</v>
       </c>
       <c r="C200" s="14"/>
@@ -42977,11 +43117,11 @@
       <c r="U200" s="8"/>
     </row>
     <row r="201">
-      <c r="A201" s="31" t="s">
+      <c r="A201" s="14" t="s">
         <v>1681</v>
       </c>
-      <c r="B201" s="31" t="s">
-        <v>1080</v>
+      <c r="B201" s="14" t="s">
+        <v>1682</v>
       </c>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -43004,11 +43144,11 @@
       <c r="U201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="31" t="s">
-        <v>1682</v>
-      </c>
-      <c r="B202" s="31" t="s">
+      <c r="A202" s="14" t="s">
         <v>1683</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>1050</v>
       </c>
       <c r="C202" s="29"/>
       <c r="D202" s="29"/>
@@ -43035,7 +43175,7 @@
         <v>1684</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>662</v>
+        <v>593</v>
       </c>
       <c r="C203" s="14"/>
       <c r="D203" s="14"/>
@@ -43089,7 +43229,7 @@
         <v>1687</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>1688</v>
+        <v>1189</v>
       </c>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
@@ -43113,10 +43253,10 @@
     </row>
     <row r="206">
       <c r="A206" s="14" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B206" s="14" t="s">
         <v>1689</v>
-      </c>
-      <c r="B206" s="14" t="s">
-        <v>1032</v>
       </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
@@ -43143,7 +43283,7 @@
         <v>1690</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>853</v>
+        <v>762</v>
       </c>
       <c r="C207" s="14"/>
       <c r="D207" s="14"/>
@@ -43170,7 +43310,7 @@
         <v>1691</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>200</v>
+        <v>1692</v>
       </c>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
@@ -43194,10 +43334,10 @@
     </row>
     <row r="209">
       <c r="A209" s="14" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>224</v>
+        <v>1694</v>
       </c>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
@@ -43221,10 +43361,10 @@
     </row>
     <row r="210">
       <c r="A210" s="14" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>1199</v>
+        <v>1696</v>
       </c>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
@@ -43248,10 +43388,10 @@
     </row>
     <row r="211">
       <c r="A211" s="14" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="B211" s="14" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="C211" s="27"/>
       <c r="D211" s="28"/>
@@ -43274,11 +43414,11 @@
       <c r="U211" s="30"/>
     </row>
     <row r="212">
-      <c r="A212" s="31" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B212" s="31" t="s">
-        <v>1697</v>
+      <c r="A212" s="11" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>1700</v>
       </c>
       <c r="C212" s="12"/>
       <c r="D212" s="13"/>
@@ -43301,11 +43441,11 @@
       <c r="U212" s="14"/>
     </row>
     <row r="213">
-      <c r="A213" s="14" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B213" s="14" t="s">
-        <v>1699</v>
+      <c r="A213" s="31" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B213" s="31" t="s">
+        <v>1084</v>
       </c>
       <c r="C213" s="14"/>
       <c r="D213" s="13"/>
@@ -43328,11 +43468,11 @@
       <c r="U213" s="14"/>
     </row>
     <row r="214">
-      <c r="A214" s="14" t="s">
-        <v>1700</v>
-      </c>
-      <c r="B214" s="14" t="s">
-        <v>776</v>
+      <c r="A214" s="31" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B214" s="31" t="s">
+        <v>1703</v>
       </c>
       <c r="C214" s="14"/>
       <c r="D214" s="13"/>
@@ -43356,10 +43496,10 @@
     </row>
     <row r="215">
       <c r="A215" s="14" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="B215" s="14" t="s">
-        <v>1702</v>
+        <v>664</v>
       </c>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
@@ -43383,10 +43523,10 @@
     </row>
     <row r="216">
       <c r="A216" s="14" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="B216" s="14" t="s">
-        <v>585</v>
+        <v>1706</v>
       </c>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
@@ -43410,10 +43550,10 @@
     </row>
     <row r="217">
       <c r="A217" s="14" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="B217" s="14" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
@@ -43437,10 +43577,10 @@
     </row>
     <row r="218">
       <c r="A218" s="14" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>1707</v>
+        <v>1036</v>
       </c>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
@@ -43464,10 +43604,10 @@
     </row>
     <row r="219">
       <c r="A219" s="14" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B219" s="14" t="s">
-        <v>917</v>
+        <v>857</v>
       </c>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
@@ -43491,10 +43631,10 @@
     </row>
     <row r="220">
       <c r="A220" s="14" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B220" s="14" t="s">
-        <v>1710</v>
+        <v>200</v>
       </c>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
@@ -43518,10 +43658,10 @@
     </row>
     <row r="221">
       <c r="A221" s="14" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B221" s="14" t="s">
-        <v>1712</v>
+        <v>1203</v>
       </c>
       <c r="C221" s="14"/>
       <c r="D221" s="14"/>
@@ -43571,10 +43711,10 @@
       <c r="U222" s="14"/>
     </row>
     <row r="223">
-      <c r="A223" s="14" t="s">
+      <c r="A223" s="31" t="s">
         <v>1715</v>
       </c>
-      <c r="B223" s="14" t="s">
+      <c r="B223" s="31" t="s">
         <v>1716</v>
       </c>
       <c r="C223" s="14"/>
@@ -43629,7 +43769,7 @@
         <v>1719</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>1720</v>
+        <v>778</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="14"/>
@@ -43653,10 +43793,10 @@
     </row>
     <row r="226">
       <c r="A226" s="14" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B226" s="14" t="s">
         <v>1721</v>
-      </c>
-      <c r="B226" s="14" t="s">
-        <v>835</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="13"/>
@@ -43683,7 +43823,7 @@
         <v>1722</v>
       </c>
       <c r="B227" s="14" t="s">
-        <v>1723</v>
+        <v>587</v>
       </c>
       <c r="C227" s="14"/>
       <c r="D227" s="14"/>
@@ -43707,10 +43847,10 @@
     </row>
     <row r="228">
       <c r="A228" s="14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B228" s="14" t="s">
         <v>1724</v>
-      </c>
-      <c r="B228" s="14" t="s">
-        <v>1725</v>
       </c>
       <c r="C228" s="14"/>
       <c r="D228" s="14"/>
@@ -43734,10 +43874,10 @@
     </row>
     <row r="229">
       <c r="A229" s="14" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B229" s="14" t="s">
         <v>1726</v>
-      </c>
-      <c r="B229" s="14" t="s">
-        <v>748</v>
       </c>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
@@ -43764,7 +43904,7 @@
         <v>1727</v>
       </c>
       <c r="B230" s="14" t="s">
-        <v>1728</v>
+        <v>921</v>
       </c>
       <c r="C230" s="14"/>
       <c r="D230" s="8"/>
@@ -43788,10 +43928,10 @@
     </row>
     <row r="231">
       <c r="A231" s="14" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B231" s="14" t="s">
         <v>1729</v>
-      </c>
-      <c r="B231" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
@@ -43845,7 +43985,7 @@
         <v>1732</v>
       </c>
       <c r="B233" s="14" t="s">
-        <v>577</v>
+        <v>1733</v>
       </c>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
@@ -43869,10 +44009,10 @@
     </row>
     <row r="234">
       <c r="A234" s="14" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B234" s="14" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
@@ -43896,10 +44036,10 @@
     </row>
     <row r="235">
       <c r="A235" s="14" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C235" s="14"/>
       <c r="D235" s="14"/>
@@ -43923,10 +44063,10 @@
     </row>
     <row r="236">
       <c r="A236" s="14" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>965</v>
+        <v>1739</v>
       </c>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
@@ -43950,10 +44090,10 @@
     </row>
     <row r="237">
       <c r="A237" s="14" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
@@ -43976,11 +44116,11 @@
       <c r="U237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="11" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B238" s="11" t="s">
-        <v>1741</v>
+      <c r="A238" s="14" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>839</v>
       </c>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
@@ -44004,10 +44144,10 @@
     </row>
     <row r="239">
       <c r="A239" s="14" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>1743</v>
+        <v>579</v>
       </c>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
@@ -44034,7 +44174,7 @@
         <v>1744</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>184</v>
+        <v>1745</v>
       </c>
       <c r="C240" s="14"/>
       <c r="D240" s="14"/>
@@ -44058,10 +44198,10 @@
     </row>
     <row r="241">
       <c r="A241" s="14" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C241" s="27"/>
       <c r="D241" s="28"/>
@@ -44084,11 +44224,11 @@
       <c r="U241" s="30"/>
     </row>
     <row r="242">
-      <c r="A242" s="11" t="s">
-        <v>1747</v>
-      </c>
-      <c r="B242" s="11" t="s">
+      <c r="A242" s="14" t="s">
         <v>1748</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>752</v>
       </c>
       <c r="C242" s="12"/>
       <c r="D242" s="13"/>
@@ -44142,7 +44282,7 @@
         <v>1751</v>
       </c>
       <c r="B244" s="14" t="s">
-        <v>1752</v>
+        <v>96</v>
       </c>
       <c r="C244" s="14"/>
       <c r="D244" s="13"/>
@@ -44166,10 +44306,10 @@
     </row>
     <row r="245">
       <c r="A245" s="14" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B245" s="14" t="s">
         <v>1753</v>
-      </c>
-      <c r="B245" s="14" t="s">
-        <v>1754</v>
       </c>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
@@ -44193,10 +44333,10 @@
     </row>
     <row r="246">
       <c r="A246" s="14" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B246" s="14" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
@@ -44220,10 +44360,10 @@
     </row>
     <row r="247">
       <c r="A247" s="14" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B247" s="14" t="s">
-        <v>1757</v>
+        <v>1293</v>
       </c>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
@@ -44247,10 +44387,10 @@
     </row>
     <row r="248">
       <c r="A248" s="14" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="B248" s="14" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C248" s="14"/>
       <c r="D248" s="14"/>
@@ -44274,10 +44414,10 @@
     </row>
     <row r="249">
       <c r="A249" s="14" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="B249" s="14" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="C249" s="14"/>
       <c r="D249" s="14"/>
@@ -44301,10 +44441,10 @@
     </row>
     <row r="250">
       <c r="A250" s="14" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B250" s="14" t="s">
-        <v>1763</v>
+        <v>969</v>
       </c>
       <c r="C250" s="14"/>
       <c r="D250" s="14"/>
@@ -44328,10 +44468,10 @@
     </row>
     <row r="251">
       <c r="A251" s="14" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="B251" s="14" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
@@ -44355,10 +44495,10 @@
     </row>
     <row r="252">
       <c r="A252" s="14" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="B252" s="14" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
@@ -44381,11 +44521,11 @@
       <c r="U252" s="14"/>
     </row>
     <row r="253">
-      <c r="A253" s="14" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B253" s="14" t="s">
-        <v>1769</v>
+      <c r="A253" s="11" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B253" s="11" t="s">
+        <v>1766</v>
       </c>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
@@ -44409,10 +44549,10 @@
     </row>
     <row r="254">
       <c r="A254" s="14" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="B254" s="14" t="s">
-        <v>788</v>
+        <v>1768</v>
       </c>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
@@ -44436,10 +44576,10 @@
     </row>
     <row r="255">
       <c r="A255" s="14" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B255" s="14" t="s">
-        <v>1772</v>
+        <v>184</v>
       </c>
       <c r="C255" s="13"/>
       <c r="D255" s="14"/>
@@ -44463,10 +44603,10 @@
     </row>
     <row r="256">
       <c r="A256" s="14" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="B256" s="14" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="C256" s="13"/>
       <c r="D256" s="13"/>
@@ -44489,11 +44629,11 @@
       <c r="U256" s="8"/>
     </row>
     <row r="257">
-      <c r="A257" s="14" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B257" s="14" t="s">
-        <v>546</v>
+      <c r="A257" s="11" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>1773</v>
       </c>
       <c r="C257" s="14"/>
       <c r="D257" s="14"/>
@@ -44517,10 +44657,10 @@
     </row>
     <row r="258">
       <c r="A258" s="14" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="C258" s="14"/>
       <c r="D258" s="14"/>
@@ -44544,10 +44684,10 @@
     </row>
     <row r="259">
       <c r="A259" s="14" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B259" s="14" t="s">
-        <v>1171</v>
+        <v>1777</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
@@ -44571,10 +44711,10 @@
     </row>
     <row r="260">
       <c r="A260" s="14" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B260" s="14" t="s">
         <v>1779</v>
-      </c>
-      <c r="B260" s="14" t="s">
-        <v>1780</v>
       </c>
       <c r="C260" s="14"/>
       <c r="D260" s="8"/>
@@ -44598,10 +44738,10 @@
     </row>
     <row r="261">
       <c r="A261" s="14" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B261" s="14" t="s">
-        <v>1782</v>
+        <v>373</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="8"/>
@@ -44625,10 +44765,10 @@
     </row>
     <row r="262">
       <c r="A262" s="14" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C262" s="29"/>
       <c r="D262" s="29"/>
@@ -44652,10 +44792,10 @@
     </row>
     <row r="263">
       <c r="A263" s="14" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B263" s="14" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C263" s="14"/>
       <c r="D263" s="14"/>
@@ -44679,10 +44819,10 @@
     </row>
     <row r="264">
       <c r="A264" s="14" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
@@ -44706,10 +44846,10 @@
     </row>
     <row r="265">
       <c r="A265" s="14" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>90</v>
+        <v>1788</v>
       </c>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
@@ -44733,10 +44873,10 @@
     </row>
     <row r="266">
       <c r="A266" s="14" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B266" s="14" t="s">
         <v>1790</v>
-      </c>
-      <c r="B266" s="14" t="s">
-        <v>361</v>
       </c>
       <c r="C266" s="14"/>
       <c r="D266" s="14"/>
@@ -44763,7 +44903,7 @@
         <v>1791</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>355</v>
+        <v>1792</v>
       </c>
       <c r="C267" s="14"/>
       <c r="D267" s="14"/>
@@ -44787,10 +44927,10 @@
     </row>
     <row r="268">
       <c r="A268" s="14" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
@@ -44814,10 +44954,10 @@
     </row>
     <row r="269">
       <c r="A269" s="14" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B269" s="14" t="s">
-        <v>1795</v>
+        <v>792</v>
       </c>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
@@ -44871,7 +45011,7 @@
         <v>1798</v>
       </c>
       <c r="B271" s="14" t="s">
-        <v>877</v>
+        <v>1799</v>
       </c>
       <c r="C271" s="27"/>
       <c r="D271" s="28"/>
@@ -44895,10 +45035,10 @@
     </row>
     <row r="272">
       <c r="A272" s="14" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B272" s="14" t="s">
-        <v>1800</v>
+        <v>548</v>
       </c>
       <c r="C272" s="12"/>
       <c r="D272" s="13"/>
@@ -44952,7 +45092,7 @@
         <v>1803</v>
       </c>
       <c r="B274" s="14" t="s">
-        <v>1804</v>
+        <v>1175</v>
       </c>
       <c r="C274" s="14"/>
       <c r="D274" s="13"/>
@@ -44976,10 +45116,10 @@
     </row>
     <row r="275">
       <c r="A275" s="14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B275" s="14" t="s">
         <v>1805</v>
-      </c>
-      <c r="B275" s="14" t="s">
-        <v>1806</v>
       </c>
       <c r="C275" s="14"/>
       <c r="D275" s="14"/>
@@ -45003,10 +45143,10 @@
     </row>
     <row r="276">
       <c r="A276" s="14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B276" s="14" t="s">
         <v>1807</v>
-      </c>
-      <c r="B276" s="14" t="s">
-        <v>1219</v>
       </c>
       <c r="C276" s="14"/>
       <c r="D276" s="14"/>
@@ -45060,7 +45200,7 @@
         <v>1810</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>1114</v>
+        <v>1811</v>
       </c>
       <c r="C278" s="14"/>
       <c r="D278" s="14"/>
@@ -45084,10 +45224,10 @@
     </row>
     <row r="279">
       <c r="A279" s="14" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C279" s="14"/>
       <c r="D279" s="14"/>
@@ -45111,10 +45251,10 @@
     </row>
     <row r="280">
       <c r="A280" s="14" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>1814</v>
+        <v>90</v>
       </c>
       <c r="C280" s="14"/>
       <c r="D280" s="14"/>
@@ -45141,7 +45281,7 @@
         <v>1815</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="C281" s="14"/>
       <c r="D281" s="14"/>
@@ -45168,7 +45308,7 @@
         <v>1816</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>1817</v>
+        <v>355</v>
       </c>
       <c r="C282" s="14"/>
       <c r="D282" s="14"/>
@@ -45192,10 +45332,10 @@
     </row>
     <row r="283">
       <c r="A283" s="14" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B283" s="14" t="s">
         <v>1818</v>
-      </c>
-      <c r="B283" s="14" t="s">
-        <v>1819</v>
       </c>
       <c r="C283" s="14"/>
       <c r="D283" s="14"/>
@@ -45219,10 +45359,10 @@
     </row>
     <row r="284">
       <c r="A284" s="14" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B284" s="14" t="s">
         <v>1820</v>
-      </c>
-      <c r="B284" s="14" t="s">
-        <v>1821</v>
       </c>
       <c r="C284" s="14"/>
       <c r="D284" s="14"/>
@@ -45246,10 +45386,10 @@
     </row>
     <row r="285">
       <c r="A285" s="14" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B285" s="14" t="s">
         <v>1822</v>
-      </c>
-      <c r="B285" s="14" t="s">
-        <v>1823</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="14"/>
@@ -45273,10 +45413,10 @@
     </row>
     <row r="286">
       <c r="A286" s="14" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B286" s="14" t="s">
-        <v>1825</v>
+        <v>881</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="13"/>
@@ -45300,10 +45440,10 @@
     </row>
     <row r="287">
       <c r="A287" s="14" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>1155</v>
+        <v>1825</v>
       </c>
       <c r="C287" s="14"/>
       <c r="D287" s="14"/>
@@ -45327,10 +45467,10 @@
     </row>
     <row r="288">
       <c r="A288" s="14" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B288" s="14" t="s">
         <v>1827</v>
-      </c>
-      <c r="B288" s="14" t="s">
-        <v>1828</v>
       </c>
       <c r="C288" s="14"/>
       <c r="D288" s="14"/>
@@ -45353,11 +45493,11 @@
       <c r="U288" s="8"/>
     </row>
     <row r="289">
-      <c r="A289" s="11" t="s">
+      <c r="A289" s="14" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B289" s="14" t="s">
         <v>1829</v>
-      </c>
-      <c r="B289" s="11" t="s">
-        <v>1830</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="8"/>
@@ -45381,10 +45521,10 @@
     </row>
     <row r="290">
       <c r="A290" s="14" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B290" s="14" t="s">
         <v>1831</v>
-      </c>
-      <c r="B290" s="14" t="s">
-        <v>280</v>
       </c>
       <c r="C290" s="14"/>
       <c r="D290" s="8"/>
@@ -45411,7 +45551,7 @@
         <v>1832</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>1833</v>
+        <v>1223</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="8"/>
@@ -45435,10 +45575,10 @@
     </row>
     <row r="292">
       <c r="A292" s="14" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B292" s="14" t="s">
         <v>1834</v>
-      </c>
-      <c r="B292" s="14" t="s">
-        <v>1835</v>
       </c>
       <c r="C292" s="29"/>
       <c r="D292" s="29"/>
@@ -45462,10 +45602,10 @@
     </row>
     <row r="293">
       <c r="A293" s="14" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B293" s="14" t="s">
-        <v>1837</v>
+        <v>1118</v>
       </c>
       <c r="C293" s="14"/>
       <c r="D293" s="14"/>
@@ -45489,10 +45629,10 @@
     </row>
     <row r="294">
       <c r="A294" s="14" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B294" s="14" t="s">
-        <v>483</v>
+        <v>1837</v>
       </c>
       <c r="C294" s="14"/>
       <c r="D294" s="14"/>
@@ -45516,10 +45656,10 @@
     </row>
     <row r="295">
       <c r="A295" s="14" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B295" s="14" t="s">
         <v>1839</v>
-      </c>
-      <c r="B295" s="14" t="s">
-        <v>1840</v>
       </c>
       <c r="C295" s="14"/>
       <c r="D295" s="14"/>
@@ -45543,10 +45683,10 @@
     </row>
     <row r="296">
       <c r="A296" s="14" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B296" s="14" t="s">
-        <v>1842</v>
+        <v>332</v>
       </c>
       <c r="C296" s="14"/>
       <c r="D296" s="14"/>
@@ -45569,11 +45709,11 @@
       <c r="U296" s="8"/>
     </row>
     <row r="297">
-      <c r="A297" s="11" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B297" s="11" t="s">
-        <v>1004</v>
+      <c r="A297" s="14" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>1842</v>
       </c>
       <c r="C297" s="14"/>
       <c r="D297" s="14"/>
@@ -45597,10 +45737,10 @@
     </row>
     <row r="298">
       <c r="A298" s="14" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B298" s="14" t="s">
         <v>1844</v>
-      </c>
-      <c r="B298" s="14" t="s">
-        <v>1845</v>
       </c>
       <c r="C298" s="14"/>
       <c r="D298" s="14"/>
@@ -45624,10 +45764,10 @@
     </row>
     <row r="299">
       <c r="A299" s="14" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B299" s="14" t="s">
         <v>1846</v>
-      </c>
-      <c r="B299" s="14" t="s">
-        <v>1847</v>
       </c>
       <c r="C299" s="14"/>
       <c r="D299" s="14"/>
@@ -45651,10 +45791,10 @@
     </row>
     <row r="300">
       <c r="A300" s="14" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>1849</v>
+        <v>796</v>
       </c>
       <c r="C300" s="14"/>
       <c r="D300" s="14"/>
@@ -45677,11 +45817,11 @@
       <c r="U300" s="8"/>
     </row>
     <row r="301">
-      <c r="A301" s="31" t="s">
-        <v>1850</v>
-      </c>
-      <c r="B301" s="31" t="s">
-        <v>841</v>
+      <c r="A301" s="14" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B301" s="14" t="s">
+        <v>1849</v>
       </c>
       <c r="C301" s="27"/>
       <c r="D301" s="28"/>
@@ -45705,10 +45845,10 @@
     </row>
     <row r="302">
       <c r="A302" s="14" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B302" s="14" t="s">
         <v>1851</v>
-      </c>
-      <c r="B302" s="14" t="s">
-        <v>1852</v>
       </c>
       <c r="C302" s="12"/>
       <c r="D302" s="13"/>
@@ -45732,10 +45872,10 @@
     </row>
     <row r="303">
       <c r="A303" s="14" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B303" s="14" t="s">
-        <v>1854</v>
+        <v>1159</v>
       </c>
       <c r="C303" s="14"/>
       <c r="D303" s="13"/>
@@ -45759,10 +45899,10 @@
     </row>
     <row r="304">
       <c r="A304" s="14" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B304" s="14" t="s">
-        <v>1018</v>
+        <v>1854</v>
       </c>
       <c r="C304" s="14"/>
       <c r="D304" s="13"/>
@@ -45785,11 +45925,11 @@
       <c r="U304" s="14"/>
     </row>
     <row r="305">
-      <c r="A305" s="14" t="s">
+      <c r="A305" s="11" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B305" s="11" t="s">
         <v>1856</v>
-      </c>
-      <c r="B305" s="14" t="s">
-        <v>1857</v>
       </c>
       <c r="C305" s="14"/>
       <c r="D305" s="14"/>
@@ -45813,10 +45953,10 @@
     </row>
     <row r="306">
       <c r="A306" s="14" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B306" s="14" t="s">
         <v>1858</v>
-      </c>
-      <c r="B306" s="14" t="s">
-        <v>959</v>
       </c>
       <c r="C306" s="14"/>
       <c r="D306" s="14"/>
@@ -45839,11 +45979,11 @@
       <c r="U306" s="13"/>
     </row>
     <row r="307">
-      <c r="A307" s="31" t="s">
+      <c r="A307" s="14" t="s">
         <v>1859</v>
       </c>
-      <c r="B307" s="31" t="s">
-        <v>1001</v>
+      <c r="B307" s="14" t="s">
+        <v>280</v>
       </c>
       <c r="C307" s="14"/>
       <c r="D307" s="14"/>
@@ -45924,7 +46064,7 @@
         <v>1864</v>
       </c>
       <c r="B310" s="14" t="s">
-        <v>1865</v>
+        <v>485</v>
       </c>
       <c r="C310" s="14"/>
       <c r="D310" s="14"/>
@@ -45948,10 +46088,10 @@
     </row>
     <row r="311">
       <c r="A311" s="14" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B311" s="14" t="s">
         <v>1866</v>
-      </c>
-      <c r="B311" s="14" t="s">
-        <v>1867</v>
       </c>
       <c r="C311" s="14"/>
       <c r="D311" s="14"/>
@@ -45975,10 +46115,10 @@
     </row>
     <row r="312">
       <c r="A312" s="14" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B312" s="14" t="s">
-        <v>1869</v>
+        <v>583</v>
       </c>
       <c r="C312" s="14"/>
       <c r="D312" s="14"/>
@@ -46002,10 +46142,10 @@
     </row>
     <row r="313">
       <c r="A313" s="14" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>507</v>
+        <v>1869</v>
       </c>
       <c r="C313" s="14"/>
       <c r="D313" s="14"/>
@@ -46029,10 +46169,10 @@
     </row>
     <row r="314">
       <c r="A314" s="14" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B314" s="14" t="s">
         <v>1871</v>
-      </c>
-      <c r="B314" s="14" t="s">
-        <v>1157</v>
       </c>
       <c r="C314" s="14"/>
       <c r="D314" s="14"/>
@@ -46055,11 +46195,11 @@
       <c r="U314" s="14"/>
     </row>
     <row r="315">
-      <c r="A315" s="14" t="s">
+      <c r="A315" s="11" t="s">
         <v>1872</v>
       </c>
-      <c r="B315" s="14" t="s">
-        <v>1873</v>
+      <c r="B315" s="11" t="s">
+        <v>1008</v>
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="14"/>
@@ -46083,10 +46223,10 @@
     </row>
     <row r="316">
       <c r="A316" s="14" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B316" s="14" t="s">
         <v>1874</v>
-      </c>
-      <c r="B316" s="14" t="s">
-        <v>1875</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="13"/>
@@ -46110,10 +46250,10 @@
     </row>
     <row r="317">
       <c r="A317" s="14" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B317" s="14" t="s">
         <v>1876</v>
-      </c>
-      <c r="B317" s="14" t="s">
-        <v>1133</v>
       </c>
       <c r="C317" s="14"/>
       <c r="D317" s="14"/>
@@ -46163,11 +46303,11 @@
       <c r="U318" s="8"/>
     </row>
     <row r="319">
-      <c r="A319" s="14" t="s">
+      <c r="A319" s="31" t="s">
         <v>1879</v>
       </c>
-      <c r="B319" s="14" t="s">
-        <v>1880</v>
+      <c r="B319" s="31" t="s">
+        <v>845</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="8"/>
@@ -46191,10 +46331,10 @@
     </row>
     <row r="320">
       <c r="A320" s="14" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B320" s="14" t="s">
         <v>1881</v>
-      </c>
-      <c r="B320" s="14" t="s">
-        <v>1882</v>
       </c>
       <c r="C320" s="14"/>
       <c r="D320" s="8"/>
@@ -46218,10 +46358,10 @@
     </row>
     <row r="321">
       <c r="A321" s="14" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B321" s="14" t="s">
         <v>1883</v>
-      </c>
-      <c r="B321" s="14" t="s">
-        <v>1044</v>
       </c>
       <c r="C321" s="8"/>
       <c r="D321" s="8"/>
@@ -46271,10 +46411,10 @@
       <c r="U322" s="8"/>
     </row>
     <row r="323">
-      <c r="A323" s="31" t="s">
+      <c r="A323" s="14" t="s">
         <v>1886</v>
       </c>
-      <c r="B323" s="31" t="s">
+      <c r="B323" s="14" t="s">
         <v>1887</v>
       </c>
       <c r="C323" s="14"/>
@@ -46302,7 +46442,7 @@
         <v>1888</v>
       </c>
       <c r="B324" s="14" t="s">
-        <v>1889</v>
+        <v>1022</v>
       </c>
       <c r="C324" s="14"/>
       <c r="D324" s="14"/>
@@ -46326,10 +46466,10 @@
     </row>
     <row r="325">
       <c r="A325" s="14" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B325" s="14" t="s">
-        <v>1891</v>
+        <v>963</v>
       </c>
       <c r="C325" s="14"/>
       <c r="D325" s="14"/>
@@ -46352,11 +46492,11 @@
       <c r="U325" s="8"/>
     </row>
     <row r="326">
-      <c r="A326" s="14" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B326" s="14" t="s">
-        <v>1366</v>
+      <c r="A326" s="31" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B326" s="31" t="s">
+        <v>1005</v>
       </c>
       <c r="C326" s="14"/>
       <c r="D326" s="14"/>
@@ -46380,10 +46520,10 @@
     </row>
     <row r="327">
       <c r="A327" s="14" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B327" s="14" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="C327" s="14"/>
       <c r="D327" s="14"/>
@@ -46407,10 +46547,10 @@
     </row>
     <row r="328">
       <c r="A328" s="14" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>631</v>
+        <v>1894</v>
       </c>
       <c r="C328" s="14"/>
       <c r="D328" s="14"/>
@@ -46434,10 +46574,10 @@
     </row>
     <row r="329">
       <c r="A329" s="14" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B329" s="14" t="s">
         <v>1896</v>
-      </c>
-      <c r="B329" s="14" t="s">
-        <v>1897</v>
       </c>
       <c r="C329" s="14"/>
       <c r="D329" s="14"/>
@@ -46461,10 +46601,10 @@
     </row>
     <row r="330">
       <c r="A330" s="14" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B330" s="14" t="s">
         <v>1898</v>
-      </c>
-      <c r="B330" s="14" t="s">
-        <v>1899</v>
       </c>
       <c r="C330" s="14"/>
       <c r="D330" s="14"/>
@@ -46488,10 +46628,10 @@
     </row>
     <row r="331">
       <c r="A331" s="14" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B331" s="14" t="s">
         <v>1900</v>
-      </c>
-      <c r="B331" s="14" t="s">
-        <v>222</v>
       </c>
       <c r="C331" s="27"/>
       <c r="D331" s="28"/>
@@ -46518,7 +46658,7 @@
         <v>1901</v>
       </c>
       <c r="B332" s="14" t="s">
-        <v>1259</v>
+        <v>509</v>
       </c>
       <c r="C332" s="12"/>
       <c r="D332" s="13"/>
@@ -46541,11 +46681,11 @@
       <c r="U332" s="14"/>
     </row>
     <row r="333">
-      <c r="A333" s="31" t="s">
+      <c r="A333" s="14" t="s">
         <v>1902</v>
       </c>
-      <c r="B333" s="31" t="s">
-        <v>353</v>
+      <c r="B333" s="14" t="s">
+        <v>1161</v>
       </c>
       <c r="C333" s="14"/>
       <c r="D333" s="13"/>
@@ -46572,7 +46712,7 @@
         <v>1903</v>
       </c>
       <c r="B334" s="14" t="s">
-        <v>550</v>
+        <v>1904</v>
       </c>
       <c r="C334" s="14"/>
       <c r="D334" s="13"/>
@@ -46596,10 +46736,10 @@
     </row>
     <row r="335">
       <c r="A335" s="14" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C335" s="14"/>
       <c r="D335" s="14"/>
@@ -46623,10 +46763,10 @@
     </row>
     <row r="336">
       <c r="A336" s="14" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>730</v>
+        <v>1908</v>
       </c>
       <c r="C336" s="14"/>
       <c r="D336" s="14"/>
@@ -46649,11 +46789,11 @@
       <c r="U336" s="13"/>
     </row>
     <row r="337">
-      <c r="A337" s="31" t="s">
-        <v>1907</v>
-      </c>
-      <c r="B337" s="31" t="s">
-        <v>1110</v>
+      <c r="A337" s="14" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B337" s="14" t="s">
+        <v>1137</v>
       </c>
       <c r="C337" s="14"/>
       <c r="D337" s="14"/>
@@ -46677,10 +46817,10 @@
     </row>
     <row r="338">
       <c r="A338" s="14" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="C338" s="14"/>
       <c r="D338" s="14"/>
@@ -46704,10 +46844,10 @@
     </row>
     <row r="339">
       <c r="A339" s="14" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>1905</v>
+        <v>1913</v>
       </c>
       <c r="C339" s="14"/>
       <c r="D339" s="14"/>
@@ -46731,10 +46871,10 @@
     </row>
     <row r="340">
       <c r="A340" s="14" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>124</v>
+        <v>1915</v>
       </c>
       <c r="C340" s="14"/>
       <c r="D340" s="14"/>
@@ -46758,10 +46898,10 @@
     </row>
     <row r="341">
       <c r="A341" s="14" t="s">
-        <v>1912</v>
+        <v>1916</v>
       </c>
       <c r="B341" s="14" t="s">
-        <v>1913</v>
+        <v>1048</v>
       </c>
       <c r="C341" s="14"/>
       <c r="D341" s="14"/>
@@ -46785,10 +46925,10 @@
     </row>
     <row r="342">
       <c r="A342" s="14" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="C342" s="14"/>
       <c r="D342" s="14"/>
@@ -46811,11 +46951,11 @@
       <c r="U342" s="14"/>
     </row>
     <row r="343">
-      <c r="A343" s="11" t="s">
-        <v>1916</v>
-      </c>
-      <c r="B343" s="11" t="s">
-        <v>1917</v>
+      <c r="A343" s="31" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B343" s="31" t="s">
+        <v>1920</v>
       </c>
       <c r="C343" s="14"/>
       <c r="D343" s="14"/>
@@ -46839,10 +46979,10 @@
     </row>
     <row r="344">
       <c r="A344" s="14" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="B344" s="14" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="C344" s="14"/>
       <c r="D344" s="14"/>
@@ -46866,10 +47006,10 @@
     </row>
     <row r="345">
       <c r="A345" s="14" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="14"/>
@@ -46893,10 +47033,10 @@
     </row>
     <row r="346">
       <c r="A346" s="14" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>1923</v>
+        <v>1370</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="13"/>
@@ -46920,10 +47060,10 @@
     </row>
     <row r="347">
       <c r="A347" s="14" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>315</v>
+        <v>1927</v>
       </c>
       <c r="C347" s="14"/>
       <c r="D347" s="14"/>
@@ -46947,10 +47087,10 @@
     </row>
     <row r="348">
       <c r="A348" s="14" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>1315</v>
+        <v>633</v>
       </c>
       <c r="C348" s="14"/>
       <c r="D348" s="14"/>
@@ -46974,10 +47114,10 @@
     </row>
     <row r="349">
       <c r="A349" s="14" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>1207</v>
+        <v>1930</v>
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="8"/>
@@ -47001,10 +47141,10 @@
     </row>
     <row r="350">
       <c r="A350" s="14" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>284</v>
+        <v>1932</v>
       </c>
       <c r="C350" s="14"/>
       <c r="D350" s="8"/>
@@ -47028,10 +47168,10 @@
     </row>
     <row r="351">
       <c r="A351" s="14" t="s">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="B351" s="14" t="s">
-        <v>1929</v>
+        <v>222</v>
       </c>
       <c r="C351" s="8"/>
       <c r="D351" s="8"/>
@@ -47055,10 +47195,10 @@
     </row>
     <row r="352">
       <c r="A352" s="14" t="s">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>1931</v>
+        <v>1263</v>
       </c>
       <c r="C352" s="29"/>
       <c r="D352" s="29"/>
@@ -47081,11 +47221,11 @@
       <c r="U352" s="8"/>
     </row>
     <row r="353">
-      <c r="A353" s="14" t="s">
-        <v>1932</v>
-      </c>
-      <c r="B353" s="14" t="s">
-        <v>1933</v>
+      <c r="A353" s="31" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B353" s="31" t="s">
+        <v>353</v>
       </c>
       <c r="C353" s="14"/>
       <c r="D353" s="14"/>
@@ -47108,11 +47248,11 @@
       <c r="U353" s="8"/>
     </row>
     <row r="354">
-      <c r="A354" s="31" t="s">
-        <v>1934</v>
-      </c>
-      <c r="B354" s="31" t="s">
-        <v>1149</v>
+      <c r="A354" s="14" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>1937</v>
       </c>
       <c r="C354" s="14"/>
       <c r="D354" s="14"/>
@@ -47135,11 +47275,11 @@
       <c r="U354" s="8"/>
     </row>
     <row r="355">
-      <c r="A355" s="31" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B355" s="31" t="s">
-        <v>1123</v>
+      <c r="A355" s="14" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B355" s="14" t="s">
+        <v>734</v>
       </c>
       <c r="C355" s="14"/>
       <c r="D355" s="14"/>
@@ -47162,11 +47302,11 @@
       <c r="U355" s="8"/>
     </row>
     <row r="356">
-      <c r="A356" s="11" t="s">
-        <v>1936</v>
-      </c>
-      <c r="B356" s="11" t="s">
-        <v>1937</v>
+      <c r="A356" s="31" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B356" s="31" t="s">
+        <v>1114</v>
       </c>
       <c r="C356" s="14"/>
       <c r="D356" s="14"/>
@@ -47190,10 +47330,10 @@
     </row>
     <row r="357">
       <c r="A357" s="14" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="C357" s="14"/>
       <c r="D357" s="14"/>
@@ -47217,10 +47357,10 @@
     </row>
     <row r="358">
       <c r="A358" s="14" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B358" s="14" t="s">
-        <v>108</v>
+        <v>1943</v>
       </c>
       <c r="C358" s="14"/>
       <c r="D358" s="14"/>
@@ -47244,10 +47384,10 @@
     </row>
     <row r="359">
       <c r="A359" s="14" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="B359" s="14" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="C359" s="14"/>
       <c r="D359" s="14"/>
@@ -47271,10 +47411,10 @@
     </row>
     <row r="360">
       <c r="A360" s="14" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
       <c r="B360" s="14" t="s">
-        <v>1944</v>
+        <v>552</v>
       </c>
       <c r="C360" s="14"/>
       <c r="D360" s="14"/>
@@ -47298,10 +47438,10 @@
     </row>
     <row r="361">
       <c r="A361" s="14" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B361" s="14" t="s">
-        <v>1946</v>
+        <v>124</v>
       </c>
       <c r="C361" s="27"/>
       <c r="D361" s="28"/>
@@ -47351,11 +47491,11 @@
       <c r="U362" s="14"/>
     </row>
     <row r="363">
-      <c r="A363" s="11" t="s">
+      <c r="A363" s="14" t="s">
         <v>1949</v>
       </c>
-      <c r="B363" s="11" t="s">
-        <v>1950</v>
+      <c r="B363" s="14" t="s">
+        <v>550</v>
       </c>
       <c r="C363" s="14"/>
       <c r="D363" s="13"/>
@@ -47379,10 +47519,10 @@
     </row>
     <row r="364">
       <c r="A364" s="14" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B364" s="14" t="s">
         <v>1951</v>
-      </c>
-      <c r="B364" s="14" t="s">
-        <v>1952</v>
       </c>
       <c r="C364" s="14"/>
       <c r="D364" s="13"/>
@@ -47405,11 +47545,11 @@
       <c r="U364" s="14"/>
     </row>
     <row r="365">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="11" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B365" s="11" t="s">
         <v>1953</v>
-      </c>
-      <c r="B365" s="14" t="s">
-        <v>511</v>
       </c>
       <c r="C365" s="14"/>
       <c r="D365" s="14"/>
@@ -47459,11 +47599,11 @@
       <c r="U366" s="13"/>
     </row>
     <row r="367">
-      <c r="A367" s="31" t="s">
+      <c r="A367" s="14" t="s">
         <v>1956</v>
       </c>
-      <c r="B367" s="31" t="s">
-        <v>493</v>
+      <c r="B367" s="14" t="s">
+        <v>1957</v>
       </c>
       <c r="C367" s="14"/>
       <c r="D367" s="14"/>
@@ -47487,10 +47627,10 @@
     </row>
     <row r="368">
       <c r="A368" s="14" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C368" s="14"/>
       <c r="D368" s="14"/>
@@ -47514,10 +47654,10 @@
     </row>
     <row r="369">
       <c r="A369" s="14" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>1960</v>
+        <v>315</v>
       </c>
       <c r="C369" s="14"/>
       <c r="D369" s="14"/>
@@ -47540,11 +47680,11 @@
       <c r="U369" s="14"/>
     </row>
     <row r="370">
-      <c r="A370" s="11" t="s">
+      <c r="A370" s="14" t="s">
         <v>1961</v>
       </c>
-      <c r="B370" s="11" t="s">
-        <v>1256</v>
+      <c r="B370" s="14" t="s">
+        <v>1319</v>
       </c>
       <c r="C370" s="14"/>
       <c r="D370" s="14"/>
@@ -47571,7 +47711,7 @@
         <v>1962</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>1963</v>
+        <v>1211</v>
       </c>
       <c r="C371" s="14"/>
       <c r="D371" s="14"/>
@@ -47594,11 +47734,11 @@
       <c r="U371" s="14"/>
     </row>
     <row r="372">
-      <c r="A372" s="31" t="s">
-        <v>1964</v>
-      </c>
-      <c r="B372" s="31" t="s">
-        <v>1965</v>
+      <c r="A372" s="14" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>284</v>
       </c>
       <c r="C372" s="14"/>
       <c r="D372" s="14"/>
@@ -47622,10 +47762,10 @@
     </row>
     <row r="373">
       <c r="A373" s="14" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>398</v>
+        <v>1965</v>
       </c>
       <c r="C373" s="14"/>
       <c r="D373" s="14"/>
@@ -47649,10 +47789,10 @@
     </row>
     <row r="374">
       <c r="A374" s="14" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B374" s="14" t="s">
         <v>1967</v>
-      </c>
-      <c r="B374" s="14" t="s">
-        <v>1968</v>
       </c>
       <c r="C374" s="14"/>
       <c r="D374" s="14"/>
@@ -47676,10 +47816,10 @@
     </row>
     <row r="375">
       <c r="A375" s="14" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B375" s="14" t="s">
         <v>1969</v>
-      </c>
-      <c r="B375" s="14" t="s">
-        <v>808</v>
       </c>
       <c r="C375" s="13"/>
       <c r="D375" s="14"/>
@@ -47702,11 +47842,11 @@
       <c r="U375" s="14"/>
     </row>
     <row r="376">
-      <c r="A376" s="14" t="s">
+      <c r="A376" s="31" t="s">
         <v>1970</v>
       </c>
-      <c r="B376" s="14" t="s">
-        <v>1971</v>
+      <c r="B376" s="31" t="s">
+        <v>1153</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="13"/>
@@ -47729,11 +47869,11 @@
       <c r="U376" s="8"/>
     </row>
     <row r="377">
-      <c r="A377" s="14" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B377" s="14" t="s">
-        <v>1139</v>
+      <c r="A377" s="31" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B377" s="31" t="s">
+        <v>1127</v>
       </c>
       <c r="C377" s="14"/>
       <c r="D377" s="14"/>
@@ -47756,11 +47896,11 @@
       <c r="U377" s="8"/>
     </row>
     <row r="378">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="11" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B378" s="11" t="s">
         <v>1973</v>
-      </c>
-      <c r="B378" s="14" t="s">
-        <v>1974</v>
       </c>
       <c r="C378" s="14"/>
       <c r="D378" s="14"/>
@@ -47784,10 +47924,10 @@
     </row>
     <row r="379">
       <c r="A379" s="14" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B379" s="14" t="s">
         <v>1975</v>
-      </c>
-      <c r="B379" s="14" t="s">
-        <v>1976</v>
       </c>
       <c r="C379" s="8"/>
       <c r="D379" s="8"/>
@@ -47811,10 +47951,10 @@
     </row>
     <row r="380">
       <c r="A380" s="14" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>1131</v>
+        <v>108</v>
       </c>
       <c r="C380" s="14"/>
       <c r="D380" s="8"/>
@@ -47838,10 +47978,10 @@
     </row>
     <row r="381">
       <c r="A381" s="14" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B381" s="14" t="s">
         <v>1978</v>
-      </c>
-      <c r="B381" s="14" t="s">
-        <v>1979</v>
       </c>
       <c r="C381" s="8"/>
       <c r="D381" s="8"/>
@@ -47865,10 +48005,10 @@
     </row>
     <row r="382">
       <c r="A382" s="14" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B382" s="14" t="s">
         <v>1980</v>
-      </c>
-      <c r="B382" s="14" t="s">
-        <v>1981</v>
       </c>
       <c r="C382" s="29"/>
       <c r="D382" s="29"/>
@@ -47892,10 +48032,10 @@
     </row>
     <row r="383">
       <c r="A383" s="14" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B383" s="14" t="s">
         <v>1982</v>
-      </c>
-      <c r="B383" s="14" t="s">
-        <v>628</v>
       </c>
       <c r="C383" s="14"/>
       <c r="D383" s="14"/>
@@ -47922,7 +48062,7 @@
         <v>1983</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>718</v>
+        <v>1984</v>
       </c>
       <c r="C384" s="14"/>
       <c r="D384" s="14"/>
@@ -47945,11 +48085,11 @@
       <c r="U384" s="8"/>
     </row>
     <row r="385">
-      <c r="A385" s="14" t="s">
-        <v>1984</v>
-      </c>
-      <c r="B385" s="14" t="s">
+      <c r="A385" s="11" t="s">
         <v>1985</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>1986</v>
       </c>
       <c r="C385" s="14"/>
       <c r="D385" s="14"/>
@@ -47973,10 +48113,10 @@
     </row>
     <row r="386">
       <c r="A386" s="14" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>1215</v>
+        <v>1988</v>
       </c>
       <c r="C386" s="14"/>
       <c r="D386" s="14"/>
@@ -48000,10 +48140,10 @@
     </row>
     <row r="387">
       <c r="A387" s="14" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>1988</v>
+        <v>513</v>
       </c>
       <c r="C387" s="14"/>
       <c r="D387" s="14"/>
@@ -48027,10 +48167,10 @@
     </row>
     <row r="388">
       <c r="A388" s="14" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>1271</v>
+        <v>1991</v>
       </c>
       <c r="C388" s="14"/>
       <c r="D388" s="14"/>
@@ -48053,11 +48193,11 @@
       <c r="U388" s="8"/>
     </row>
     <row r="389">
-      <c r="A389" s="14" t="s">
-        <v>1990</v>
-      </c>
-      <c r="B389" s="14" t="s">
-        <v>375</v>
+      <c r="A389" s="31" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B389" s="31" t="s">
+        <v>495</v>
       </c>
       <c r="C389" s="14"/>
       <c r="D389" s="14"/>
@@ -48081,10 +48221,10 @@
     </row>
     <row r="390">
       <c r="A390" s="14" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>1992</v>
+        <v>1330</v>
       </c>
       <c r="C390" s="14"/>
       <c r="D390" s="14"/>
@@ -48108,10 +48248,10 @@
     </row>
     <row r="391">
       <c r="A391" s="14" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C391" s="27"/>
       <c r="D391" s="28"/>
@@ -48134,11 +48274,11 @@
       <c r="U391" s="30"/>
     </row>
     <row r="392">
-      <c r="A392" s="14" t="s">
-        <v>1995</v>
-      </c>
-      <c r="B392" s="14" t="s">
-        <v>623</v>
+      <c r="A392" s="11" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B392" s="11" t="s">
+        <v>1260</v>
       </c>
       <c r="C392" s="12"/>
       <c r="D392" s="13"/>
@@ -48162,10 +48302,10 @@
     </row>
     <row r="393">
       <c r="A393" s="14" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C393" s="14"/>
       <c r="D393" s="13"/>
@@ -48188,11 +48328,11 @@
       <c r="U393" s="14"/>
     </row>
     <row r="394">
-      <c r="A394" s="14" t="s">
-        <v>1998</v>
-      </c>
-      <c r="B394" s="14" t="s">
+      <c r="A394" s="31" t="s">
         <v>1999</v>
+      </c>
+      <c r="B394" s="31" t="s">
+        <v>2000</v>
       </c>
       <c r="C394" s="14"/>
       <c r="D394" s="13"/>
@@ -48216,10 +48356,10 @@
     </row>
     <row r="395">
       <c r="A395" s="14" t="s">
-        <v>1272</v>
+        <v>2001</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>1273</v>
+        <v>398</v>
       </c>
       <c r="C395" s="14"/>
       <c r="D395" s="14"/>
@@ -48243,10 +48383,10 @@
     </row>
     <row r="396">
       <c r="A396" s="14" t="s">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C396" s="14"/>
       <c r="D396" s="14"/>
@@ -48270,10 +48410,10 @@
     </row>
     <row r="397">
       <c r="A397" s="14" t="s">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>2003</v>
+        <v>812</v>
       </c>
       <c r="C397" s="14"/>
       <c r="D397" s="14"/>
@@ -48297,10 +48437,10 @@
     </row>
     <row r="398">
       <c r="A398" s="14" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C398" s="14"/>
       <c r="D398" s="14"/>
@@ -48324,10 +48464,10 @@
     </row>
     <row r="399">
       <c r="A399" s="14" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>236</v>
+        <v>1143</v>
       </c>
       <c r="C399" s="14"/>
       <c r="D399" s="14"/>
@@ -48351,10 +48491,10 @@
     </row>
     <row r="400">
       <c r="A400" s="14" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C400" s="14"/>
       <c r="D400" s="14"/>
@@ -48378,10 +48518,10 @@
     </row>
     <row r="401">
       <c r="A401" s="14" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C401" s="14"/>
       <c r="D401" s="14"/>
@@ -48405,10 +48545,10 @@
     </row>
     <row r="402">
       <c r="A402" s="14" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>794</v>
+        <v>1135</v>
       </c>
       <c r="C402" s="14"/>
       <c r="D402" s="14"/>
@@ -48432,10 +48572,10 @@
     </row>
     <row r="403">
       <c r="A403" s="14" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B403" s="14" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C403" s="14"/>
       <c r="D403" s="14"/>
@@ -48459,10 +48599,10 @@
     </row>
     <row r="404">
       <c r="A404" s="14" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B404" s="14" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C404" s="14"/>
       <c r="D404" s="14"/>
@@ -48486,10 +48626,10 @@
     </row>
     <row r="405">
       <c r="A405" s="14" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B405" s="14" t="s">
-        <v>2017</v>
+        <v>630</v>
       </c>
       <c r="C405" s="13"/>
       <c r="D405" s="14"/>
@@ -48516,7 +48656,7 @@
         <v>2018</v>
       </c>
       <c r="B406" s="14" t="s">
-        <v>2019</v>
+        <v>722</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="13"/>
@@ -48540,10 +48680,10 @@
     </row>
     <row r="407">
       <c r="A407" s="14" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B407" s="14" t="s">
         <v>2020</v>
-      </c>
-      <c r="B407" s="14" t="s">
-        <v>2021</v>
       </c>
       <c r="C407" s="14"/>
       <c r="D407" s="14"/>
@@ -48567,10 +48707,10 @@
     </row>
     <row r="408">
       <c r="A408" s="14" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B408" s="14" t="s">
-        <v>2023</v>
+        <v>1219</v>
       </c>
       <c r="C408" s="14"/>
       <c r="D408" s="14"/>
@@ -48594,10 +48734,10 @@
     </row>
     <row r="409">
       <c r="A409" s="14" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B409" s="14" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="C409" s="8"/>
       <c r="D409" s="8"/>
@@ -48621,10 +48761,10 @@
     </row>
     <row r="410">
       <c r="A410" s="14" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B410" s="14" t="s">
-        <v>2027</v>
+        <v>1275</v>
       </c>
       <c r="C410" s="14"/>
       <c r="D410" s="8"/>
@@ -48648,10 +48788,10 @@
     </row>
     <row r="411">
       <c r="A411" s="14" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="B411" s="14" t="s">
-        <v>2029</v>
+        <v>375</v>
       </c>
       <c r="C411" s="8"/>
       <c r="D411" s="8"/>
@@ -48675,10 +48815,10 @@
     </row>
     <row r="412">
       <c r="A412" s="14" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="B412" s="14" t="s">
-        <v>461</v>
+        <v>23</v>
       </c>
       <c r="C412" s="29"/>
       <c r="D412" s="29"/>
@@ -48702,10 +48842,10 @@
     </row>
     <row r="413">
       <c r="A413" s="14" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="B413" s="14" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="C413" s="14"/>
       <c r="D413" s="14"/>
@@ -48729,10 +48869,10 @@
     </row>
     <row r="414">
       <c r="A414" s="14" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="B414" s="14" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="C414" s="14"/>
       <c r="D414" s="14"/>
@@ -48756,10 +48896,10 @@
     </row>
     <row r="415">
       <c r="A415" s="14" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="B415" s="14" t="s">
-        <v>2036</v>
+        <v>625</v>
       </c>
       <c r="C415" s="14"/>
       <c r="D415" s="14"/>
@@ -48783,10 +48923,10 @@
     </row>
     <row r="416">
       <c r="A416" s="14" t="s">
-        <v>2037</v>
+        <v>2032</v>
       </c>
       <c r="B416" s="14" t="s">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="C416" s="14"/>
       <c r="D416" s="14"/>
@@ -48810,10 +48950,10 @@
     </row>
     <row r="417">
       <c r="A417" s="14" t="s">
-        <v>2039</v>
+        <v>2034</v>
       </c>
       <c r="B417" s="14" t="s">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="C417" s="14"/>
       <c r="D417" s="14"/>
@@ -48837,10 +48977,10 @@
     </row>
     <row r="418">
       <c r="A418" s="14" t="s">
-        <v>2041</v>
+        <v>1276</v>
       </c>
       <c r="B418" s="14" t="s">
-        <v>435</v>
+        <v>1277</v>
       </c>
       <c r="C418" s="14"/>
       <c r="D418" s="14"/>
@@ -48864,10 +49004,10 @@
     </row>
     <row r="419">
       <c r="A419" s="14" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="B419" s="14" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="C419" s="14"/>
       <c r="D419" s="14"/>
@@ -48891,10 +49031,10 @@
     </row>
     <row r="420">
       <c r="A420" s="14" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="B420" s="14" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="C420" s="14"/>
       <c r="D420" s="14"/>
@@ -48918,10 +49058,10 @@
     </row>
     <row r="421">
       <c r="A421" s="14" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="B421" s="14" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="C421" s="27"/>
       <c r="D421" s="28"/>
@@ -48945,10 +49085,10 @@
     </row>
     <row r="422">
       <c r="A422" s="14" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="B422" s="14" t="s">
-        <v>2049</v>
+        <v>236</v>
       </c>
       <c r="C422" s="12"/>
       <c r="D422" s="13"/>
@@ -48972,10 +49112,10 @@
     </row>
     <row r="423">
       <c r="A423" s="14" t="s">
-        <v>2050</v>
+        <v>2043</v>
       </c>
       <c r="B423" s="14" t="s">
-        <v>2051</v>
+        <v>2044</v>
       </c>
       <c r="C423" s="14"/>
       <c r="D423" s="13"/>
@@ -48999,10 +49139,10 @@
     </row>
     <row r="424">
       <c r="A424" s="14" t="s">
-        <v>2052</v>
+        <v>2045</v>
       </c>
       <c r="B424" s="14" t="s">
-        <v>523</v>
+        <v>2046</v>
       </c>
       <c r="C424" s="14"/>
       <c r="D424" s="13"/>
@@ -49025,8 +49165,12 @@
       <c r="U424" s="14"/>
     </row>
     <row r="425">
-      <c r="A425" s="14"/>
-      <c r="B425" s="14"/>
+      <c r="A425" s="14" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>798</v>
+      </c>
       <c r="C425" s="14"/>
       <c r="D425" s="14"/>
       <c r="E425" s="14"/>
@@ -49048,8 +49192,12 @@
       <c r="U425" s="13"/>
     </row>
     <row r="426">
-      <c r="A426" s="14"/>
-      <c r="B426" s="14"/>
+      <c r="A426" s="14" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B426" s="14" t="s">
+        <v>2049</v>
+      </c>
       <c r="C426" s="14"/>
       <c r="D426" s="14"/>
       <c r="E426" s="14"/>
@@ -49071,8 +49219,12 @@
       <c r="U426" s="13"/>
     </row>
     <row r="427">
-      <c r="A427" s="14"/>
-      <c r="B427" s="14"/>
+      <c r="A427" s="14" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>2051</v>
+      </c>
       <c r="C427" s="14"/>
       <c r="D427" s="14"/>
       <c r="E427" s="14"/>
@@ -49094,8 +49246,12 @@
       <c r="U427" s="13"/>
     </row>
     <row r="428">
-      <c r="A428" s="14"/>
-      <c r="B428" s="14"/>
+      <c r="A428" s="14" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B428" s="14" t="s">
+        <v>2053</v>
+      </c>
       <c r="C428" s="14"/>
       <c r="D428" s="14"/>
       <c r="E428" s="14"/>
@@ -49117,8 +49273,12 @@
       <c r="U428" s="42"/>
     </row>
     <row r="429">
-      <c r="A429" s="14"/>
-      <c r="B429" s="14"/>
+      <c r="A429" s="14" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>2055</v>
+      </c>
       <c r="C429" s="14"/>
       <c r="D429" s="14"/>
       <c r="E429" s="14"/>
@@ -49140,8 +49300,12 @@
       <c r="U429" s="14"/>
     </row>
     <row r="430">
-      <c r="A430" s="14"/>
-      <c r="B430" s="14"/>
+      <c r="A430" s="14" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B430" s="14" t="s">
+        <v>2057</v>
+      </c>
       <c r="C430" s="14"/>
       <c r="D430" s="14"/>
       <c r="E430" s="14"/>
@@ -49163,8 +49327,12 @@
       <c r="U430" s="14"/>
     </row>
     <row r="431">
-      <c r="A431" s="14"/>
-      <c r="B431" s="14"/>
+      <c r="A431" s="14" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>2059</v>
+      </c>
       <c r="C431" s="14"/>
       <c r="D431" s="14"/>
       <c r="E431" s="14"/>
@@ -49186,8 +49354,12 @@
       <c r="U431" s="14"/>
     </row>
     <row r="432">
-      <c r="A432" s="14"/>
-      <c r="B432" s="14"/>
+      <c r="A432" s="14" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B432" s="14" t="s">
+        <v>2061</v>
+      </c>
       <c r="C432" s="14"/>
       <c r="D432" s="14"/>
       <c r="E432" s="14"/>
@@ -49209,8 +49381,12 @@
       <c r="U432" s="14"/>
     </row>
     <row r="433">
-      <c r="A433" s="14"/>
-      <c r="B433" s="14"/>
+      <c r="A433" s="14" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>2063</v>
+      </c>
       <c r="C433" s="14"/>
       <c r="D433" s="14"/>
       <c r="E433" s="14"/>
@@ -49232,8 +49408,12 @@
       <c r="U433" s="14"/>
     </row>
     <row r="434">
-      <c r="A434" s="14"/>
-      <c r="B434" s="14"/>
+      <c r="A434" s="14" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B434" s="14" t="s">
+        <v>2065</v>
+      </c>
       <c r="C434" s="14"/>
       <c r="D434" s="14"/>
       <c r="E434" s="14"/>
@@ -49255,8 +49435,12 @@
       <c r="U434" s="14"/>
     </row>
     <row r="435">
-      <c r="A435" s="14"/>
-      <c r="B435" s="14"/>
+      <c r="A435" s="14" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>463</v>
+      </c>
       <c r="C435" s="13"/>
       <c r="D435" s="14"/>
       <c r="E435" s="14"/>
@@ -49278,8 +49462,12 @@
       <c r="U435" s="14"/>
     </row>
     <row r="436">
-      <c r="A436" s="14"/>
-      <c r="B436" s="14"/>
+      <c r="A436" s="14" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B436" s="14" t="s">
+        <v>2068</v>
+      </c>
       <c r="C436" s="13"/>
       <c r="D436" s="13"/>
       <c r="E436" s="13"/>
@@ -49301,8 +49489,12 @@
       <c r="U436" s="8"/>
     </row>
     <row r="437">
-      <c r="A437" s="14"/>
-      <c r="B437" s="14"/>
+      <c r="A437" s="14" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>2070</v>
+      </c>
       <c r="C437" s="14"/>
       <c r="D437" s="14"/>
       <c r="E437" s="14"/>
@@ -49324,8 +49516,12 @@
       <c r="U437" s="8"/>
     </row>
     <row r="438">
-      <c r="A438" s="14"/>
-      <c r="B438" s="14"/>
+      <c r="A438" s="14" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B438" s="14" t="s">
+        <v>2072</v>
+      </c>
       <c r="C438" s="14"/>
       <c r="D438" s="14"/>
       <c r="E438" s="13"/>
@@ -49347,8 +49543,12 @@
       <c r="U438" s="8"/>
     </row>
     <row r="439">
-      <c r="A439" s="14"/>
-      <c r="B439" s="14"/>
+      <c r="A439" s="14" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B439" s="14" t="s">
+        <v>2074</v>
+      </c>
       <c r="C439" s="8"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
@@ -49370,8 +49570,12 @@
       <c r="U439" s="8"/>
     </row>
     <row r="440">
-      <c r="A440" s="14"/>
-      <c r="B440" s="14"/>
+      <c r="A440" s="14" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B440" s="14" t="s">
+        <v>2076</v>
+      </c>
       <c r="C440" s="14"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
@@ -49393,8 +49597,12 @@
       <c r="U440" s="8"/>
     </row>
     <row r="441">
-      <c r="A441" s="14"/>
-      <c r="B441" s="14"/>
+      <c r="A441" s="14" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>2078</v>
+      </c>
       <c r="C441" s="8"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
@@ -49416,8 +49624,12 @@
       <c r="U441" s="8"/>
     </row>
     <row r="442">
-      <c r="A442" s="14"/>
-      <c r="B442" s="14"/>
+      <c r="A442" s="14" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B442" s="14" t="s">
+        <v>2080</v>
+      </c>
       <c r="C442" s="29"/>
       <c r="D442" s="29"/>
       <c r="E442" s="29"/>
@@ -49439,8 +49651,12 @@
       <c r="U442" s="8"/>
     </row>
     <row r="443">
-      <c r="A443" s="14"/>
-      <c r="B443" s="14"/>
+      <c r="A443" s="14" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>2082</v>
+      </c>
       <c r="C443" s="14"/>
       <c r="D443" s="14"/>
       <c r="E443" s="8"/>
@@ -49462,8 +49678,12 @@
       <c r="U443" s="8"/>
     </row>
     <row r="444">
-      <c r="A444" s="14"/>
-      <c r="B444" s="14"/>
+      <c r="A444" s="14" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B444" s="14" t="s">
+        <v>431</v>
+      </c>
       <c r="C444" s="14"/>
       <c r="D444" s="14"/>
       <c r="E444" s="8"/>
@@ -49485,8 +49705,12 @@
       <c r="U444" s="8"/>
     </row>
     <row r="445">
-      <c r="A445" s="14"/>
-      <c r="B445" s="14"/>
+      <c r="A445" s="14" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>2085</v>
+      </c>
       <c r="C445" s="14"/>
       <c r="D445" s="14"/>
       <c r="E445" s="14"/>
@@ -49508,8 +49732,12 @@
       <c r="U445" s="8"/>
     </row>
     <row r="446">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
+      <c r="A446" s="14" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B446" s="14" t="s">
+        <v>2087</v>
+      </c>
       <c r="C446" s="14"/>
       <c r="D446" s="14"/>
       <c r="E446" s="8"/>
@@ -49531,8 +49759,12 @@
       <c r="U446" s="8"/>
     </row>
     <row r="447">
-      <c r="A447" s="14"/>
-      <c r="B447" s="14"/>
+      <c r="A447" s="14" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>2089</v>
+      </c>
       <c r="C447" s="14"/>
       <c r="D447" s="14"/>
       <c r="E447" s="14"/>
@@ -49554,8 +49786,12 @@
       <c r="U447" s="8"/>
     </row>
     <row r="448">
-      <c r="A448" s="14"/>
-      <c r="B448" s="14"/>
+      <c r="A448" s="14" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B448" s="14" t="s">
+        <v>2091</v>
+      </c>
       <c r="C448" s="14"/>
       <c r="D448" s="14"/>
       <c r="E448" s="8"/>
@@ -49577,8 +49813,12 @@
       <c r="U448" s="8"/>
     </row>
     <row r="449">
-      <c r="A449" s="14"/>
-      <c r="B449" s="14"/>
+      <c r="A449" s="14" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>2093</v>
+      </c>
       <c r="C449" s="14"/>
       <c r="D449" s="14"/>
       <c r="E449" s="8"/>
@@ -49600,8 +49840,12 @@
       <c r="U449" s="8"/>
     </row>
     <row r="450">
-      <c r="A450" s="14"/>
-      <c r="B450" s="14"/>
+      <c r="A450" s="14" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B450" s="14" t="s">
+        <v>525</v>
+      </c>
       <c r="C450" s="14"/>
       <c r="D450" s="14"/>
       <c r="E450" s="14"/>
@@ -49623,8 +49867,12 @@
       <c r="U450" s="8"/>
     </row>
     <row r="451">
-      <c r="A451" s="14"/>
-      <c r="B451" s="14"/>
+      <c r="A451" s="14" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>2096</v>
+      </c>
       <c r="C451" s="27"/>
       <c r="D451" s="28"/>
       <c r="E451" s="29"/>
@@ -62043,9 +62291,9 @@
       <c r="U990" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$B$424">
-    <sortState ref="A1:B424">
-      <sortCondition ref="A1:A424"/>
+  <autoFilter ref="$A$1:$B$451">
+    <sortState ref="A1:B451">
+      <sortCondition ref="A1:A451"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
